--- a/excel/planilhasGerada/importar-produtos.xlsx
+++ b/excel/planilhasGerada/importar-produtos.xlsx
@@ -735,394 +735,528 @@
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" s="20">
-      <c r="A3" s="9" t="inlineStr"/>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B3" s="10" t="n">
-        <v>3463</v>
+        <v>7554</v>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>nGFhuXpfbNcWEkAGEPzD</t>
+          <t>LqMbBHjjLMFNvpETuyXL</t>
         </is>
       </c>
-      <c r="D3" s="11" t="inlineStr"/>
-      <c r="E3" s="11" t="inlineStr"/>
-      <c r="F3" s="11" t="inlineStr"/>
-      <c r="G3" s="11" t="inlineStr"/>
-      <c r="H3" s="11" t="inlineStr"/>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>6230609360630</t>
+        </is>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>36.403</v>
+      </c>
+      <c r="F3" s="11" t="inlineStr">
+        <is>
+          <t>SEBQG</t>
+        </is>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>48.18</v>
+      </c>
       <c r="I3" s="11" t="inlineStr">
         <is>
-          <t>Ampola</t>
+          <t>Bloco</t>
         </is>
       </c>
       <c r="J3" s="12" t="inlineStr"/>
       <c r="K3" s="12" t="inlineStr"/>
-      <c r="L3" s="12" t="inlineStr"/>
-      <c r="M3" s="11" t="inlineStr"/>
-      <c r="N3" s="13" t="inlineStr"/>
-      <c r="O3" s="13" t="inlineStr"/>
-      <c r="P3" s="13" t="inlineStr"/>
-      <c r="Q3" s="11" t="inlineStr"/>
-      <c r="R3" s="11" t="inlineStr"/>
-      <c r="S3" s="11" t="inlineStr"/>
-      <c r="T3" s="11" t="inlineStr"/>
-      <c r="U3" s="11" t="inlineStr"/>
-      <c r="V3" s="13" t="inlineStr"/>
-      <c r="W3" s="13" t="inlineStr"/>
-      <c r="X3" s="13" t="inlineStr"/>
+      <c r="L3" s="12" t="inlineStr">
+        <is>
+          <t>FNHYA</t>
+        </is>
+      </c>
+      <c r="M3" s="11" t="inlineStr">
+        <is>
+          <t>A possibilidade de realizar seus sonhos naturalmente</t>
+        </is>
+      </c>
+      <c r="N3" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O3" s="13" t="n">
+        <v>1001</v>
+      </c>
+      <c r="P3" s="13" t="n">
+        <v>8286</v>
+      </c>
+      <c r="Q3" s="11" t="inlineStr">
+        <is>
+          <t>2 - Estrangeira: adquirida no mercado interno, exceto a indicada no código 7</t>
+        </is>
+      </c>
+      <c r="R3" s="11" t="inlineStr">
+        <is>
+          <t>02 - Embalagens</t>
+        </is>
+      </c>
+      <c r="S3" s="11" t="inlineStr">
+        <is>
+          <t>02011000</t>
+        </is>
+      </c>
+      <c r="T3" s="11" t="n">
+        <v>206</v>
+      </c>
+      <c r="U3" s="11" t="inlineStr">
+        <is>
+          <t>A2423800392525883310449451656068</t>
+        </is>
+      </c>
+      <c r="V3" s="13" t="n">
+        <v>83.69</v>
+      </c>
+      <c r="W3" s="13" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="X3" s="13" t="inlineStr">
+        <is>
+          <t>0200100</t>
+        </is>
+      </c>
       <c r="Y3" s="14" t="inlineStr"/>
-      <c r="Z3" s="13" t="inlineStr"/>
-      <c r="AA3" s="13" t="inlineStr"/>
+      <c r="Z3" s="13" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
+      <c r="AA3" s="13" t="inlineStr">
+        <is>
+          <t>26439870556</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="1" s="20">
-      <c r="A4" s="9" t="inlineStr"/>
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B4" s="10" t="n">
-        <v>2870</v>
+        <v>2899</v>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>tsiHeYGsNFcKmWmnPvFA</t>
+          <t>diWjqCFZKcajYUyDmxcL</t>
         </is>
       </c>
-      <c r="D4" s="11" t="inlineStr"/>
-      <c r="E4" s="11" t="inlineStr"/>
-      <c r="F4" s="11" t="inlineStr"/>
-      <c r="G4" s="11" t="inlineStr"/>
-      <c r="H4" s="11" t="inlineStr"/>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>1016981308256</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>125.324</v>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>SXSAY</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>82.77</v>
+      </c>
+      <c r="H4" s="11" t="n">
+        <v>94.98999999999999</v>
+      </c>
       <c r="I4" s="11" t="inlineStr">
         <is>
-          <t>Balde</t>
+          <t>Bobina</t>
         </is>
       </c>
       <c r="J4" s="12" t="inlineStr"/>
       <c r="K4" s="12" t="inlineStr"/>
-      <c r="L4" s="12" t="inlineStr"/>
-      <c r="M4" s="11" t="inlineStr"/>
-      <c r="N4" s="13" t="inlineStr"/>
-      <c r="O4" s="13" t="inlineStr"/>
-      <c r="P4" s="13" t="inlineStr"/>
-      <c r="Q4" s="11" t="inlineStr"/>
-      <c r="R4" s="11" t="inlineStr"/>
-      <c r="S4" s="11" t="inlineStr"/>
-      <c r="T4" s="11" t="inlineStr"/>
-      <c r="U4" s="11" t="inlineStr"/>
-      <c r="V4" s="13" t="inlineStr"/>
-      <c r="W4" s="13" t="inlineStr"/>
-      <c r="X4" s="13" t="inlineStr"/>
+      <c r="L4" s="12" t="inlineStr">
+        <is>
+          <t>LTKSB</t>
+        </is>
+      </c>
+      <c r="M4" s="11" t="inlineStr">
+        <is>
+          <t>A vantagem de ganhar com força total</t>
+        </is>
+      </c>
+      <c r="N4" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O4" s="13" t="n">
+        <v>9172</v>
+      </c>
+      <c r="P4" s="13" t="n">
+        <v>2486</v>
+      </c>
+      <c r="Q4" s="11" t="inlineStr">
+        <is>
+          <t>2 - Estrangeira: adquirida no mercado interno, exceto a indicada no código 7</t>
+        </is>
+      </c>
+      <c r="R4" s="11" t="inlineStr">
+        <is>
+          <t>06 - Produto Intermediário</t>
+        </is>
+      </c>
+      <c r="S4" s="11" t="inlineStr">
+        <is>
+          <t>02011000</t>
+        </is>
+      </c>
+      <c r="T4" s="11" t="n">
+        <v>462</v>
+      </c>
+      <c r="U4" s="11" t="inlineStr">
+        <is>
+          <t>A8255075091959073952989944143926</t>
+        </is>
+      </c>
+      <c r="V4" s="13" t="n">
+        <v>78.27</v>
+      </c>
+      <c r="W4" s="13" t="n">
+        <v>82.69</v>
+      </c>
+      <c r="X4" s="13" t="inlineStr">
+        <is>
+          <t>2899900</t>
+        </is>
+      </c>
       <c r="Y4" s="14" t="inlineStr"/>
-      <c r="Z4" s="13" t="inlineStr"/>
-      <c r="AA4" s="13" t="inlineStr"/>
+      <c r="Z4" s="13" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
+      <c r="AA4" s="13" t="inlineStr">
+        <is>
+          <t>25190873404</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="1" s="20">
-      <c r="A5" s="9" t="inlineStr"/>
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B5" s="10" t="n">
-        <v>9532</v>
+        <v>4008</v>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>tufTCYNYmaMbMQlMFUVw</t>
+          <t>nViMRPpKxZcAOMwNwCVO</t>
         </is>
       </c>
-      <c r="D5" s="11" t="inlineStr"/>
-      <c r="E5" s="11" t="inlineStr"/>
-      <c r="F5" s="11" t="inlineStr"/>
-      <c r="G5" s="11" t="inlineStr"/>
-      <c r="H5" s="11" t="inlineStr"/>
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>3552741429406</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>840.246</v>
+      </c>
+      <c r="F5" s="11" t="inlineStr">
+        <is>
+          <t>DZAML</t>
+        </is>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>11.14</v>
+      </c>
       <c r="I5" s="11" t="inlineStr">
         <is>
-          <t>Bobina</t>
+          <t>Bloco</t>
         </is>
       </c>
       <c r="J5" s="12" t="inlineStr"/>
       <c r="K5" s="12" t="inlineStr"/>
-      <c r="L5" s="12" t="inlineStr"/>
-      <c r="M5" s="11" t="inlineStr"/>
-      <c r="N5" s="13" t="inlineStr"/>
-      <c r="O5" s="13" t="inlineStr"/>
-      <c r="P5" s="13" t="inlineStr"/>
-      <c r="Q5" s="11" t="inlineStr"/>
-      <c r="R5" s="11" t="inlineStr"/>
-      <c r="S5" s="11" t="inlineStr"/>
-      <c r="T5" s="11" t="inlineStr"/>
-      <c r="U5" s="11" t="inlineStr"/>
-      <c r="V5" s="13" t="inlineStr"/>
-      <c r="W5" s="13" t="inlineStr"/>
-      <c r="X5" s="13" t="inlineStr"/>
-      <c r="Y5" s="14" t="inlineStr"/>
-      <c r="Z5" s="13" t="inlineStr"/>
-      <c r="AA5" s="13" t="inlineStr"/>
-    </row>
-    <row r="6" ht="30" customHeight="1" s="20">
-      <c r="A6" s="9" t="inlineStr"/>
-      <c r="B6" s="10" t="n">
-        <v>2997</v>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="L5" s="12" t="inlineStr">
         <is>
-          <t>caIePPUwYehjRhTWLZRg</t>
+          <t>DMZTQ</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr"/>
-      <c r="E6" s="11" t="inlineStr"/>
-      <c r="F6" s="11" t="inlineStr"/>
-      <c r="G6" s="11" t="inlineStr"/>
-      <c r="H6" s="11" t="inlineStr"/>
-      <c r="I6" s="11" t="inlineStr">
+      <c r="M5" s="11" t="inlineStr">
         <is>
-          <t>Barra</t>
+          <t>A vantagem de conseguir com confiança</t>
         </is>
       </c>
-      <c r="J6" s="12" t="inlineStr"/>
-      <c r="K6" s="12" t="inlineStr"/>
-      <c r="L6" s="12" t="inlineStr"/>
-      <c r="M6" s="11" t="inlineStr"/>
-      <c r="N6" s="13" t="inlineStr"/>
-      <c r="O6" s="13" t="inlineStr"/>
-      <c r="P6" s="13" t="inlineStr"/>
-      <c r="Q6" s="11" t="inlineStr"/>
-      <c r="R6" s="11" t="inlineStr"/>
-      <c r="S6" s="11" t="inlineStr"/>
-      <c r="T6" s="11" t="inlineStr"/>
-      <c r="U6" s="11" t="inlineStr"/>
-      <c r="V6" s="13" t="inlineStr"/>
-      <c r="W6" s="13" t="inlineStr"/>
-      <c r="X6" s="13" t="inlineStr"/>
-      <c r="Y6" s="14" t="inlineStr"/>
-      <c r="Z6" s="13" t="inlineStr"/>
-      <c r="AA6" s="13" t="inlineStr"/>
-    </row>
-    <row r="7" ht="30" customHeight="1" s="20">
-      <c r="A7" s="9" t="inlineStr"/>
-      <c r="B7" s="15" t="n">
-        <v>3054</v>
-      </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="N5" s="13" t="inlineStr">
         <is>
-          <t>zFVImHvNNFrukhUzZJbm</t>
+          <t>1</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr"/>
-      <c r="E7" s="11" t="inlineStr"/>
-      <c r="F7" s="11" t="inlineStr"/>
-      <c r="G7" s="11" t="inlineStr"/>
-      <c r="H7" s="11" t="inlineStr"/>
-      <c r="I7" s="11" t="inlineStr">
+      <c r="O5" s="13" t="n">
+        <v>7030</v>
+      </c>
+      <c r="P5" s="13" t="n">
+        <v>4854</v>
+      </c>
+      <c r="Q5" s="11" t="inlineStr">
         <is>
-          <t>Ampola</t>
+          <t>8 - Nacional: mercadoria ou bem com Conteúdo de Importação superior a 70%</t>
         </is>
       </c>
-      <c r="J7" s="12" t="inlineStr"/>
-      <c r="K7" s="12" t="inlineStr"/>
-      <c r="L7" s="12" t="inlineStr"/>
-      <c r="M7" s="11" t="inlineStr"/>
-      <c r="N7" s="13" t="inlineStr"/>
-      <c r="O7" s="13" t="inlineStr"/>
-      <c r="P7" s="13" t="inlineStr"/>
-      <c r="Q7" s="11" t="inlineStr"/>
-      <c r="R7" s="11" t="inlineStr"/>
-      <c r="S7" s="11" t="inlineStr"/>
-      <c r="T7" s="11" t="inlineStr"/>
-      <c r="U7" s="11" t="inlineStr"/>
-      <c r="V7" s="13" t="inlineStr"/>
-      <c r="W7" s="13" t="inlineStr"/>
-      <c r="X7" s="13" t="inlineStr"/>
-      <c r="Y7" s="14" t="inlineStr"/>
-      <c r="Z7" s="13" t="inlineStr"/>
-      <c r="AA7" s="13" t="inlineStr"/>
-    </row>
-    <row r="8" ht="30" customHeight="1" s="20">
-      <c r="A8" s="9" t="inlineStr"/>
-      <c r="B8" s="10" t="n">
-        <v>9701</v>
-      </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="R5" s="11" t="inlineStr">
         <is>
-          <t>XnMKbMYrNUsxKZfkhbZU</t>
+          <t>99 - Outros</t>
         </is>
       </c>
-      <c r="D8" s="11" t="inlineStr"/>
-      <c r="E8" s="11" t="inlineStr"/>
-      <c r="F8" s="11" t="inlineStr"/>
-      <c r="G8" s="11" t="inlineStr"/>
-      <c r="H8" s="11" t="inlineStr"/>
-      <c r="I8" s="11" t="inlineStr">
+      <c r="S5" s="11" t="inlineStr">
         <is>
-          <t>Bloco</t>
+          <t>02011000</t>
         </is>
       </c>
-      <c r="J8" s="12" t="inlineStr"/>
-      <c r="K8" s="12" t="inlineStr"/>
-      <c r="L8" s="12" t="inlineStr"/>
-      <c r="M8" s="11" t="inlineStr"/>
-      <c r="N8" s="13" t="inlineStr"/>
-      <c r="O8" s="13" t="inlineStr"/>
-      <c r="P8" s="13" t="inlineStr"/>
-      <c r="Q8" s="11" t="inlineStr"/>
-      <c r="R8" s="11" t="inlineStr"/>
-      <c r="S8" s="11" t="inlineStr"/>
-      <c r="T8" s="11" t="inlineStr"/>
-      <c r="U8" s="11" t="inlineStr"/>
-      <c r="V8" s="13" t="inlineStr"/>
-      <c r="W8" s="13" t="inlineStr"/>
-      <c r="X8" s="13" t="inlineStr"/>
-      <c r="Y8" s="14" t="inlineStr"/>
-      <c r="Z8" s="13" t="inlineStr"/>
-      <c r="AA8" s="13" t="inlineStr"/>
-    </row>
-    <row r="9" ht="30" customHeight="1" s="20">
-      <c r="A9" s="9" t="inlineStr"/>
-      <c r="B9" s="10" t="n">
-        <v>8765</v>
+      <c r="T5" s="11" t="n">
+        <v>387</v>
       </c>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="U5" s="11" t="inlineStr">
         <is>
-          <t>hgpPqhWzuEMmxuHtBaZS</t>
+          <t>A7342440736174787942193937558276</t>
         </is>
       </c>
-      <c r="D9" s="11" t="inlineStr"/>
-      <c r="E9" s="11" t="inlineStr"/>
-      <c r="F9" s="11" t="inlineStr"/>
-      <c r="G9" s="11" t="inlineStr"/>
-      <c r="H9" s="11" t="inlineStr"/>
-      <c r="I9" s="11" t="inlineStr">
+      <c r="V5" s="13" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="W5" s="13" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="X5" s="13" t="inlineStr">
         <is>
-          <t>Barra</t>
+          <t>0300100</t>
         </is>
       </c>
-      <c r="J9" s="12" t="inlineStr"/>
-      <c r="K9" s="12" t="inlineStr"/>
-      <c r="L9" s="12" t="inlineStr"/>
-      <c r="M9" s="11" t="inlineStr"/>
-      <c r="N9" s="13" t="inlineStr"/>
-      <c r="O9" s="13" t="inlineStr"/>
-      <c r="P9" s="13" t="inlineStr"/>
-      <c r="Q9" s="11" t="inlineStr"/>
-      <c r="R9" s="11" t="inlineStr"/>
-      <c r="S9" s="11" t="inlineStr"/>
-      <c r="T9" s="11" t="inlineStr"/>
-      <c r="U9" s="11" t="inlineStr"/>
-      <c r="V9" s="13" t="inlineStr"/>
-      <c r="W9" s="13" t="inlineStr"/>
-      <c r="X9" s="13" t="inlineStr"/>
-      <c r="Y9" s="14" t="inlineStr"/>
-      <c r="Z9" s="13" t="inlineStr"/>
-      <c r="AA9" s="13" t="inlineStr"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" s="20">
-      <c r="A10" s="9" t="inlineStr"/>
-      <c r="B10" s="10" t="n">
-        <v>3457</v>
-      </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="Y5" s="14" t="inlineStr"/>
+      <c r="Z5" s="13" t="inlineStr">
         <is>
-          <t>wdmrHRfnwUsmDYFNQEkX</t>
+          <t>12548791</t>
         </is>
       </c>
-      <c r="D10" s="11" t="inlineStr"/>
-      <c r="E10" s="11" t="inlineStr"/>
-      <c r="F10" s="11" t="inlineStr"/>
-      <c r="G10" s="11" t="inlineStr"/>
-      <c r="H10" s="11" t="inlineStr"/>
-      <c r="I10" s="11" t="inlineStr">
+      <c r="AA5" s="13" t="inlineStr">
         <is>
-          <t>Ampola</t>
+          <t>10678524335</t>
         </is>
       </c>
-      <c r="J10" s="12" t="inlineStr"/>
-      <c r="K10" s="12" t="inlineStr"/>
-      <c r="L10" s="12" t="inlineStr"/>
-      <c r="M10" s="11" t="inlineStr"/>
-      <c r="N10" s="13" t="inlineStr"/>
-      <c r="O10" s="13" t="inlineStr"/>
-      <c r="P10" s="13" t="inlineStr"/>
-      <c r="Q10" s="11" t="inlineStr"/>
-      <c r="R10" s="11" t="inlineStr"/>
-      <c r="S10" s="11" t="inlineStr"/>
-      <c r="T10" s="11" t="inlineStr"/>
-      <c r="U10" s="11" t="inlineStr"/>
-      <c r="V10" s="13" t="inlineStr"/>
-      <c r="W10" s="13" t="inlineStr"/>
-      <c r="X10" s="13" t="inlineStr"/>
-      <c r="Y10" s="14" t="inlineStr"/>
-      <c r="Z10" s="13" t="inlineStr"/>
-      <c r="AA10" s="13" t="inlineStr"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" s="20">
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="10" t="n"/>
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="11" t="n"/>
+      <c r="E6" s="11" t="n"/>
+      <c r="F6" s="11" t="n"/>
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="11" t="n"/>
+      <c r="I6" s="11" t="n"/>
+      <c r="J6" s="12" t="n"/>
+      <c r="K6" s="12" t="n"/>
+      <c r="L6" s="12" t="n"/>
+      <c r="M6" s="11" t="n"/>
+      <c r="N6" s="13" t="n"/>
+      <c r="O6" s="13" t="n"/>
+      <c r="P6" s="13" t="n"/>
+      <c r="Q6" s="11" t="n"/>
+      <c r="R6" s="11" t="n"/>
+      <c r="S6" s="11" t="n"/>
+      <c r="T6" s="11" t="n"/>
+      <c r="U6" s="11" t="n"/>
+      <c r="V6" s="13" t="n"/>
+      <c r="W6" s="13" t="n"/>
+      <c r="X6" s="13" t="n"/>
+      <c r="Y6" s="14" t="n"/>
+      <c r="Z6" s="13" t="n"/>
+      <c r="AA6" s="13" t="n"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" s="20">
+      <c r="A7" s="9" t="n"/>
+      <c r="B7" s="15" t="n"/>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="11" t="n"/>
+      <c r="E7" s="11" t="n"/>
+      <c r="F7" s="11" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="11" t="n"/>
+      <c r="I7" s="11" t="n"/>
+      <c r="J7" s="12" t="n"/>
+      <c r="K7" s="12" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="11" t="n"/>
+      <c r="N7" s="13" t="n"/>
+      <c r="O7" s="13" t="n"/>
+      <c r="P7" s="13" t="n"/>
+      <c r="Q7" s="11" t="n"/>
+      <c r="R7" s="11" t="n"/>
+      <c r="S7" s="11" t="n"/>
+      <c r="T7" s="11" t="n"/>
+      <c r="U7" s="11" t="n"/>
+      <c r="V7" s="13" t="n"/>
+      <c r="W7" s="13" t="n"/>
+      <c r="X7" s="13" t="n"/>
+      <c r="Y7" s="14" t="n"/>
+      <c r="Z7" s="13" t="n"/>
+      <c r="AA7" s="13" t="n"/>
+    </row>
+    <row r="8" ht="30" customHeight="1" s="20">
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="10" t="n"/>
+      <c r="C8" s="11" t="n"/>
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="11" t="n"/>
+      <c r="H8" s="11" t="n"/>
+      <c r="I8" s="11" t="n"/>
+      <c r="J8" s="12" t="n"/>
+      <c r="K8" s="12" t="n"/>
+      <c r="L8" s="12" t="n"/>
+      <c r="M8" s="11" t="n"/>
+      <c r="N8" s="13" t="n"/>
+      <c r="O8" s="13" t="n"/>
+      <c r="P8" s="13" t="n"/>
+      <c r="Q8" s="11" t="n"/>
+      <c r="R8" s="11" t="n"/>
+      <c r="S8" s="11" t="n"/>
+      <c r="T8" s="11" t="n"/>
+      <c r="U8" s="11" t="n"/>
+      <c r="V8" s="13" t="n"/>
+      <c r="W8" s="13" t="n"/>
+      <c r="X8" s="13" t="n"/>
+      <c r="Y8" s="14" t="n"/>
+      <c r="Z8" s="13" t="n"/>
+      <c r="AA8" s="13" t="n"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" s="20">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="10" t="n"/>
+      <c r="C9" s="11" t="n"/>
+      <c r="D9" s="11" t="n"/>
+      <c r="E9" s="11" t="n"/>
+      <c r="F9" s="11" t="n"/>
+      <c r="G9" s="11" t="n"/>
+      <c r="H9" s="11" t="n"/>
+      <c r="I9" s="11" t="n"/>
+      <c r="J9" s="12" t="n"/>
+      <c r="K9" s="12" t="n"/>
+      <c r="L9" s="12" t="n"/>
+      <c r="M9" s="11" t="n"/>
+      <c r="N9" s="13" t="n"/>
+      <c r="O9" s="13" t="n"/>
+      <c r="P9" s="13" t="n"/>
+      <c r="Q9" s="11" t="n"/>
+      <c r="R9" s="11" t="n"/>
+      <c r="S9" s="11" t="n"/>
+      <c r="T9" s="11" t="n"/>
+      <c r="U9" s="11" t="n"/>
+      <c r="V9" s="13" t="n"/>
+      <c r="W9" s="13" t="n"/>
+      <c r="X9" s="13" t="n"/>
+      <c r="Y9" s="14" t="n"/>
+      <c r="Z9" s="13" t="n"/>
+      <c r="AA9" s="13" t="n"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" s="20">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="10" t="n"/>
+      <c r="C10" s="11" t="n"/>
+      <c r="D10" s="11" t="n"/>
+      <c r="E10" s="11" t="n"/>
+      <c r="F10" s="11" t="n"/>
+      <c r="G10" s="11" t="n"/>
+      <c r="H10" s="11" t="n"/>
+      <c r="I10" s="11" t="n"/>
+      <c r="J10" s="12" t="n"/>
+      <c r="K10" s="12" t="n"/>
+      <c r="L10" s="12" t="n"/>
+      <c r="M10" s="11" t="n"/>
+      <c r="N10" s="13" t="n"/>
+      <c r="O10" s="13" t="n"/>
+      <c r="P10" s="13" t="n"/>
+      <c r="Q10" s="11" t="n"/>
+      <c r="R10" s="11" t="n"/>
+      <c r="S10" s="11" t="n"/>
+      <c r="T10" s="11" t="n"/>
+      <c r="U10" s="11" t="n"/>
+      <c r="V10" s="13" t="n"/>
+      <c r="W10" s="13" t="n"/>
+      <c r="X10" s="13" t="n"/>
+      <c r="Y10" s="14" t="n"/>
+      <c r="Z10" s="13" t="n"/>
+      <c r="AA10" s="13" t="n"/>
     </row>
     <row r="11" ht="30" customHeight="1" s="20">
-      <c r="A11" s="9" t="inlineStr"/>
-      <c r="B11" s="10" t="n">
-        <v>9178</v>
-      </c>
-      <c r="C11" s="11" t="inlineStr">
-        <is>
-          <t>ENjVTrBhEgPkfzSNPOra</t>
-        </is>
-      </c>
-      <c r="D11" s="11" t="inlineStr"/>
-      <c r="E11" s="11" t="inlineStr"/>
-      <c r="F11" s="11" t="inlineStr"/>
-      <c r="G11" s="11" t="inlineStr"/>
-      <c r="H11" s="11" t="inlineStr"/>
-      <c r="I11" s="11" t="inlineStr">
-        <is>
-          <t>Ampola</t>
-        </is>
-      </c>
-      <c r="J11" s="12" t="inlineStr"/>
-      <c r="K11" s="12" t="inlineStr"/>
-      <c r="L11" s="12" t="inlineStr"/>
-      <c r="M11" s="11" t="inlineStr"/>
-      <c r="N11" s="13" t="inlineStr"/>
-      <c r="O11" s="13" t="inlineStr"/>
-      <c r="P11" s="13" t="inlineStr"/>
-      <c r="Q11" s="11" t="inlineStr"/>
-      <c r="R11" s="11" t="inlineStr"/>
-      <c r="S11" s="11" t="inlineStr"/>
-      <c r="T11" s="11" t="inlineStr"/>
-      <c r="U11" s="11" t="inlineStr"/>
-      <c r="V11" s="13" t="inlineStr"/>
-      <c r="W11" s="13" t="inlineStr"/>
-      <c r="X11" s="13" t="inlineStr"/>
-      <c r="Y11" s="14" t="inlineStr"/>
-      <c r="Z11" s="13" t="inlineStr"/>
-      <c r="AA11" s="13" t="inlineStr"/>
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="10" t="n"/>
+      <c r="C11" s="11" t="n"/>
+      <c r="D11" s="11" t="n"/>
+      <c r="E11" s="11" t="n"/>
+      <c r="F11" s="11" t="n"/>
+      <c r="G11" s="11" t="n"/>
+      <c r="H11" s="11" t="n"/>
+      <c r="I11" s="11" t="n"/>
+      <c r="J11" s="12" t="n"/>
+      <c r="K11" s="12" t="n"/>
+      <c r="L11" s="12" t="n"/>
+      <c r="M11" s="11" t="n"/>
+      <c r="N11" s="13" t="n"/>
+      <c r="O11" s="13" t="n"/>
+      <c r="P11" s="13" t="n"/>
+      <c r="Q11" s="11" t="n"/>
+      <c r="R11" s="11" t="n"/>
+      <c r="S11" s="11" t="n"/>
+      <c r="T11" s="11" t="n"/>
+      <c r="U11" s="11" t="n"/>
+      <c r="V11" s="13" t="n"/>
+      <c r="W11" s="13" t="n"/>
+      <c r="X11" s="13" t="n"/>
+      <c r="Y11" s="14" t="n"/>
+      <c r="Z11" s="13" t="n"/>
+      <c r="AA11" s="13" t="n"/>
     </row>
     <row r="12" ht="30" customHeight="1" s="20">
-      <c r="A12" s="9" t="inlineStr"/>
-      <c r="B12" s="10" t="n">
-        <v>3437</v>
-      </c>
-      <c r="C12" s="11" t="inlineStr">
-        <is>
-          <t>uPXTUZrFAlpeXHgVWHoJ</t>
-        </is>
-      </c>
-      <c r="D12" s="11" t="inlineStr"/>
-      <c r="E12" s="11" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr"/>
-      <c r="G12" s="11" t="inlineStr"/>
-      <c r="H12" s="11" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Bobina</t>
-        </is>
-      </c>
-      <c r="J12" s="12" t="inlineStr"/>
-      <c r="K12" s="12" t="inlineStr"/>
-      <c r="L12" s="12" t="inlineStr"/>
-      <c r="M12" s="11" t="inlineStr"/>
-      <c r="N12" s="13" t="inlineStr"/>
-      <c r="O12" s="13" t="inlineStr"/>
-      <c r="P12" s="13" t="inlineStr"/>
-      <c r="Q12" s="11" t="inlineStr"/>
-      <c r="R12" s="11" t="inlineStr"/>
-      <c r="S12" s="11" t="inlineStr"/>
-      <c r="T12" s="11" t="inlineStr"/>
-      <c r="U12" s="11" t="inlineStr"/>
-      <c r="V12" s="13" t="inlineStr"/>
-      <c r="W12" s="13" t="inlineStr"/>
-      <c r="X12" s="13" t="inlineStr"/>
-      <c r="Y12" s="14" t="inlineStr"/>
-      <c r="Z12" s="13" t="inlineStr"/>
-      <c r="AA12" s="13" t="inlineStr"/>
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="10" t="n"/>
+      <c r="C12" s="11" t="n"/>
+      <c r="D12" s="11" t="n"/>
+      <c r="E12" s="11" t="n"/>
+      <c r="F12" s="11" t="n"/>
+      <c r="G12" s="11" t="n"/>
+      <c r="H12" s="11" t="n"/>
+      <c r="I12" s="11" t="n"/>
+      <c r="J12" s="12" t="n"/>
+      <c r="K12" s="12" t="n"/>
+      <c r="L12" s="12" t="n"/>
+      <c r="M12" s="11" t="n"/>
+      <c r="N12" s="13" t="n"/>
+      <c r="O12" s="13" t="n"/>
+      <c r="P12" s="13" t="n"/>
+      <c r="Q12" s="11" t="n"/>
+      <c r="R12" s="11" t="n"/>
+      <c r="S12" s="11" t="n"/>
+      <c r="T12" s="11" t="n"/>
+      <c r="U12" s="11" t="n"/>
+      <c r="V12" s="13" t="n"/>
+      <c r="W12" s="13" t="n"/>
+      <c r="X12" s="13" t="n"/>
+      <c r="Y12" s="14" t="n"/>
+      <c r="Z12" s="13" t="n"/>
+      <c r="AA12" s="13" t="n"/>
     </row>
     <row r="13" ht="30" customHeight="1" s="20">
       <c r="A13" s="9" t="n"/>

--- a/excel/planilhasGerada/importar-produtos.xlsx
+++ b/excel/planilhasGerada/importar-produtos.xlsx
@@ -741,47 +741,47 @@
         </is>
       </c>
       <c r="B3" s="10" t="n">
-        <v>7554</v>
+        <v>161</v>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>LqMbBHjjLMFNvpETuyXL</t>
+          <t>cApXkJiXSmKLmLCmbGAh</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>6230609360630</t>
+          <t>0212166957870</t>
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>36.403</v>
+        <v>120.654</v>
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
-          <t>SEBQG</t>
+          <t>HHNYJ</t>
         </is>
       </c>
       <c r="G3" s="11" t="n">
-        <v>28.38</v>
+        <v>97.53</v>
       </c>
       <c r="H3" s="11" t="n">
-        <v>48.18</v>
+        <v>50.99</v>
       </c>
       <c r="I3" s="11" t="inlineStr">
         <is>
-          <t>Bloco</t>
+          <t>Ampola</t>
         </is>
       </c>
       <c r="J3" s="12" t="inlineStr"/>
       <c r="K3" s="12" t="inlineStr"/>
       <c r="L3" s="12" t="inlineStr">
         <is>
-          <t>FNHYA</t>
+          <t>KRUUM</t>
         </is>
       </c>
       <c r="M3" s="11" t="inlineStr">
         <is>
-          <t>A possibilidade de realizar seus sonhos naturalmente</t>
+          <t>O conforto de mudar naturalmente</t>
         </is>
       </c>
       <c r="N3" s="13" t="inlineStr">
@@ -790,19 +790,19 @@
         </is>
       </c>
       <c r="O3" s="13" t="n">
-        <v>1001</v>
+        <v>6349</v>
       </c>
       <c r="P3" s="13" t="n">
-        <v>8286</v>
+        <v>5795</v>
       </c>
       <c r="Q3" s="11" t="inlineStr">
         <is>
-          <t>2 - Estrangeira: adquirida no mercado interno, exceto a indicada no código 7</t>
+          <t>5 - Nacional: mercadoria ou bem com Conteúdo de Importação inferior ou igual a 40%</t>
         </is>
       </c>
       <c r="R3" s="11" t="inlineStr">
         <is>
-          <t>02 - Embalagens</t>
+          <t>04 - Produto Acabado</t>
         </is>
       </c>
       <c r="S3" s="11" t="inlineStr">
@@ -811,18 +811,18 @@
         </is>
       </c>
       <c r="T3" s="11" t="n">
-        <v>206</v>
+        <v>377</v>
       </c>
       <c r="U3" s="11" t="inlineStr">
         <is>
-          <t>A2423800392525883310449451656068</t>
+          <t>A4539831152998037657851524356822</t>
         </is>
       </c>
       <c r="V3" s="13" t="n">
-        <v>83.69</v>
+        <v>54.55</v>
       </c>
       <c r="W3" s="13" t="n">
-        <v>23.14</v>
+        <v>26.5</v>
       </c>
       <c r="X3" s="13" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
       </c>
       <c r="AA3" s="13" t="inlineStr">
         <is>
-          <t>26439870556</t>
+          <t>27850946000101</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
         </is>
       </c>
       <c r="B4" s="10" t="n">
-        <v>2899</v>
+        <v>4880</v>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>diWjqCFZKcajYUyDmxcL</t>
+          <t>ZTgiEOfRXxSMwGDsaOiP</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>1016981308256</t>
+          <t>1740513422522</t>
         </is>
       </c>
       <c r="E4" s="11" t="n">
-        <v>125.324</v>
+        <v>896.74</v>
       </c>
       <c r="F4" s="11" t="inlineStr">
         <is>
-          <t>SXSAY</t>
+          <t>XSVUS</t>
         </is>
       </c>
       <c r="G4" s="11" t="n">
-        <v>82.77</v>
+        <v>16.63</v>
       </c>
       <c r="H4" s="11" t="n">
-        <v>94.98999999999999</v>
+        <v>58.64</v>
       </c>
       <c r="I4" s="11" t="inlineStr">
         <is>
-          <t>Bobina</t>
+          <t>Barra</t>
         </is>
       </c>
       <c r="J4" s="12" t="inlineStr"/>
       <c r="K4" s="12" t="inlineStr"/>
       <c r="L4" s="12" t="inlineStr">
         <is>
-          <t>LTKSB</t>
+          <t>GQCXU</t>
         </is>
       </c>
       <c r="M4" s="11" t="inlineStr">
         <is>
-          <t>A vantagem de ganhar com força total</t>
+          <t>O conforto de mudar antes de tudo</t>
         </is>
       </c>
       <c r="N4" s="13" t="inlineStr">
@@ -897,39 +897,39 @@
         </is>
       </c>
       <c r="O4" s="13" t="n">
-        <v>9172</v>
+        <v>2943</v>
       </c>
       <c r="P4" s="13" t="n">
-        <v>2486</v>
+        <v>3137</v>
       </c>
       <c r="Q4" s="11" t="inlineStr">
         <is>
-          <t>2 - Estrangeira: adquirida no mercado interno, exceto a indicada no código 7</t>
+          <t>8 - Nacional: mercadoria ou bem com Conteúdo de Importação superior a 70%</t>
         </is>
       </c>
       <c r="R4" s="11" t="inlineStr">
         <is>
-          <t>06 - Produto Intermediário</t>
+          <t>99 - Outros</t>
         </is>
       </c>
       <c r="S4" s="11" t="inlineStr">
         <is>
-          <t>02011000</t>
+          <t>12116000</t>
         </is>
       </c>
       <c r="T4" s="11" t="n">
-        <v>462</v>
+        <v>291</v>
       </c>
       <c r="U4" s="11" t="inlineStr">
         <is>
-          <t>A8255075091959073952989944143926</t>
+          <t>A2484624714121902641651443505898</t>
         </is>
       </c>
       <c r="V4" s="13" t="n">
-        <v>78.27</v>
+        <v>64.44</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>82.69</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="X4" s="13" t="inlineStr">
         <is>
@@ -944,116 +944,38 @@
       </c>
       <c r="AA4" s="13" t="inlineStr">
         <is>
-          <t>25190873404</t>
+          <t>27485390000193</t>
         </is>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" s="20">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
-        <v>4008</v>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>nViMRPpKxZcAOMwNwCVO</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr">
-        <is>
-          <t>3552741429406</t>
-        </is>
-      </c>
-      <c r="E5" s="11" t="n">
-        <v>840.246</v>
-      </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>DZAML</t>
-        </is>
-      </c>
-      <c r="G5" s="11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H5" s="11" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="I5" s="11" t="inlineStr">
-        <is>
-          <t>Bloco</t>
-        </is>
-      </c>
-      <c r="J5" s="12" t="inlineStr"/>
-      <c r="K5" s="12" t="inlineStr"/>
-      <c r="L5" s="12" t="inlineStr">
-        <is>
-          <t>DMZTQ</t>
-        </is>
-      </c>
-      <c r="M5" s="11" t="inlineStr">
-        <is>
-          <t>A vantagem de conseguir com confiança</t>
-        </is>
-      </c>
-      <c r="N5" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O5" s="13" t="n">
-        <v>7030</v>
-      </c>
-      <c r="P5" s="13" t="n">
-        <v>4854</v>
-      </c>
-      <c r="Q5" s="11" t="inlineStr">
-        <is>
-          <t>8 - Nacional: mercadoria ou bem com Conteúdo de Importação superior a 70%</t>
-        </is>
-      </c>
-      <c r="R5" s="11" t="inlineStr">
-        <is>
-          <t>99 - Outros</t>
-        </is>
-      </c>
-      <c r="S5" s="11" t="inlineStr">
-        <is>
-          <t>02011000</t>
-        </is>
-      </c>
-      <c r="T5" s="11" t="n">
-        <v>387</v>
-      </c>
-      <c r="U5" s="11" t="inlineStr">
-        <is>
-          <t>A7342440736174787942193937558276</t>
-        </is>
-      </c>
-      <c r="V5" s="13" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="W5" s="13" t="n">
-        <v>39.21</v>
-      </c>
-      <c r="X5" s="13" t="inlineStr">
-        <is>
-          <t>0300100</t>
-        </is>
-      </c>
-      <c r="Y5" s="14" t="inlineStr"/>
-      <c r="Z5" s="13" t="inlineStr">
-        <is>
-          <t>12548791</t>
-        </is>
-      </c>
-      <c r="AA5" s="13" t="inlineStr">
-        <is>
-          <t>10678524335</t>
-        </is>
-      </c>
+      <c r="A5" s="9" t="n"/>
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="11" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="11" t="n"/>
+      <c r="H5" s="11" t="n"/>
+      <c r="I5" s="11" t="n"/>
+      <c r="J5" s="12" t="n"/>
+      <c r="K5" s="12" t="n"/>
+      <c r="L5" s="12" t="n"/>
+      <c r="M5" s="11" t="n"/>
+      <c r="N5" s="13" t="n"/>
+      <c r="O5" s="13" t="n"/>
+      <c r="P5" s="13" t="n"/>
+      <c r="Q5" s="11" t="n"/>
+      <c r="R5" s="11" t="n"/>
+      <c r="S5" s="11" t="n"/>
+      <c r="T5" s="11" t="n"/>
+      <c r="U5" s="11" t="n"/>
+      <c r="V5" s="13" t="n"/>
+      <c r="W5" s="13" t="n"/>
+      <c r="X5" s="13" t="n"/>
+      <c r="Y5" s="14" t="n"/>
+      <c r="Z5" s="13" t="n"/>
+      <c r="AA5" s="13" t="n"/>
     </row>
     <row r="6" ht="30" customHeight="1" s="20">
       <c r="A6" s="9" t="n"/>

--- a/excel/planilhasGerada/importar-produtos.xlsx
+++ b/excel/planilhasGerada/importar-produtos.xlsx
@@ -735,218 +735,82 @@
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" s="20">
-      <c r="A3" s="9" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
+      <c r="A3" s="9" t="inlineStr"/>
       <c r="B3" s="10" t="n">
-        <v>161</v>
+        <v>5197</v>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>cApXkJiXSmKLmLCmbGAh</t>
+          <t>uKHlnizEbtGEwSkDFoKB</t>
         </is>
       </c>
-      <c r="D3" s="11" t="inlineStr">
+      <c r="D3" s="11" t="inlineStr"/>
+      <c r="E3" s="11" t="inlineStr"/>
+      <c r="F3" s="11" t="inlineStr"/>
+      <c r="G3" s="11" t="inlineStr"/>
+      <c r="H3" s="11" t="inlineStr"/>
+      <c r="I3" s="11" t="inlineStr">
         <is>
-          <t>0212166957870</t>
+          <t>Balde</t>
         </is>
       </c>
-      <c r="E3" s="11" t="n">
-        <v>120.654</v>
+      <c r="J3" s="12" t="inlineStr"/>
+      <c r="K3" s="12" t="inlineStr"/>
+      <c r="L3" s="12" t="inlineStr"/>
+      <c r="M3" s="11" t="inlineStr"/>
+      <c r="N3" s="13" t="inlineStr"/>
+      <c r="O3" s="13" t="inlineStr"/>
+      <c r="P3" s="13" t="inlineStr"/>
+      <c r="Q3" s="11" t="inlineStr"/>
+      <c r="R3" s="11" t="inlineStr"/>
+      <c r="S3" s="11" t="inlineStr"/>
+      <c r="T3" s="11" t="inlineStr"/>
+      <c r="U3" s="11" t="inlineStr"/>
+      <c r="V3" s="13" t="inlineStr"/>
+      <c r="W3" s="13" t="inlineStr"/>
+      <c r="X3" s="13" t="inlineStr"/>
+      <c r="Y3" s="14" t="inlineStr"/>
+      <c r="Z3" s="13" t="inlineStr"/>
+      <c r="AA3" s="13" t="inlineStr"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" s="20">
+      <c r="A4" s="9" t="inlineStr"/>
+      <c r="B4" s="10" t="n">
+        <v>4019</v>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>HHNYJ</t>
+          <t>SPpYMLhlEcOfCCASynuz</t>
         </is>
       </c>
-      <c r="G3" s="11" t="n">
-        <v>97.53</v>
-      </c>
-      <c r="H3" s="11" t="n">
-        <v>50.99</v>
-      </c>
-      <c r="I3" s="11" t="inlineStr">
+      <c r="D4" s="11" t="inlineStr"/>
+      <c r="E4" s="11" t="inlineStr"/>
+      <c r="F4" s="11" t="inlineStr"/>
+      <c r="G4" s="11" t="inlineStr"/>
+      <c r="H4" s="11" t="inlineStr"/>
+      <c r="I4" s="11" t="inlineStr">
         <is>
           <t>Ampola</t>
         </is>
       </c>
-      <c r="J3" s="12" t="inlineStr"/>
-      <c r="K3" s="12" t="inlineStr"/>
-      <c r="L3" s="12" t="inlineStr">
-        <is>
-          <t>KRUUM</t>
-        </is>
-      </c>
-      <c r="M3" s="11" t="inlineStr">
-        <is>
-          <t>O conforto de mudar naturalmente</t>
-        </is>
-      </c>
-      <c r="N3" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O3" s="13" t="n">
-        <v>6349</v>
-      </c>
-      <c r="P3" s="13" t="n">
-        <v>5795</v>
-      </c>
-      <c r="Q3" s="11" t="inlineStr">
-        <is>
-          <t>5 - Nacional: mercadoria ou bem com Conteúdo de Importação inferior ou igual a 40%</t>
-        </is>
-      </c>
-      <c r="R3" s="11" t="inlineStr">
-        <is>
-          <t>04 - Produto Acabado</t>
-        </is>
-      </c>
-      <c r="S3" s="11" t="inlineStr">
-        <is>
-          <t>02011000</t>
-        </is>
-      </c>
-      <c r="T3" s="11" t="n">
-        <v>377</v>
-      </c>
-      <c r="U3" s="11" t="inlineStr">
-        <is>
-          <t>A4539831152998037657851524356822</t>
-        </is>
-      </c>
-      <c r="V3" s="13" t="n">
-        <v>54.55</v>
-      </c>
-      <c r="W3" s="13" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="X3" s="13" t="inlineStr">
-        <is>
-          <t>0200100</t>
-        </is>
-      </c>
-      <c r="Y3" s="14" t="inlineStr"/>
-      <c r="Z3" s="13" t="inlineStr">
-        <is>
-          <t>12548791</t>
-        </is>
-      </c>
-      <c r="AA3" s="13" t="inlineStr">
-        <is>
-          <t>27850946000101</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="30" customHeight="1" s="20">
-      <c r="A4" s="9" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="n">
-        <v>4880</v>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>ZTgiEOfRXxSMwGDsaOiP</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>1740513422522</t>
-        </is>
-      </c>
-      <c r="E4" s="11" t="n">
-        <v>896.74</v>
-      </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>XSVUS</t>
-        </is>
-      </c>
-      <c r="G4" s="11" t="n">
-        <v>16.63</v>
-      </c>
-      <c r="H4" s="11" t="n">
-        <v>58.64</v>
-      </c>
-      <c r="I4" s="11" t="inlineStr">
-        <is>
-          <t>Barra</t>
-        </is>
-      </c>
       <c r="J4" s="12" t="inlineStr"/>
       <c r="K4" s="12" t="inlineStr"/>
-      <c r="L4" s="12" t="inlineStr">
-        <is>
-          <t>GQCXU</t>
-        </is>
-      </c>
-      <c r="M4" s="11" t="inlineStr">
-        <is>
-          <t>O conforto de mudar antes de tudo</t>
-        </is>
-      </c>
-      <c r="N4" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O4" s="13" t="n">
-        <v>2943</v>
-      </c>
-      <c r="P4" s="13" t="n">
-        <v>3137</v>
-      </c>
-      <c r="Q4" s="11" t="inlineStr">
-        <is>
-          <t>8 - Nacional: mercadoria ou bem com Conteúdo de Importação superior a 70%</t>
-        </is>
-      </c>
-      <c r="R4" s="11" t="inlineStr">
-        <is>
-          <t>99 - Outros</t>
-        </is>
-      </c>
-      <c r="S4" s="11" t="inlineStr">
-        <is>
-          <t>12116000</t>
-        </is>
-      </c>
-      <c r="T4" s="11" t="n">
-        <v>291</v>
-      </c>
-      <c r="U4" s="11" t="inlineStr">
-        <is>
-          <t>A2484624714121902641651443505898</t>
-        </is>
-      </c>
-      <c r="V4" s="13" t="n">
-        <v>64.44</v>
-      </c>
-      <c r="W4" s="13" t="n">
-        <v>74.34999999999999</v>
-      </c>
-      <c r="X4" s="13" t="inlineStr">
-        <is>
-          <t>2899900</t>
-        </is>
-      </c>
+      <c r="L4" s="12" t="inlineStr"/>
+      <c r="M4" s="11" t="inlineStr"/>
+      <c r="N4" s="13" t="inlineStr"/>
+      <c r="O4" s="13" t="inlineStr"/>
+      <c r="P4" s="13" t="inlineStr"/>
+      <c r="Q4" s="11" t="inlineStr"/>
+      <c r="R4" s="11" t="inlineStr"/>
+      <c r="S4" s="11" t="inlineStr"/>
+      <c r="T4" s="11" t="inlineStr"/>
+      <c r="U4" s="11" t="inlineStr"/>
+      <c r="V4" s="13" t="inlineStr"/>
+      <c r="W4" s="13" t="inlineStr"/>
+      <c r="X4" s="13" t="inlineStr"/>
       <c r="Y4" s="14" t="inlineStr"/>
-      <c r="Z4" s="13" t="inlineStr">
-        <is>
-          <t>12548791</t>
-        </is>
-      </c>
-      <c r="AA4" s="13" t="inlineStr">
-        <is>
-          <t>27485390000193</t>
-        </is>
-      </c>
+      <c r="Z4" s="13" t="inlineStr"/>
+      <c r="AA4" s="13" t="inlineStr"/>
     </row>
     <row r="5" ht="30" customHeight="1" s="20">
       <c r="A5" s="9" t="n"/>

--- a/excel/planilhasGerada/importar-produtos.xlsx
+++ b/excel/planilhasGerada/importar-produtos.xlsx
@@ -794,141 +794,59 @@
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
+      <c r="A3" s="6" t="inlineStr"/>
       <c r="B3" s="7" t="n">
-        <v>610</v>
+        <v>5381</v>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>EcKmxiwEXzKMWkZWUCRK</t>
+          <t>RnGjvpEifXGVcHrAmAml</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>1014034592706</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="n">
-        <v>585.826</v>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>HBLXB</t>
-        </is>
-      </c>
-      <c r="G3" s="8" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="H3" s="8" t="n">
-        <v>11.71</v>
-      </c>
+      <c r="D3" s="8" t="inlineStr"/>
+      <c r="E3" s="8" t="inlineStr"/>
+      <c r="F3" s="8" t="inlineStr"/>
+      <c r="G3" s="8" t="inlineStr"/>
+      <c r="H3" s="8" t="inlineStr"/>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>Bobina</t>
+          <t>Barra</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr"/>
       <c r="K3" s="9" t="inlineStr"/>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>SOLQG</t>
-        </is>
-      </c>
-      <c r="M3" s="8" t="inlineStr">
-        <is>
-          <t>O conforto de realizar seus sonhos simplesmente</t>
-        </is>
-      </c>
-      <c r="N3" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O3" s="10" t="n">
-        <v>3145</v>
-      </c>
-      <c r="P3" s="10" t="n">
-        <v>4544</v>
-      </c>
-      <c r="Q3" s="8" t="inlineStr">
-        <is>
-          <t>6 - Estrangeira: importação direta, sem similar nacional, constante em lista da CAMEX</t>
-        </is>
-      </c>
-      <c r="R3" s="8" t="inlineStr">
-        <is>
-          <t>06 - Produto Intermediário</t>
-        </is>
-      </c>
-      <c r="S3" s="8" t="inlineStr">
-        <is>
-          <t>01012100</t>
-        </is>
-      </c>
-      <c r="T3" s="8" t="n">
-        <v>517</v>
-      </c>
-      <c r="U3" s="8" t="inlineStr">
-        <is>
-          <t>A7308891048226684794028251276311</t>
-        </is>
-      </c>
-      <c r="V3" s="10" t="n">
-        <v>64.14</v>
-      </c>
-      <c r="W3" s="10" t="n">
-        <v>26.79</v>
-      </c>
-      <c r="X3" s="10" t="inlineStr">
-        <is>
-          <t>0400100</t>
-        </is>
-      </c>
+      <c r="L3" s="9" t="inlineStr"/>
+      <c r="M3" s="8" t="inlineStr"/>
+      <c r="N3" s="10" t="inlineStr"/>
+      <c r="O3" s="10" t="inlineStr"/>
+      <c r="P3" s="10" t="inlineStr"/>
+      <c r="Q3" s="8" t="inlineStr"/>
+      <c r="R3" s="8" t="inlineStr"/>
+      <c r="S3" s="8" t="inlineStr"/>
+      <c r="T3" s="8" t="inlineStr"/>
+      <c r="U3" s="8" t="inlineStr"/>
+      <c r="V3" s="10" t="inlineStr"/>
+      <c r="W3" s="10" t="inlineStr"/>
+      <c r="X3" s="10" t="inlineStr"/>
       <c r="Y3" s="11" t="inlineStr"/>
-      <c r="Z3" s="10" t="inlineStr">
-        <is>
-          <t>GO821019</t>
-        </is>
-      </c>
+      <c r="Z3" s="10" t="inlineStr"/>
       <c r="AA3" s="10" t="inlineStr"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
+      <c r="A4" s="6" t="inlineStr"/>
       <c r="B4" s="7" t="n">
-        <v>3137</v>
+        <v>8639</v>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>cJqQFCdBJFgdPtrNaOYw</t>
+          <t>bdbkkAIfSVHLIhTDpPTF</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>3752431712324</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>401.882</v>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>PJQSZ</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>38.84</v>
-      </c>
+      <c r="D4" s="8" t="inlineStr"/>
+      <c r="E4" s="8" t="inlineStr"/>
+      <c r="F4" s="8" t="inlineStr"/>
+      <c r="G4" s="8" t="inlineStr"/>
+      <c r="H4" s="8" t="inlineStr"/>
       <c r="I4" s="8" t="inlineStr">
         <is>
           <t>Barra</t>
@@ -936,994 +854,372 @@
       </c>
       <c r="J4" s="9" t="inlineStr"/>
       <c r="K4" s="9" t="inlineStr"/>
-      <c r="L4" s="9" t="inlineStr">
-        <is>
-          <t>QCWEL</t>
-        </is>
-      </c>
-      <c r="M4" s="8" t="inlineStr">
-        <is>
-          <t>A possibilidade de atingir seus objetivos mais facilmente</t>
-        </is>
-      </c>
-      <c r="N4" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O4" s="10" t="n">
-        <v>8580</v>
-      </c>
-      <c r="P4" s="10" t="n">
-        <v>9233</v>
-      </c>
-      <c r="Q4" s="8" t="inlineStr">
-        <is>
-          <t>8 - Nacional: mercadoria ou bem com Conteúdo de Importação superior a 70%</t>
-        </is>
-      </c>
-      <c r="R4" s="8" t="inlineStr">
-        <is>
-          <t>03 - Produto em Processo</t>
-        </is>
-      </c>
-      <c r="S4" s="8" t="inlineStr">
-        <is>
-          <t>01012100</t>
-        </is>
-      </c>
-      <c r="T4" s="8" t="n">
-        <v>680</v>
-      </c>
-      <c r="U4" s="8" t="inlineStr">
-        <is>
-          <t>A7560196291900161549773496397065</t>
-        </is>
-      </c>
-      <c r="V4" s="10" t="n">
-        <v>26.31</v>
-      </c>
-      <c r="W4" s="10" t="n">
-        <v>52.51</v>
-      </c>
-      <c r="X4" s="10" t="inlineStr">
-        <is>
-          <t>0200100</t>
-        </is>
-      </c>
+      <c r="L4" s="9" t="inlineStr"/>
+      <c r="M4" s="8" t="inlineStr"/>
+      <c r="N4" s="10" t="inlineStr"/>
+      <c r="O4" s="10" t="inlineStr"/>
+      <c r="P4" s="10" t="inlineStr"/>
+      <c r="Q4" s="8" t="inlineStr"/>
+      <c r="R4" s="8" t="inlineStr"/>
+      <c r="S4" s="8" t="inlineStr"/>
+      <c r="T4" s="8" t="inlineStr"/>
+      <c r="U4" s="8" t="inlineStr"/>
+      <c r="V4" s="10" t="inlineStr"/>
+      <c r="W4" s="10" t="inlineStr"/>
+      <c r="X4" s="10" t="inlineStr"/>
       <c r="Y4" s="11" t="inlineStr"/>
-      <c r="Z4" s="10" t="inlineStr">
-        <is>
-          <t>GO821019</t>
-        </is>
-      </c>
+      <c r="Z4" s="10" t="inlineStr"/>
       <c r="AA4" s="10" t="inlineStr"/>
     </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
+      <c r="A5" s="6" t="inlineStr"/>
       <c r="B5" s="7" t="n">
-        <v>3745</v>
+        <v>9529</v>
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>aNTPJyPOcKFlTWFajnqo</t>
+          <t>HicvFiqJISjcpKXAMYFe</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>2275367359087</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>230.437</v>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>KMRJD</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>52.53</v>
-      </c>
-      <c r="H5" s="8" t="n">
-        <v>67.67</v>
-      </c>
+      <c r="D5" s="8" t="inlineStr"/>
+      <c r="E5" s="8" t="inlineStr"/>
+      <c r="F5" s="8" t="inlineStr"/>
+      <c r="G5" s="8" t="inlineStr"/>
+      <c r="H5" s="8" t="inlineStr"/>
       <c r="I5" s="8" t="inlineStr">
         <is>
-          <t>Ampola</t>
+          <t>Balde</t>
         </is>
       </c>
       <c r="J5" s="9" t="inlineStr"/>
       <c r="K5" s="9" t="inlineStr"/>
-      <c r="L5" s="9" t="inlineStr">
-        <is>
-          <t>TMKVJ</t>
-        </is>
-      </c>
-      <c r="M5" s="8" t="inlineStr">
-        <is>
-          <t>O prazer de realizar seus sonhos antes de tudo</t>
-        </is>
-      </c>
-      <c r="N5" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O5" s="10" t="n">
-        <v>8039</v>
-      </c>
-      <c r="P5" s="10" t="n">
-        <v>270</v>
-      </c>
-      <c r="Q5" s="8" t="inlineStr">
-        <is>
-          <t>1 - Estrangeira: importação direta, exceto a indicada no código 6</t>
-        </is>
-      </c>
-      <c r="R5" s="8" t="inlineStr">
-        <is>
-          <t>00 - Mercadoria para Revenda</t>
-        </is>
-      </c>
-      <c r="S5" s="8" t="inlineStr">
-        <is>
-          <t>12116000</t>
-        </is>
-      </c>
-      <c r="T5" s="8" t="n">
-        <v>282</v>
-      </c>
-      <c r="U5" s="8" t="inlineStr">
-        <is>
-          <t>A7431496920554250153414873515177</t>
-        </is>
-      </c>
-      <c r="V5" s="10" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="W5" s="10" t="n">
-        <v>84.02</v>
-      </c>
-      <c r="X5" s="10" t="inlineStr">
-        <is>
-          <t>0300100</t>
-        </is>
-      </c>
+      <c r="L5" s="9" t="inlineStr"/>
+      <c r="M5" s="8" t="inlineStr"/>
+      <c r="N5" s="10" t="inlineStr"/>
+      <c r="O5" s="10" t="inlineStr"/>
+      <c r="P5" s="10" t="inlineStr"/>
+      <c r="Q5" s="8" t="inlineStr"/>
+      <c r="R5" s="8" t="inlineStr"/>
+      <c r="S5" s="8" t="inlineStr"/>
+      <c r="T5" s="8" t="inlineStr"/>
+      <c r="U5" s="8" t="inlineStr"/>
+      <c r="V5" s="10" t="inlineStr"/>
+      <c r="W5" s="10" t="inlineStr"/>
+      <c r="X5" s="10" t="inlineStr"/>
       <c r="Y5" s="11" t="inlineStr"/>
-      <c r="Z5" s="10" t="inlineStr">
-        <is>
-          <t>GO821019</t>
-        </is>
-      </c>
+      <c r="Z5" s="10" t="inlineStr"/>
       <c r="AA5" s="10" t="inlineStr"/>
     </row>
     <row r="6" ht="30" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
+      <c r="A6" s="6" t="inlineStr"/>
       <c r="B6" s="7" t="n">
-        <v>3463</v>
+        <v>927</v>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>oSneWAUHMNSoxPRBLtfz</t>
+          <t>HoWpSgtfSztNFkPKdNzT</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr"/>
+      <c r="E6" s="8" t="inlineStr"/>
+      <c r="F6" s="8" t="inlineStr"/>
+      <c r="G6" s="8" t="inlineStr"/>
+      <c r="H6" s="8" t="inlineStr"/>
+      <c r="I6" s="8" t="inlineStr">
         <is>
-          <t>5822985131426</t>
+          <t>Bloco</t>
         </is>
       </c>
-      <c r="E6" s="8" t="n">
-        <v>901.105</v>
+      <c r="J6" s="9" t="inlineStr"/>
+      <c r="K6" s="9" t="inlineStr"/>
+      <c r="L6" s="9" t="inlineStr"/>
+      <c r="M6" s="8" t="inlineStr"/>
+      <c r="N6" s="10" t="inlineStr"/>
+      <c r="O6" s="10" t="inlineStr"/>
+      <c r="P6" s="10" t="inlineStr"/>
+      <c r="Q6" s="8" t="inlineStr"/>
+      <c r="R6" s="8" t="inlineStr"/>
+      <c r="S6" s="8" t="inlineStr"/>
+      <c r="T6" s="8" t="inlineStr"/>
+      <c r="U6" s="8" t="inlineStr"/>
+      <c r="V6" s="10" t="inlineStr"/>
+      <c r="W6" s="10" t="inlineStr"/>
+      <c r="X6" s="10" t="inlineStr"/>
+      <c r="Y6" s="11" t="inlineStr"/>
+      <c r="Z6" s="10" t="inlineStr"/>
+      <c r="AA6" s="10" t="inlineStr"/>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="6" t="inlineStr"/>
+      <c r="B7" s="7" t="n">
+        <v>5473</v>
       </c>
-      <c r="F6" s="8" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>SZTPZ</t>
+          <t>fQFoTflvFGAZjaNRaSkx</t>
         </is>
       </c>
-      <c r="G6" s="8" t="n">
-        <v>74.98999999999999</v>
+      <c r="D7" s="8" t="inlineStr"/>
+      <c r="E7" s="8" t="inlineStr"/>
+      <c r="F7" s="8" t="inlineStr"/>
+      <c r="G7" s="8" t="inlineStr"/>
+      <c r="H7" s="8" t="inlineStr"/>
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t>Balde</t>
+        </is>
       </c>
-      <c r="H6" s="8" t="n">
-        <v>1.11</v>
+      <c r="J7" s="9" t="inlineStr"/>
+      <c r="K7" s="9" t="inlineStr"/>
+      <c r="L7" s="9" t="inlineStr"/>
+      <c r="M7" s="8" t="inlineStr"/>
+      <c r="N7" s="10" t="inlineStr"/>
+      <c r="O7" s="10" t="inlineStr"/>
+      <c r="P7" s="10" t="inlineStr"/>
+      <c r="Q7" s="8" t="inlineStr"/>
+      <c r="R7" s="8" t="inlineStr"/>
+      <c r="S7" s="8" t="inlineStr"/>
+      <c r="T7" s="8" t="inlineStr"/>
+      <c r="U7" s="8" t="inlineStr"/>
+      <c r="V7" s="10" t="inlineStr"/>
+      <c r="W7" s="10" t="inlineStr"/>
+      <c r="X7" s="10" t="inlineStr"/>
+      <c r="Y7" s="11" t="inlineStr"/>
+      <c r="Z7" s="10" t="inlineStr"/>
+      <c r="AA7" s="10" t="inlineStr"/>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="6" t="inlineStr"/>
+      <c r="B8" s="7" t="n">
+        <v>6772</v>
       </c>
-      <c r="I6" s="8" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>FMsiRBkyHDRflmZhZBLi</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
         <is>
           <t>Barra</t>
         </is>
       </c>
-      <c r="J6" s="9" t="inlineStr"/>
-      <c r="K6" s="9" t="inlineStr"/>
-      <c r="L6" s="9" t="inlineStr">
+      <c r="J8" s="9" t="inlineStr"/>
+      <c r="K8" s="9" t="inlineStr"/>
+      <c r="L8" s="9" t="inlineStr"/>
+      <c r="M8" s="8" t="inlineStr"/>
+      <c r="N8" s="10" t="inlineStr"/>
+      <c r="O8" s="10" t="inlineStr"/>
+      <c r="P8" s="10" t="inlineStr"/>
+      <c r="Q8" s="8" t="inlineStr"/>
+      <c r="R8" s="8" t="inlineStr"/>
+      <c r="S8" s="8" t="inlineStr"/>
+      <c r="T8" s="8" t="inlineStr"/>
+      <c r="U8" s="8" t="inlineStr"/>
+      <c r="V8" s="10" t="inlineStr"/>
+      <c r="W8" s="10" t="inlineStr"/>
+      <c r="X8" s="10" t="inlineStr"/>
+      <c r="Y8" s="11" t="inlineStr"/>
+      <c r="Z8" s="10" t="inlineStr"/>
+      <c r="AA8" s="10" t="inlineStr"/>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="6" t="inlineStr"/>
+      <c r="B9" s="7" t="n">
+        <v>595</v>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>BLKUQ</t>
+          <t>HZWADKoNEpHoZBvMcTBk</t>
         </is>
       </c>
-      <c r="M6" s="8" t="inlineStr">
-        <is>
-          <t>O prazer de avançar mais rapidamente</t>
-        </is>
-      </c>
-      <c r="N6" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O6" s="10" t="n">
-        <v>3596</v>
-      </c>
-      <c r="P6" s="10" t="n">
-        <v>701</v>
-      </c>
-      <c r="Q6" s="8" t="inlineStr">
-        <is>
-          <t>4 - Nacional: produção em conformidade com processos básicos tratados na legislação dos Ajustes</t>
-        </is>
-      </c>
-      <c r="R6" s="8" t="inlineStr">
-        <is>
-          <t>02 - Embalagens</t>
-        </is>
-      </c>
-      <c r="S6" s="8" t="inlineStr">
-        <is>
-          <t>01012100</t>
-        </is>
-      </c>
-      <c r="T6" s="8" t="n">
-        <v>393</v>
-      </c>
-      <c r="U6" s="8" t="inlineStr">
-        <is>
-          <t>A4140864589518984926321769093065</t>
-        </is>
-      </c>
-      <c r="V6" s="10" t="n">
-        <v>40.09</v>
-      </c>
-      <c r="W6" s="10" t="n">
-        <v>71.20999999999999</v>
-      </c>
-      <c r="X6" s="10" t="inlineStr">
-        <is>
-          <t>0300100</t>
-        </is>
-      </c>
-      <c r="Y6" s="11" t="inlineStr"/>
-      <c r="Z6" s="10" t="inlineStr">
-        <is>
-          <t>GO821019</t>
-        </is>
-      </c>
-      <c r="AA6" s="10" t="inlineStr"/>
-    </row>
-    <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n">
-        <v>4919</v>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>OvBWcbcvUwApOYFSUplQ</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>7376062888454</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="n">
-        <v>729.203</v>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>XAOWW</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="n">
-        <v>97.73</v>
-      </c>
-      <c r="H7" s="8" t="n">
-        <v>60.05</v>
-      </c>
-      <c r="I7" s="8" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
         <is>
           <t>Bloco</t>
         </is>
       </c>
-      <c r="J7" s="9" t="inlineStr"/>
-      <c r="K7" s="9" t="inlineStr"/>
-      <c r="L7" s="9" t="inlineStr">
-        <is>
-          <t>SRAED</t>
-        </is>
-      </c>
-      <c r="M7" s="8" t="inlineStr">
-        <is>
-          <t>O direito de inovar antes de tudo</t>
-        </is>
-      </c>
-      <c r="N7" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O7" s="10" t="n">
-        <v>5038</v>
-      </c>
-      <c r="P7" s="10" t="n">
-        <v>5580</v>
-      </c>
-      <c r="Q7" s="8" t="inlineStr">
-        <is>
-          <t>8 - Nacional: mercadoria ou bem com Conteúdo de Importação superior a 70%</t>
-        </is>
-      </c>
-      <c r="R7" s="8" t="inlineStr">
-        <is>
-          <t>02 - Embalagens</t>
-        </is>
-      </c>
-      <c r="S7" s="8" t="inlineStr">
-        <is>
-          <t>90302010</t>
-        </is>
-      </c>
-      <c r="T7" s="8" t="n">
-        <v>454</v>
-      </c>
-      <c r="U7" s="8" t="inlineStr">
-        <is>
-          <t>A7903121032516157691745618827646</t>
-        </is>
-      </c>
-      <c r="V7" s="10" t="n">
-        <v>88.78</v>
-      </c>
-      <c r="W7" s="10" t="n">
-        <v>73.45</v>
-      </c>
-      <c r="X7" s="10" t="inlineStr">
-        <is>
-          <t>2899900</t>
-        </is>
-      </c>
-      <c r="Y7" s="11" t="inlineStr"/>
-      <c r="Z7" s="10" t="inlineStr">
-        <is>
-          <t>GO821019</t>
-        </is>
-      </c>
-      <c r="AA7" s="10" t="inlineStr"/>
-    </row>
-    <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="n">
-        <v>7179</v>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>UmAEWdIMrjYozGkEgBrJ</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>8522358145872</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="n">
-        <v>133.74</v>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>VVWOP</t>
-        </is>
-      </c>
-      <c r="G8" s="8" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="H8" s="8" t="n">
-        <v>28.36</v>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>Ampola</t>
-        </is>
-      </c>
-      <c r="J8" s="9" t="inlineStr"/>
-      <c r="K8" s="9" t="inlineStr"/>
-      <c r="L8" s="9" t="inlineStr">
-        <is>
-          <t>NLQBP</t>
-        </is>
-      </c>
-      <c r="M8" s="8" t="inlineStr">
-        <is>
-          <t>O direito de atingir seus objetivos naturalmente</t>
-        </is>
-      </c>
-      <c r="N8" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O8" s="10" t="n">
-        <v>4000</v>
-      </c>
-      <c r="P8" s="10" t="n">
-        <v>8183</v>
-      </c>
-      <c r="Q8" s="8" t="inlineStr">
-        <is>
-          <t>4 - Nacional: produção em conformidade com processos básicos tratados na legislação dos Ajustes</t>
-        </is>
-      </c>
-      <c r="R8" s="8" t="inlineStr">
-        <is>
-          <t>04 - Produto Acabado</t>
-        </is>
-      </c>
-      <c r="S8" s="8" t="inlineStr">
-        <is>
-          <t>55094200</t>
-        </is>
-      </c>
-      <c r="T8" s="8" t="n">
-        <v>692</v>
-      </c>
-      <c r="U8" s="8" t="inlineStr">
-        <is>
-          <t>A1911355906526286077843000348548</t>
-        </is>
-      </c>
-      <c r="V8" s="10" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="W8" s="10" t="n">
-        <v>82.95999999999999</v>
-      </c>
-      <c r="X8" s="10" t="inlineStr">
-        <is>
-          <t>0400100</t>
-        </is>
-      </c>
-      <c r="Y8" s="11" t="inlineStr"/>
-      <c r="Z8" s="10" t="inlineStr">
-        <is>
-          <t>GO821019</t>
-        </is>
-      </c>
-      <c r="AA8" s="10" t="inlineStr"/>
-    </row>
-    <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n">
-        <v>5852</v>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>yTxNETyHgaOVICDpMLvr</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>7542069630871</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>809.544</v>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>ZOYYW</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="H9" s="8" t="n">
-        <v>50.77</v>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>Ampola</t>
-        </is>
-      </c>
       <c r="J9" s="9" t="inlineStr"/>
       <c r="K9" s="9" t="inlineStr"/>
-      <c r="L9" s="9" t="inlineStr">
-        <is>
-          <t>LHHWW</t>
-        </is>
-      </c>
-      <c r="M9" s="8" t="inlineStr">
-        <is>
-          <t>A liberdade de avançar direto da fonte</t>
-        </is>
-      </c>
-      <c r="N9" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O9" s="10" t="n">
-        <v>4665</v>
-      </c>
-      <c r="P9" s="10" t="n">
-        <v>7633</v>
-      </c>
-      <c r="Q9" s="8" t="inlineStr">
-        <is>
-          <t>7 - Estrangeira: adquirida no mercado interno, sem similar nacional, constante em lista da CAMEX</t>
-        </is>
-      </c>
-      <c r="R9" s="8" t="inlineStr">
-        <is>
-          <t>10 - Outros Insumos</t>
-        </is>
-      </c>
-      <c r="S9" s="8" t="inlineStr">
-        <is>
-          <t>01012100</t>
-        </is>
-      </c>
-      <c r="T9" s="8" t="n">
-        <v>585</v>
-      </c>
-      <c r="U9" s="8" t="inlineStr">
-        <is>
-          <t>A6371959645840538448274916289296</t>
-        </is>
-      </c>
-      <c r="V9" s="10" t="n">
-        <v>53.51</v>
-      </c>
-      <c r="W9" s="10" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="X9" s="10" t="inlineStr">
-        <is>
-          <t>0100100</t>
-        </is>
-      </c>
+      <c r="L9" s="9" t="inlineStr"/>
+      <c r="M9" s="8" t="inlineStr"/>
+      <c r="N9" s="10" t="inlineStr"/>
+      <c r="O9" s="10" t="inlineStr"/>
+      <c r="P9" s="10" t="inlineStr"/>
+      <c r="Q9" s="8" t="inlineStr"/>
+      <c r="R9" s="8" t="inlineStr"/>
+      <c r="S9" s="8" t="inlineStr"/>
+      <c r="T9" s="8" t="inlineStr"/>
+      <c r="U9" s="8" t="inlineStr"/>
+      <c r="V9" s="10" t="inlineStr"/>
+      <c r="W9" s="10" t="inlineStr"/>
+      <c r="X9" s="10" t="inlineStr"/>
       <c r="Y9" s="11" t="inlineStr"/>
-      <c r="Z9" s="10" t="inlineStr">
-        <is>
-          <t>GO821019</t>
-        </is>
-      </c>
+      <c r="Z9" s="10" t="inlineStr"/>
       <c r="AA9" s="10" t="inlineStr"/>
     </row>
     <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
+      <c r="A10" s="6" t="inlineStr"/>
       <c r="B10" s="7" t="n">
-        <v>4887</v>
+        <v>5054</v>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>dhfcFBkvIOIyCEvPpxDh</t>
+          <t>szvwjfcZcJiDBdvQxmIU</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
         <is>
-          <t>4961935299098</t>
+          <t>Barra</t>
         </is>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>551.038</v>
+      <c r="J10" s="9" t="inlineStr"/>
+      <c r="K10" s="9" t="inlineStr"/>
+      <c r="L10" s="9" t="inlineStr"/>
+      <c r="M10" s="8" t="inlineStr"/>
+      <c r="N10" s="10" t="inlineStr"/>
+      <c r="O10" s="10" t="inlineStr"/>
+      <c r="P10" s="10" t="inlineStr"/>
+      <c r="Q10" s="8" t="inlineStr"/>
+      <c r="R10" s="8" t="inlineStr"/>
+      <c r="S10" s="8" t="inlineStr"/>
+      <c r="T10" s="8" t="inlineStr"/>
+      <c r="U10" s="8" t="inlineStr"/>
+      <c r="V10" s="10" t="inlineStr"/>
+      <c r="W10" s="10" t="inlineStr"/>
+      <c r="X10" s="10" t="inlineStr"/>
+      <c r="Y10" s="11" t="inlineStr"/>
+      <c r="Z10" s="10" t="inlineStr"/>
+      <c r="AA10" s="10" t="inlineStr"/>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="6" t="inlineStr"/>
+      <c r="B11" s="7" t="n">
+        <v>805</v>
       </c>
-      <c r="F10" s="8" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>GTQFQ</t>
+          <t>VUymgNuwQmnvFmSfOjYg</t>
         </is>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="H10" s="8" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="I10" s="8" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr">
         <is>
           <t>Bloco</t>
         </is>
       </c>
-      <c r="J10" s="9" t="inlineStr"/>
-      <c r="K10" s="9" t="inlineStr"/>
-      <c r="L10" s="9" t="inlineStr">
+      <c r="J11" s="9" t="inlineStr"/>
+      <c r="K11" s="9" t="inlineStr"/>
+      <c r="L11" s="9" t="inlineStr"/>
+      <c r="M11" s="8" t="inlineStr"/>
+      <c r="N11" s="10" t="inlineStr"/>
+      <c r="O11" s="10" t="inlineStr"/>
+      <c r="P11" s="10" t="inlineStr"/>
+      <c r="Q11" s="8" t="inlineStr"/>
+      <c r="R11" s="8" t="inlineStr"/>
+      <c r="S11" s="8" t="inlineStr"/>
+      <c r="T11" s="8" t="inlineStr"/>
+      <c r="U11" s="8" t="inlineStr"/>
+      <c r="V11" s="10" t="inlineStr"/>
+      <c r="W11" s="10" t="inlineStr"/>
+      <c r="X11" s="10" t="inlineStr"/>
+      <c r="Y11" s="11" t="inlineStr"/>
+      <c r="Z11" s="10" t="inlineStr"/>
+      <c r="AA11" s="10" t="inlineStr"/>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="6" t="inlineStr"/>
+      <c r="B12" s="7" t="n">
+        <v>4141</v>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>JNWBE</t>
+          <t>iBwVfXRVwRfqLKlzzGdP</t>
         </is>
       </c>
-      <c r="M10" s="8" t="inlineStr">
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr">
         <is>
-          <t>O poder de atingir seus objetivos com força total</t>
+          <t>Bloco</t>
         </is>
       </c>
-      <c r="N10" s="10" t="inlineStr">
+      <c r="J12" s="9" t="inlineStr"/>
+      <c r="K12" s="9" t="inlineStr"/>
+      <c r="L12" s="9" t="inlineStr"/>
+      <c r="M12" s="8" t="inlineStr"/>
+      <c r="N12" s="10" t="inlineStr"/>
+      <c r="O12" s="10" t="inlineStr"/>
+      <c r="P12" s="10" t="inlineStr"/>
+      <c r="Q12" s="8" t="inlineStr"/>
+      <c r="R12" s="8" t="inlineStr"/>
+      <c r="S12" s="8" t="inlineStr"/>
+      <c r="T12" s="8" t="inlineStr"/>
+      <c r="U12" s="8" t="inlineStr"/>
+      <c r="V12" s="10" t="inlineStr"/>
+      <c r="W12" s="10" t="inlineStr"/>
+      <c r="X12" s="10" t="inlineStr"/>
+      <c r="Y12" s="11" t="inlineStr"/>
+      <c r="Z12" s="10" t="inlineStr"/>
+      <c r="AA12" s="10" t="inlineStr"/>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="6" t="inlineStr"/>
+      <c r="B13" s="7" t="n">
+        <v>5222</v>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>wrAwotcdQEBbORgqJinx</t>
         </is>
       </c>
-      <c r="O10" s="10" t="n">
-        <v>8821</v>
-      </c>
-      <c r="P10" s="10" t="n">
-        <v>894</v>
-      </c>
-      <c r="Q10" s="8" t="inlineStr">
-        <is>
-          <t>8 - Nacional: mercadoria ou bem com Conteúdo de Importação superior a 70%</t>
-        </is>
-      </c>
-      <c r="R10" s="8" t="inlineStr">
-        <is>
-          <t>06 - Produto Intermediário</t>
-        </is>
-      </c>
-      <c r="S10" s="8" t="inlineStr">
-        <is>
-          <t>90302010</t>
-        </is>
-      </c>
-      <c r="T10" s="8" t="n">
-        <v>532</v>
-      </c>
-      <c r="U10" s="8" t="inlineStr">
-        <is>
-          <t>A3611109147650043349106374010374</t>
-        </is>
-      </c>
-      <c r="V10" s="10" t="n">
-        <v>85.36</v>
-      </c>
-      <c r="W10" s="10" t="n">
-        <v>38.89</v>
-      </c>
-      <c r="X10" s="10" t="inlineStr">
-        <is>
-          <t>0400100</t>
-        </is>
-      </c>
-      <c r="Y10" s="11" t="inlineStr"/>
-      <c r="Z10" s="10" t="inlineStr">
-        <is>
-          <t>GO821019</t>
-        </is>
-      </c>
-      <c r="AA10" s="10" t="inlineStr"/>
-    </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n">
-        <v>7825</v>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>gXBnzSszBwTlzeTGTPcB</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>9981974416947</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>135.676</v>
-      </c>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>RRCIL</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="n">
-        <v>41.58</v>
-      </c>
-      <c r="H11" s="8" t="n">
-        <v>27.28</v>
-      </c>
-      <c r="I11" s="8" t="inlineStr">
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>Balde</t>
         </is>
       </c>
-      <c r="J11" s="9" t="inlineStr"/>
-      <c r="K11" s="9" t="inlineStr"/>
-      <c r="L11" s="9" t="inlineStr">
-        <is>
-          <t>IOLHS</t>
-        </is>
-      </c>
-      <c r="M11" s="8" t="inlineStr">
-        <is>
-          <t>A simplicidade de realizar seus sonhos antes de tudo</t>
-        </is>
-      </c>
-      <c r="N11" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O11" s="10" t="n">
-        <v>3780</v>
-      </c>
-      <c r="P11" s="10" t="n">
-        <v>7015</v>
-      </c>
-      <c r="Q11" s="8" t="inlineStr">
-        <is>
-          <t>4 - Nacional: produção em conformidade com processos básicos tratados na legislação dos Ajustes</t>
-        </is>
-      </c>
-      <c r="R11" s="8" t="inlineStr">
-        <is>
-          <t>99 - Outros</t>
-        </is>
-      </c>
-      <c r="S11" s="8" t="inlineStr">
-        <is>
-          <t>02011000</t>
-        </is>
-      </c>
-      <c r="T11" s="8" t="n">
-        <v>509</v>
-      </c>
-      <c r="U11" s="8" t="inlineStr">
-        <is>
-          <t>A0768283134720139638913596271690</t>
-        </is>
-      </c>
-      <c r="V11" s="10" t="n">
-        <v>63.65</v>
-      </c>
-      <c r="W11" s="10" t="n">
-        <v>58.35</v>
-      </c>
-      <c r="X11" s="10" t="inlineStr">
-        <is>
-          <t>2899900</t>
-        </is>
-      </c>
-      <c r="Y11" s="11" t="inlineStr"/>
-      <c r="Z11" s="10" t="inlineStr">
-        <is>
-          <t>GO821019</t>
-        </is>
-      </c>
-      <c r="AA11" s="10" t="inlineStr"/>
-    </row>
-    <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n">
-        <v>6250</v>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>YAYinMsmNkGZerbdhfDK</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>1500445956621</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="n">
-        <v>826.081</v>
-      </c>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>KSFRZ</t>
-        </is>
-      </c>
-      <c r="G12" s="8" t="n">
-        <v>33.05</v>
-      </c>
-      <c r="H12" s="8" t="n">
-        <v>39.99</v>
-      </c>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>Bobina</t>
-        </is>
-      </c>
-      <c r="J12" s="9" t="inlineStr"/>
-      <c r="K12" s="9" t="inlineStr"/>
-      <c r="L12" s="9" t="inlineStr">
-        <is>
-          <t>ETELF</t>
-        </is>
-      </c>
-      <c r="M12" s="8" t="inlineStr">
-        <is>
-          <t>A simplicidade de atingir seus objetivos mais facilmente</t>
-        </is>
-      </c>
-      <c r="N12" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O12" s="10" t="n">
-        <v>9760</v>
-      </c>
-      <c r="P12" s="10" t="n">
-        <v>8508</v>
-      </c>
-      <c r="Q12" s="8" t="inlineStr">
-        <is>
-          <t>1 - Estrangeira: importação direta, exceto a indicada no código 6</t>
-        </is>
-      </c>
-      <c r="R12" s="8" t="inlineStr">
-        <is>
-          <t>01 - Matéria Prima</t>
-        </is>
-      </c>
-      <c r="S12" s="8" t="inlineStr">
-        <is>
-          <t>12116000</t>
-        </is>
-      </c>
-      <c r="T12" s="8" t="n">
-        <v>913</v>
-      </c>
-      <c r="U12" s="8" t="inlineStr">
-        <is>
-          <t>A9914642853001258049159625262670</t>
-        </is>
-      </c>
-      <c r="V12" s="10" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="W12" s="10" t="n">
-        <v>87.67</v>
-      </c>
-      <c r="X12" s="10" t="inlineStr">
-        <is>
-          <t>2899900</t>
-        </is>
-      </c>
-      <c r="Y12" s="11" t="inlineStr"/>
-      <c r="Z12" s="10" t="inlineStr">
-        <is>
-          <t>GO821019</t>
-        </is>
-      </c>
-      <c r="AA12" s="10" t="inlineStr"/>
-    </row>
-    <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n">
-        <v>6518</v>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>FmpXDaHlmeyDzIxtQOeN</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>1221193856741</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="n">
-        <v>157.885</v>
-      </c>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>KXRRN</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="H13" s="8" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>Bobina</t>
-        </is>
-      </c>
       <c r="J13" s="9" t="inlineStr"/>
       <c r="K13" s="9" t="inlineStr"/>
-      <c r="L13" s="9" t="inlineStr">
-        <is>
-          <t>XUFWB</t>
-        </is>
-      </c>
-      <c r="M13" s="8" t="inlineStr">
-        <is>
-          <t>A possibilidade de mudar mais facilmente</t>
-        </is>
-      </c>
-      <c r="N13" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O13" s="10" t="n">
-        <v>6712</v>
-      </c>
-      <c r="P13" s="10" t="n">
-        <v>1161</v>
-      </c>
-      <c r="Q13" s="8" t="inlineStr">
-        <is>
-          <t>5 - Nacional: mercadoria ou bem com Conteúdo de Importação inferior ou igual a 40%</t>
-        </is>
-      </c>
-      <c r="R13" s="8" t="inlineStr">
-        <is>
-          <t>07 - Material de uso e consumo</t>
-        </is>
-      </c>
-      <c r="S13" s="8" t="inlineStr">
-        <is>
-          <t>90302010</t>
-        </is>
-      </c>
-      <c r="T13" s="8" t="n">
-        <v>848</v>
-      </c>
-      <c r="U13" s="8" t="inlineStr">
-        <is>
-          <t>A7805742320016604267851844785520</t>
-        </is>
-      </c>
-      <c r="V13" s="10" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="W13" s="10" t="n">
-        <v>31.42</v>
-      </c>
-      <c r="X13" s="10" t="inlineStr">
-        <is>
-          <t>0400100</t>
-        </is>
-      </c>
+      <c r="L13" s="9" t="inlineStr"/>
+      <c r="M13" s="8" t="inlineStr"/>
+      <c r="N13" s="10" t="inlineStr"/>
+      <c r="O13" s="10" t="inlineStr"/>
+      <c r="P13" s="10" t="inlineStr"/>
+      <c r="Q13" s="8" t="inlineStr"/>
+      <c r="R13" s="8" t="inlineStr"/>
+      <c r="S13" s="8" t="inlineStr"/>
+      <c r="T13" s="8" t="inlineStr"/>
+      <c r="U13" s="8" t="inlineStr"/>
+      <c r="V13" s="10" t="inlineStr"/>
+      <c r="W13" s="10" t="inlineStr"/>
+      <c r="X13" s="10" t="inlineStr"/>
       <c r="Y13" s="11" t="inlineStr"/>
-      <c r="Z13" s="10" t="inlineStr">
-        <is>
-          <t>GO821019</t>
-        </is>
-      </c>
+      <c r="Z13" s="10" t="inlineStr"/>
       <c r="AA13" s="10" t="inlineStr"/>
     </row>
     <row r="14" ht="30" customHeight="1">

--- a/excel/planilhasGerada/importar-produtos.xlsx
+++ b/excel/planilhasGerada/importar-produtos.xlsx
@@ -796,11 +796,11 @@
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="6" t="inlineStr"/>
       <c r="B3" s="7" t="n">
-        <v>5381</v>
+        <v>1944</v>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>RnGjvpEifXGVcHrAmAml</t>
+          <t>XdXakGShLpGgIdDcaaJE</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr"/>
@@ -810,7 +810,7 @@
       <c r="H3" s="8" t="inlineStr"/>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>Barra</t>
+          <t>Ampola</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr"/>
@@ -835,11 +835,11 @@
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="inlineStr"/>
       <c r="B4" s="7" t="n">
-        <v>8639</v>
+        <v>8967</v>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>bdbkkAIfSVHLIhTDpPTF</t>
+          <t>VycNqOdjYHjxMHXXtjSU</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr"/>
@@ -849,7 +849,7 @@
       <c r="H4" s="8" t="inlineStr"/>
       <c r="I4" s="8" t="inlineStr">
         <is>
-          <t>Barra</t>
+          <t>Balde</t>
         </is>
       </c>
       <c r="J4" s="9" t="inlineStr"/>
@@ -874,11 +874,11 @@
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="6" t="inlineStr"/>
       <c r="B5" s="7" t="n">
-        <v>9529</v>
+        <v>463</v>
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>HicvFiqJISjcpKXAMYFe</t>
+          <t>PxNNenDxWtvLIxJjYKQB</t>
         </is>
       </c>
       <c r="D5" s="8" t="inlineStr"/>
@@ -913,11 +913,11 @@
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="inlineStr"/>
       <c r="B6" s="7" t="n">
-        <v>927</v>
+        <v>8688</v>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>HoWpSgtfSztNFkPKdNzT</t>
+          <t>cwEArDGSstoNxEZEVZdP</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr"/>
@@ -927,7 +927,7 @@
       <c r="H6" s="8" t="inlineStr"/>
       <c r="I6" s="8" t="inlineStr">
         <is>
-          <t>Bloco</t>
+          <t>Barra</t>
         </is>
       </c>
       <c r="J6" s="9" t="inlineStr"/>
@@ -952,11 +952,11 @@
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="6" t="inlineStr"/>
       <c r="B7" s="7" t="n">
-        <v>5473</v>
+        <v>9466</v>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>fQFoTflvFGAZjaNRaSkx</t>
+          <t>ujKCohOLbbtKrpaDrIzS</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr"/>
@@ -966,7 +966,7 @@
       <c r="H7" s="8" t="inlineStr"/>
       <c r="I7" s="8" t="inlineStr">
         <is>
-          <t>Balde</t>
+          <t>Ampola</t>
         </is>
       </c>
       <c r="J7" s="9" t="inlineStr"/>
@@ -991,11 +991,11 @@
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="inlineStr"/>
       <c r="B8" s="7" t="n">
-        <v>6772</v>
+        <v>1471</v>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>FMsiRBkyHDRflmZhZBLi</t>
+          <t>CbGUznhDKoiZboeKdKbb</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
       <c r="H8" s="8" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>Barra</t>
+          <t>Bloco</t>
         </is>
       </c>
       <c r="J8" s="9" t="inlineStr"/>
@@ -1030,11 +1030,11 @@
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="6" t="inlineStr"/>
       <c r="B9" s="7" t="n">
-        <v>595</v>
+        <v>5668</v>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>HZWADKoNEpHoZBvMcTBk</t>
+          <t>FVJnEjpBfGzRIwROWQqj</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
@@ -1044,7 +1044,7 @@
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr">
         <is>
-          <t>Bloco</t>
+          <t>Ampola</t>
         </is>
       </c>
       <c r="J9" s="9" t="inlineStr"/>
@@ -1069,11 +1069,11 @@
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="6" t="inlineStr"/>
       <c r="B10" s="7" t="n">
-        <v>5054</v>
+        <v>3773</v>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>szvwjfcZcJiDBdvQxmIU</t>
+          <t>xttKxxCczUzSIsxGsvCg</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
@@ -1083,7 +1083,7 @@
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr">
         <is>
-          <t>Barra</t>
+          <t>Ampola</t>
         </is>
       </c>
       <c r="J10" s="9" t="inlineStr"/>
@@ -1108,11 +1108,11 @@
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="6" t="inlineStr"/>
       <c r="B11" s="7" t="n">
-        <v>805</v>
+        <v>2071</v>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>VUymgNuwQmnvFmSfOjYg</t>
+          <t>YtCwPCGpuCdcpWiCzJGg</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
@@ -1122,7 +1122,7 @@
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr">
         <is>
-          <t>Bloco</t>
+          <t>Bobina</t>
         </is>
       </c>
       <c r="J11" s="9" t="inlineStr"/>
@@ -1147,11 +1147,11 @@
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="6" t="inlineStr"/>
       <c r="B12" s="7" t="n">
-        <v>4141</v>
+        <v>5891</v>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>iBwVfXRVwRfqLKlzzGdP</t>
+          <t>OaWekZGPhVCQdLQXczcI</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
@@ -1161,7 +1161,7 @@
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr">
         <is>
-          <t>Bloco</t>
+          <t>Barra</t>
         </is>
       </c>
       <c r="J12" s="9" t="inlineStr"/>
@@ -1186,11 +1186,11 @@
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="6" t="inlineStr"/>
       <c r="B13" s="7" t="n">
-        <v>5222</v>
+        <v>4404</v>
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>wrAwotcdQEBbORgqJinx</t>
+          <t>jqdUgocRgqsEUCukALPL</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
@@ -1223,961 +1223,1291 @@
       <c r="AA13" s="10" t="inlineStr"/>
     </row>
     <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="6" t="n"/>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
-      <c r="H14" s="8" t="n"/>
-      <c r="I14" s="8" t="n"/>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="8" t="n"/>
-      <c r="N14" s="10" t="n"/>
-      <c r="O14" s="10" t="n"/>
-      <c r="P14" s="10" t="n"/>
-      <c r="Q14" s="8" t="n"/>
-      <c r="R14" s="8" t="n"/>
-      <c r="S14" s="8" t="n"/>
-      <c r="T14" s="8" t="n"/>
-      <c r="U14" s="8" t="n"/>
-      <c r="V14" s="10" t="n"/>
-      <c r="W14" s="10" t="n"/>
-      <c r="X14" s="10" t="n"/>
-      <c r="Y14" s="11" t="n"/>
-      <c r="Z14" s="10" t="n"/>
-      <c r="AA14" s="10" t="n"/>
+      <c r="A14" s="6" t="inlineStr"/>
+      <c r="B14" s="7" t="n">
+        <v>9684</v>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>yWaKNtnyfhNeDXwqNyyj</t>
+        </is>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="8" t="inlineStr"/>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>Barra</t>
+        </is>
+      </c>
+      <c r="J14" s="9" t="inlineStr"/>
+      <c r="K14" s="9" t="inlineStr"/>
+      <c r="L14" s="9" t="inlineStr"/>
+      <c r="M14" s="8" t="inlineStr"/>
+      <c r="N14" s="10" t="inlineStr"/>
+      <c r="O14" s="10" t="inlineStr"/>
+      <c r="P14" s="10" t="inlineStr"/>
+      <c r="Q14" s="8" t="inlineStr"/>
+      <c r="R14" s="8" t="inlineStr"/>
+      <c r="S14" s="8" t="inlineStr"/>
+      <c r="T14" s="8" t="inlineStr"/>
+      <c r="U14" s="8" t="inlineStr"/>
+      <c r="V14" s="10" t="inlineStr"/>
+      <c r="W14" s="10" t="inlineStr"/>
+      <c r="X14" s="10" t="inlineStr"/>
+      <c r="Y14" s="11" t="inlineStr"/>
+      <c r="Z14" s="10" t="inlineStr"/>
+      <c r="AA14" s="10" t="inlineStr"/>
     </row>
     <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="8" t="n"/>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
-      <c r="G15" s="8" t="n"/>
-      <c r="H15" s="8" t="n"/>
-      <c r="I15" s="8" t="n"/>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="8" t="n"/>
-      <c r="N15" s="10" t="n"/>
-      <c r="O15" s="10" t="n"/>
-      <c r="P15" s="10" t="n"/>
-      <c r="Q15" s="8" t="n"/>
-      <c r="R15" s="8" t="n"/>
-      <c r="S15" s="8" t="n"/>
-      <c r="T15" s="8" t="n"/>
-      <c r="U15" s="8" t="n"/>
-      <c r="V15" s="10" t="n"/>
-      <c r="W15" s="10" t="n"/>
-      <c r="X15" s="10" t="n"/>
-      <c r="Y15" s="11" t="n"/>
-      <c r="Z15" s="10" t="n"/>
-      <c r="AA15" s="10" t="n"/>
+      <c r="A15" s="6" t="inlineStr"/>
+      <c r="B15" s="7" t="n">
+        <v>9227</v>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>GfSLQZdoKmpNsfEjAixU</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>Bobina</t>
+        </is>
+      </c>
+      <c r="J15" s="9" t="inlineStr"/>
+      <c r="K15" s="9" t="inlineStr"/>
+      <c r="L15" s="9" t="inlineStr"/>
+      <c r="M15" s="8" t="inlineStr"/>
+      <c r="N15" s="10" t="inlineStr"/>
+      <c r="O15" s="10" t="inlineStr"/>
+      <c r="P15" s="10" t="inlineStr"/>
+      <c r="Q15" s="8" t="inlineStr"/>
+      <c r="R15" s="8" t="inlineStr"/>
+      <c r="S15" s="8" t="inlineStr"/>
+      <c r="T15" s="8" t="inlineStr"/>
+      <c r="U15" s="8" t="inlineStr"/>
+      <c r="V15" s="10" t="inlineStr"/>
+      <c r="W15" s="10" t="inlineStr"/>
+      <c r="X15" s="10" t="inlineStr"/>
+      <c r="Y15" s="11" t="inlineStr"/>
+      <c r="Z15" s="10" t="inlineStr"/>
+      <c r="AA15" s="10" t="inlineStr"/>
     </row>
     <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="8" t="n"/>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
-      <c r="G16" s="8" t="n"/>
-      <c r="H16" s="8" t="n"/>
-      <c r="I16" s="8" t="n"/>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="9" t="n"/>
-      <c r="L16" s="9" t="n"/>
-      <c r="M16" s="8" t="n"/>
-      <c r="N16" s="10" t="n"/>
-      <c r="O16" s="10" t="n"/>
-      <c r="P16" s="10" t="n"/>
-      <c r="Q16" s="8" t="n"/>
-      <c r="R16" s="8" t="n"/>
-      <c r="S16" s="8" t="n"/>
-      <c r="T16" s="8" t="n"/>
-      <c r="U16" s="8" t="n"/>
-      <c r="V16" s="10" t="n"/>
-      <c r="W16" s="10" t="n"/>
-      <c r="X16" s="10" t="n"/>
-      <c r="Y16" s="11" t="n"/>
-      <c r="Z16" s="10" t="n"/>
-      <c r="AA16" s="10" t="n"/>
+      <c r="A16" s="6" t="inlineStr"/>
+      <c r="B16" s="7" t="n">
+        <v>9844</v>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>PCFHWihjEgzriOSzQfUq</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>Barra</t>
+        </is>
+      </c>
+      <c r="J16" s="9" t="inlineStr"/>
+      <c r="K16" s="9" t="inlineStr"/>
+      <c r="L16" s="9" t="inlineStr"/>
+      <c r="M16" s="8" t="inlineStr"/>
+      <c r="N16" s="10" t="inlineStr"/>
+      <c r="O16" s="10" t="inlineStr"/>
+      <c r="P16" s="10" t="inlineStr"/>
+      <c r="Q16" s="8" t="inlineStr"/>
+      <c r="R16" s="8" t="inlineStr"/>
+      <c r="S16" s="8" t="inlineStr"/>
+      <c r="T16" s="8" t="inlineStr"/>
+      <c r="U16" s="8" t="inlineStr"/>
+      <c r="V16" s="10" t="inlineStr"/>
+      <c r="W16" s="10" t="inlineStr"/>
+      <c r="X16" s="10" t="inlineStr"/>
+      <c r="Y16" s="11" t="inlineStr"/>
+      <c r="Z16" s="10" t="inlineStr"/>
+      <c r="AA16" s="10" t="inlineStr"/>
     </row>
     <row r="17" ht="30" customHeight="1">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="8" t="n"/>
-      <c r="D17" s="8" t="n"/>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
-      <c r="G17" s="8" t="n"/>
-      <c r="H17" s="8" t="n"/>
-      <c r="I17" s="8" t="n"/>
-      <c r="J17" s="9" t="n"/>
-      <c r="K17" s="9" t="n"/>
-      <c r="L17" s="9" t="n"/>
-      <c r="M17" s="8" t="n"/>
-      <c r="N17" s="10" t="n"/>
-      <c r="O17" s="10" t="n"/>
-      <c r="P17" s="10" t="n"/>
-      <c r="Q17" s="8" t="n"/>
-      <c r="R17" s="8" t="n"/>
-      <c r="S17" s="8" t="n"/>
-      <c r="T17" s="8" t="n"/>
-      <c r="U17" s="8" t="n"/>
-      <c r="V17" s="10" t="n"/>
-      <c r="W17" s="10" t="n"/>
-      <c r="X17" s="10" t="n"/>
-      <c r="Y17" s="11" t="n"/>
-      <c r="Z17" s="10" t="n"/>
-      <c r="AA17" s="10" t="n"/>
+      <c r="A17" s="6" t="inlineStr"/>
+      <c r="B17" s="7" t="n">
+        <v>6606</v>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>CKhaYchIFcpBGaXRWHfE</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>Barra</t>
+        </is>
+      </c>
+      <c r="J17" s="9" t="inlineStr"/>
+      <c r="K17" s="9" t="inlineStr"/>
+      <c r="L17" s="9" t="inlineStr"/>
+      <c r="M17" s="8" t="inlineStr"/>
+      <c r="N17" s="10" t="inlineStr"/>
+      <c r="O17" s="10" t="inlineStr"/>
+      <c r="P17" s="10" t="inlineStr"/>
+      <c r="Q17" s="8" t="inlineStr"/>
+      <c r="R17" s="8" t="inlineStr"/>
+      <c r="S17" s="8" t="inlineStr"/>
+      <c r="T17" s="8" t="inlineStr"/>
+      <c r="U17" s="8" t="inlineStr"/>
+      <c r="V17" s="10" t="inlineStr"/>
+      <c r="W17" s="10" t="inlineStr"/>
+      <c r="X17" s="10" t="inlineStr"/>
+      <c r="Y17" s="11" t="inlineStr"/>
+      <c r="Z17" s="10" t="inlineStr"/>
+      <c r="AA17" s="10" t="inlineStr"/>
     </row>
     <row r="18" ht="30" customHeight="1">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
-      <c r="G18" s="8" t="n"/>
-      <c r="H18" s="8" t="n"/>
-      <c r="I18" s="8" t="n"/>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="9" t="n"/>
-      <c r="L18" s="9" t="n"/>
-      <c r="M18" s="8" t="n"/>
-      <c r="N18" s="10" t="n"/>
-      <c r="O18" s="10" t="n"/>
-      <c r="P18" s="10" t="n"/>
-      <c r="Q18" s="8" t="n"/>
-      <c r="R18" s="8" t="n"/>
-      <c r="S18" s="8" t="n"/>
-      <c r="T18" s="8" t="n"/>
-      <c r="U18" s="8" t="n"/>
-      <c r="V18" s="10" t="n"/>
-      <c r="W18" s="10" t="n"/>
-      <c r="X18" s="10" t="n"/>
-      <c r="Y18" s="11" t="n"/>
-      <c r="Z18" s="10" t="n"/>
-      <c r="AA18" s="10" t="n"/>
+      <c r="A18" s="6" t="inlineStr"/>
+      <c r="B18" s="7" t="n">
+        <v>5298</v>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>NcwMkPIOLQJPtoIriIiZ</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>Balde</t>
+        </is>
+      </c>
+      <c r="J18" s="9" t="inlineStr"/>
+      <c r="K18" s="9" t="inlineStr"/>
+      <c r="L18" s="9" t="inlineStr"/>
+      <c r="M18" s="8" t="inlineStr"/>
+      <c r="N18" s="10" t="inlineStr"/>
+      <c r="O18" s="10" t="inlineStr"/>
+      <c r="P18" s="10" t="inlineStr"/>
+      <c r="Q18" s="8" t="inlineStr"/>
+      <c r="R18" s="8" t="inlineStr"/>
+      <c r="S18" s="8" t="inlineStr"/>
+      <c r="T18" s="8" t="inlineStr"/>
+      <c r="U18" s="8" t="inlineStr"/>
+      <c r="V18" s="10" t="inlineStr"/>
+      <c r="W18" s="10" t="inlineStr"/>
+      <c r="X18" s="10" t="inlineStr"/>
+      <c r="Y18" s="11" t="inlineStr"/>
+      <c r="Z18" s="10" t="inlineStr"/>
+      <c r="AA18" s="10" t="inlineStr"/>
     </row>
     <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="8" t="n"/>
-      <c r="D19" s="8" t="n"/>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
-      <c r="G19" s="8" t="n"/>
-      <c r="H19" s="8" t="n"/>
-      <c r="I19" s="8" t="n"/>
-      <c r="J19" s="9" t="n"/>
-      <c r="K19" s="9" t="n"/>
-      <c r="L19" s="9" t="n"/>
-      <c r="M19" s="8" t="n"/>
-      <c r="N19" s="10" t="n"/>
-      <c r="O19" s="10" t="n"/>
-      <c r="P19" s="10" t="n"/>
-      <c r="Q19" s="8" t="n"/>
-      <c r="R19" s="8" t="n"/>
-      <c r="S19" s="8" t="n"/>
-      <c r="T19" s="8" t="n"/>
-      <c r="U19" s="8" t="n"/>
-      <c r="V19" s="10" t="n"/>
-      <c r="W19" s="10" t="n"/>
-      <c r="X19" s="10" t="n"/>
-      <c r="Y19" s="11" t="n"/>
-      <c r="Z19" s="10" t="n"/>
-      <c r="AA19" s="10" t="n"/>
+      <c r="A19" s="6" t="inlineStr"/>
+      <c r="B19" s="7" t="n">
+        <v>1076</v>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>qlhbmiAMOFrduvZCjDpx</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr">
+        <is>
+          <t>Ampola</t>
+        </is>
+      </c>
+      <c r="J19" s="9" t="inlineStr"/>
+      <c r="K19" s="9" t="inlineStr"/>
+      <c r="L19" s="9" t="inlineStr"/>
+      <c r="M19" s="8" t="inlineStr"/>
+      <c r="N19" s="10" t="inlineStr"/>
+      <c r="O19" s="10" t="inlineStr"/>
+      <c r="P19" s="10" t="inlineStr"/>
+      <c r="Q19" s="8" t="inlineStr"/>
+      <c r="R19" s="8" t="inlineStr"/>
+      <c r="S19" s="8" t="inlineStr"/>
+      <c r="T19" s="8" t="inlineStr"/>
+      <c r="U19" s="8" t="inlineStr"/>
+      <c r="V19" s="10" t="inlineStr"/>
+      <c r="W19" s="10" t="inlineStr"/>
+      <c r="X19" s="10" t="inlineStr"/>
+      <c r="Y19" s="11" t="inlineStr"/>
+      <c r="Z19" s="10" t="inlineStr"/>
+      <c r="AA19" s="10" t="inlineStr"/>
     </row>
     <row r="20" ht="30" customHeight="1">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="D20" s="8" t="n"/>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
-      <c r="G20" s="8" t="n"/>
-      <c r="H20" s="8" t="n"/>
-      <c r="I20" s="8" t="n"/>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="9" t="n"/>
-      <c r="L20" s="9" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="10" t="n"/>
-      <c r="O20" s="10" t="n"/>
-      <c r="P20" s="10" t="n"/>
-      <c r="Q20" s="8" t="n"/>
-      <c r="R20" s="8" t="n"/>
-      <c r="S20" s="8" t="n"/>
-      <c r="T20" s="8" t="n"/>
-      <c r="U20" s="8" t="n"/>
-      <c r="V20" s="10" t="n"/>
-      <c r="W20" s="10" t="n"/>
-      <c r="X20" s="10" t="n"/>
-      <c r="Y20" s="11" t="n"/>
-      <c r="Z20" s="10" t="n"/>
-      <c r="AA20" s="10" t="n"/>
+      <c r="A20" s="6" t="inlineStr"/>
+      <c r="B20" s="7" t="n">
+        <v>9345</v>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>qaGTMFZCGikMGuoUKqul</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>Barra</t>
+        </is>
+      </c>
+      <c r="J20" s="9" t="inlineStr"/>
+      <c r="K20" s="9" t="inlineStr"/>
+      <c r="L20" s="9" t="inlineStr"/>
+      <c r="M20" s="8" t="inlineStr"/>
+      <c r="N20" s="10" t="inlineStr"/>
+      <c r="O20" s="10" t="inlineStr"/>
+      <c r="P20" s="10" t="inlineStr"/>
+      <c r="Q20" s="8" t="inlineStr"/>
+      <c r="R20" s="8" t="inlineStr"/>
+      <c r="S20" s="8" t="inlineStr"/>
+      <c r="T20" s="8" t="inlineStr"/>
+      <c r="U20" s="8" t="inlineStr"/>
+      <c r="V20" s="10" t="inlineStr"/>
+      <c r="W20" s="10" t="inlineStr"/>
+      <c r="X20" s="10" t="inlineStr"/>
+      <c r="Y20" s="11" t="inlineStr"/>
+      <c r="Z20" s="10" t="inlineStr"/>
+      <c r="AA20" s="10" t="inlineStr"/>
     </row>
     <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
-      <c r="G21" s="8" t="n"/>
-      <c r="H21" s="8" t="n"/>
-      <c r="I21" s="8" t="n"/>
-      <c r="J21" s="9" t="n"/>
-      <c r="K21" s="9" t="n"/>
-      <c r="L21" s="9" t="n"/>
-      <c r="M21" s="8" t="n"/>
-      <c r="N21" s="10" t="n"/>
-      <c r="O21" s="10" t="n"/>
-      <c r="P21" s="10" t="n"/>
-      <c r="Q21" s="8" t="n"/>
-      <c r="R21" s="8" t="n"/>
-      <c r="S21" s="8" t="n"/>
-      <c r="T21" s="8" t="n"/>
-      <c r="U21" s="8" t="n"/>
-      <c r="V21" s="10" t="n"/>
-      <c r="W21" s="10" t="n"/>
-      <c r="X21" s="10" t="n"/>
-      <c r="Y21" s="11" t="n"/>
-      <c r="Z21" s="10" t="n"/>
-      <c r="AA21" s="10" t="n"/>
+      <c r="A21" s="6" t="inlineStr"/>
+      <c r="B21" s="7" t="n">
+        <v>2289</v>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>jHYTTmJAyRknzhSDPimL</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>Barra</t>
+        </is>
+      </c>
+      <c r="J21" s="9" t="inlineStr"/>
+      <c r="K21" s="9" t="inlineStr"/>
+      <c r="L21" s="9" t="inlineStr"/>
+      <c r="M21" s="8" t="inlineStr"/>
+      <c r="N21" s="10" t="inlineStr"/>
+      <c r="O21" s="10" t="inlineStr"/>
+      <c r="P21" s="10" t="inlineStr"/>
+      <c r="Q21" s="8" t="inlineStr"/>
+      <c r="R21" s="8" t="inlineStr"/>
+      <c r="S21" s="8" t="inlineStr"/>
+      <c r="T21" s="8" t="inlineStr"/>
+      <c r="U21" s="8" t="inlineStr"/>
+      <c r="V21" s="10" t="inlineStr"/>
+      <c r="W21" s="10" t="inlineStr"/>
+      <c r="X21" s="10" t="inlineStr"/>
+      <c r="Y21" s="11" t="inlineStr"/>
+      <c r="Z21" s="10" t="inlineStr"/>
+      <c r="AA21" s="10" t="inlineStr"/>
     </row>
     <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="7" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
-      <c r="G22" s="8" t="n"/>
-      <c r="H22" s="8" t="n"/>
-      <c r="I22" s="8" t="n"/>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="9" t="n"/>
-      <c r="L22" s="9" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="10" t="n"/>
-      <c r="O22" s="10" t="n"/>
-      <c r="P22" s="10" t="n"/>
-      <c r="Q22" s="8" t="n"/>
-      <c r="R22" s="8" t="n"/>
-      <c r="S22" s="8" t="n"/>
-      <c r="T22" s="8" t="n"/>
-      <c r="U22" s="8" t="n"/>
-      <c r="V22" s="10" t="n"/>
-      <c r="W22" s="10" t="n"/>
-      <c r="X22" s="10" t="n"/>
-      <c r="Y22" s="11" t="n"/>
-      <c r="Z22" s="10" t="n"/>
-      <c r="AA22" s="10" t="n"/>
+      <c r="A22" s="6" t="inlineStr"/>
+      <c r="B22" s="7" t="n">
+        <v>6198</v>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>BOMaBMUzoOEjpzPkJkKL</t>
+        </is>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>Barra</t>
+        </is>
+      </c>
+      <c r="J22" s="9" t="inlineStr"/>
+      <c r="K22" s="9" t="inlineStr"/>
+      <c r="L22" s="9" t="inlineStr"/>
+      <c r="M22" s="8" t="inlineStr"/>
+      <c r="N22" s="10" t="inlineStr"/>
+      <c r="O22" s="10" t="inlineStr"/>
+      <c r="P22" s="10" t="inlineStr"/>
+      <c r="Q22" s="8" t="inlineStr"/>
+      <c r="R22" s="8" t="inlineStr"/>
+      <c r="S22" s="8" t="inlineStr"/>
+      <c r="T22" s="8" t="inlineStr"/>
+      <c r="U22" s="8" t="inlineStr"/>
+      <c r="V22" s="10" t="inlineStr"/>
+      <c r="W22" s="10" t="inlineStr"/>
+      <c r="X22" s="10" t="inlineStr"/>
+      <c r="Y22" s="11" t="inlineStr"/>
+      <c r="Z22" s="10" t="inlineStr"/>
+      <c r="AA22" s="10" t="inlineStr"/>
     </row>
     <row r="23" ht="30" customHeight="1">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="7" t="n"/>
-      <c r="C23" s="8" t="n"/>
-      <c r="D23" s="8" t="n"/>
-      <c r="E23" s="8" t="n"/>
-      <c r="F23" s="8" t="n"/>
-      <c r="G23" s="8" t="n"/>
-      <c r="H23" s="8" t="n"/>
-      <c r="I23" s="8" t="n"/>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="9" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="10" t="n"/>
-      <c r="O23" s="10" t="n"/>
-      <c r="P23" s="10" t="n"/>
-      <c r="Q23" s="8" t="n"/>
-      <c r="R23" s="8" t="n"/>
-      <c r="S23" s="8" t="n"/>
-      <c r="T23" s="8" t="n"/>
-      <c r="U23" s="8" t="n"/>
-      <c r="V23" s="10" t="n"/>
-      <c r="W23" s="10" t="n"/>
-      <c r="X23" s="10" t="n"/>
-      <c r="Y23" s="11" t="n"/>
-      <c r="Z23" s="10" t="n"/>
-      <c r="AA23" s="10" t="n"/>
+      <c r="A23" s="6" t="inlineStr"/>
+      <c r="B23" s="7" t="n">
+        <v>268</v>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>zJVTaUcIvZTfflbAondg</t>
+        </is>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>Bobina</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="inlineStr"/>
+      <c r="K23" s="9" t="inlineStr"/>
+      <c r="L23" s="9" t="inlineStr"/>
+      <c r="M23" s="8" t="inlineStr"/>
+      <c r="N23" s="10" t="inlineStr"/>
+      <c r="O23" s="10" t="inlineStr"/>
+      <c r="P23" s="10" t="inlineStr"/>
+      <c r="Q23" s="8" t="inlineStr"/>
+      <c r="R23" s="8" t="inlineStr"/>
+      <c r="S23" s="8" t="inlineStr"/>
+      <c r="T23" s="8" t="inlineStr"/>
+      <c r="U23" s="8" t="inlineStr"/>
+      <c r="V23" s="10" t="inlineStr"/>
+      <c r="W23" s="10" t="inlineStr"/>
+      <c r="X23" s="10" t="inlineStr"/>
+      <c r="Y23" s="11" t="inlineStr"/>
+      <c r="Z23" s="10" t="inlineStr"/>
+      <c r="AA23" s="10" t="inlineStr"/>
     </row>
     <row r="24" ht="30" customHeight="1">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="8" t="n"/>
-      <c r="D24" s="8" t="n"/>
-      <c r="E24" s="8" t="n"/>
-      <c r="F24" s="8" t="n"/>
-      <c r="G24" s="8" t="n"/>
-      <c r="H24" s="8" t="n"/>
-      <c r="I24" s="8" t="n"/>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="9" t="n"/>
-      <c r="L24" s="9" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="10" t="n"/>
-      <c r="O24" s="10" t="n"/>
-      <c r="P24" s="10" t="n"/>
-      <c r="Q24" s="8" t="n"/>
-      <c r="R24" s="8" t="n"/>
-      <c r="S24" s="8" t="n"/>
-      <c r="T24" s="8" t="n"/>
-      <c r="U24" s="8" t="n"/>
-      <c r="V24" s="10" t="n"/>
-      <c r="W24" s="10" t="n"/>
-      <c r="X24" s="10" t="n"/>
-      <c r="Y24" s="11" t="n"/>
-      <c r="Z24" s="10" t="n"/>
-      <c r="AA24" s="10" t="n"/>
+      <c r="A24" s="6" t="inlineStr"/>
+      <c r="B24" s="7" t="n">
+        <v>3189</v>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>TwlfKpAKqEHUpYceRUhp</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="inlineStr"/>
+      <c r="E24" s="8" t="inlineStr"/>
+      <c r="F24" s="8" t="inlineStr"/>
+      <c r="G24" s="8" t="inlineStr"/>
+      <c r="H24" s="8" t="inlineStr"/>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>Balde</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="inlineStr"/>
+      <c r="K24" s="9" t="inlineStr"/>
+      <c r="L24" s="9" t="inlineStr"/>
+      <c r="M24" s="8" t="inlineStr"/>
+      <c r="N24" s="10" t="inlineStr"/>
+      <c r="O24" s="10" t="inlineStr"/>
+      <c r="P24" s="10" t="inlineStr"/>
+      <c r="Q24" s="8" t="inlineStr"/>
+      <c r="R24" s="8" t="inlineStr"/>
+      <c r="S24" s="8" t="inlineStr"/>
+      <c r="T24" s="8" t="inlineStr"/>
+      <c r="U24" s="8" t="inlineStr"/>
+      <c r="V24" s="10" t="inlineStr"/>
+      <c r="W24" s="10" t="inlineStr"/>
+      <c r="X24" s="10" t="inlineStr"/>
+      <c r="Y24" s="11" t="inlineStr"/>
+      <c r="Z24" s="10" t="inlineStr"/>
+      <c r="AA24" s="10" t="inlineStr"/>
     </row>
     <row r="25" ht="30" customHeight="1">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="8" t="n"/>
-      <c r="D25" s="8" t="n"/>
-      <c r="E25" s="8" t="n"/>
-      <c r="F25" s="8" t="n"/>
-      <c r="G25" s="8" t="n"/>
-      <c r="H25" s="8" t="n"/>
-      <c r="I25" s="8" t="n"/>
-      <c r="J25" s="9" t="n"/>
-      <c r="K25" s="9" t="n"/>
-      <c r="L25" s="9" t="n"/>
-      <c r="M25" s="8" t="n"/>
-      <c r="N25" s="10" t="n"/>
-      <c r="O25" s="10" t="n"/>
-      <c r="P25" s="10" t="n"/>
-      <c r="Q25" s="8" t="n"/>
-      <c r="R25" s="8" t="n"/>
-      <c r="S25" s="8" t="n"/>
-      <c r="T25" s="8" t="n"/>
-      <c r="U25" s="8" t="n"/>
-      <c r="V25" s="10" t="n"/>
-      <c r="W25" s="10" t="n"/>
-      <c r="X25" s="10" t="n"/>
-      <c r="Y25" s="11" t="n"/>
-      <c r="Z25" s="10" t="n"/>
-      <c r="AA25" s="10" t="n"/>
+      <c r="A25" s="6" t="inlineStr"/>
+      <c r="B25" s="7" t="n">
+        <v>7435</v>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>KxHzpofeCGndDFszJiRV</t>
+        </is>
+      </c>
+      <c r="D25" s="8" t="inlineStr"/>
+      <c r="E25" s="8" t="inlineStr"/>
+      <c r="F25" s="8" t="inlineStr"/>
+      <c r="G25" s="8" t="inlineStr"/>
+      <c r="H25" s="8" t="inlineStr"/>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>Ampola</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="inlineStr"/>
+      <c r="K25" s="9" t="inlineStr"/>
+      <c r="L25" s="9" t="inlineStr"/>
+      <c r="M25" s="8" t="inlineStr"/>
+      <c r="N25" s="10" t="inlineStr"/>
+      <c r="O25" s="10" t="inlineStr"/>
+      <c r="P25" s="10" t="inlineStr"/>
+      <c r="Q25" s="8" t="inlineStr"/>
+      <c r="R25" s="8" t="inlineStr"/>
+      <c r="S25" s="8" t="inlineStr"/>
+      <c r="T25" s="8" t="inlineStr"/>
+      <c r="U25" s="8" t="inlineStr"/>
+      <c r="V25" s="10" t="inlineStr"/>
+      <c r="W25" s="10" t="inlineStr"/>
+      <c r="X25" s="10" t="inlineStr"/>
+      <c r="Y25" s="11" t="inlineStr"/>
+      <c r="Z25" s="10" t="inlineStr"/>
+      <c r="AA25" s="10" t="inlineStr"/>
     </row>
     <row r="26" ht="30" customHeight="1">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="7" t="n"/>
-      <c r="C26" s="8" t="n"/>
-      <c r="D26" s="8" t="n"/>
-      <c r="E26" s="8" t="n"/>
-      <c r="F26" s="8" t="n"/>
-      <c r="G26" s="8" t="n"/>
-      <c r="H26" s="8" t="n"/>
-      <c r="I26" s="8" t="n"/>
-      <c r="J26" s="9" t="n"/>
-      <c r="K26" s="9" t="n"/>
-      <c r="L26" s="9" t="n"/>
-      <c r="M26" s="8" t="n"/>
-      <c r="N26" s="10" t="n"/>
-      <c r="O26" s="10" t="n"/>
-      <c r="P26" s="10" t="n"/>
-      <c r="Q26" s="8" t="n"/>
-      <c r="R26" s="8" t="n"/>
-      <c r="S26" s="8" t="n"/>
-      <c r="T26" s="8" t="n"/>
-      <c r="U26" s="8" t="n"/>
-      <c r="V26" s="10" t="n"/>
-      <c r="W26" s="10" t="n"/>
-      <c r="X26" s="10" t="n"/>
-      <c r="Y26" s="11" t="n"/>
-      <c r="Z26" s="10" t="n"/>
-      <c r="AA26" s="10" t="n"/>
+      <c r="A26" s="6" t="inlineStr"/>
+      <c r="B26" s="7" t="n">
+        <v>6814</v>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>UQTdOXlMimciiSUJLjfV</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="inlineStr"/>
+      <c r="E26" s="8" t="inlineStr"/>
+      <c r="F26" s="8" t="inlineStr"/>
+      <c r="G26" s="8" t="inlineStr"/>
+      <c r="H26" s="8" t="inlineStr"/>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>Balde</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="inlineStr"/>
+      <c r="K26" s="9" t="inlineStr"/>
+      <c r="L26" s="9" t="inlineStr"/>
+      <c r="M26" s="8" t="inlineStr"/>
+      <c r="N26" s="10" t="inlineStr"/>
+      <c r="O26" s="10" t="inlineStr"/>
+      <c r="P26" s="10" t="inlineStr"/>
+      <c r="Q26" s="8" t="inlineStr"/>
+      <c r="R26" s="8" t="inlineStr"/>
+      <c r="S26" s="8" t="inlineStr"/>
+      <c r="T26" s="8" t="inlineStr"/>
+      <c r="U26" s="8" t="inlineStr"/>
+      <c r="V26" s="10" t="inlineStr"/>
+      <c r="W26" s="10" t="inlineStr"/>
+      <c r="X26" s="10" t="inlineStr"/>
+      <c r="Y26" s="11" t="inlineStr"/>
+      <c r="Z26" s="10" t="inlineStr"/>
+      <c r="AA26" s="10" t="inlineStr"/>
     </row>
     <row r="27" ht="30" customHeight="1">
-      <c r="A27" s="6" t="n"/>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="8" t="n"/>
-      <c r="D27" s="8" t="n"/>
-      <c r="E27" s="8" t="n"/>
-      <c r="F27" s="8" t="n"/>
-      <c r="G27" s="8" t="n"/>
-      <c r="H27" s="8" t="n"/>
-      <c r="I27" s="8" t="n"/>
-      <c r="J27" s="9" t="n"/>
-      <c r="K27" s="9" t="n"/>
-      <c r="L27" s="9" t="n"/>
-      <c r="M27" s="8" t="n"/>
-      <c r="N27" s="10" t="n"/>
-      <c r="O27" s="10" t="n"/>
-      <c r="P27" s="10" t="n"/>
-      <c r="Q27" s="8" t="n"/>
-      <c r="R27" s="8" t="n"/>
-      <c r="S27" s="8" t="n"/>
-      <c r="T27" s="8" t="n"/>
-      <c r="U27" s="8" t="n"/>
-      <c r="V27" s="10" t="n"/>
-      <c r="W27" s="10" t="n"/>
-      <c r="X27" s="10" t="n"/>
-      <c r="Y27" s="11" t="n"/>
-      <c r="Z27" s="10" t="n"/>
-      <c r="AA27" s="10" t="n"/>
+      <c r="A27" s="6" t="inlineStr"/>
+      <c r="B27" s="7" t="n">
+        <v>4170</v>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>JGuCpIFnDariwhJpMwTL</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="inlineStr"/>
+      <c r="E27" s="8" t="inlineStr"/>
+      <c r="F27" s="8" t="inlineStr"/>
+      <c r="G27" s="8" t="inlineStr"/>
+      <c r="H27" s="8" t="inlineStr"/>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>Bobina</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="inlineStr"/>
+      <c r="K27" s="9" t="inlineStr"/>
+      <c r="L27" s="9" t="inlineStr"/>
+      <c r="M27" s="8" t="inlineStr"/>
+      <c r="N27" s="10" t="inlineStr"/>
+      <c r="O27" s="10" t="inlineStr"/>
+      <c r="P27" s="10" t="inlineStr"/>
+      <c r="Q27" s="8" t="inlineStr"/>
+      <c r="R27" s="8" t="inlineStr"/>
+      <c r="S27" s="8" t="inlineStr"/>
+      <c r="T27" s="8" t="inlineStr"/>
+      <c r="U27" s="8" t="inlineStr"/>
+      <c r="V27" s="10" t="inlineStr"/>
+      <c r="W27" s="10" t="inlineStr"/>
+      <c r="X27" s="10" t="inlineStr"/>
+      <c r="Y27" s="11" t="inlineStr"/>
+      <c r="Z27" s="10" t="inlineStr"/>
+      <c r="AA27" s="10" t="inlineStr"/>
     </row>
     <row r="28" ht="30" customHeight="1">
-      <c r="A28" s="6" t="n"/>
-      <c r="B28" s="7" t="n"/>
-      <c r="C28" s="8" t="n"/>
-      <c r="D28" s="8" t="n"/>
-      <c r="E28" s="8" t="n"/>
-      <c r="F28" s="8" t="n"/>
-      <c r="G28" s="8" t="n"/>
-      <c r="H28" s="8" t="n"/>
-      <c r="I28" s="8" t="n"/>
-      <c r="J28" s="9" t="n"/>
-      <c r="K28" s="9" t="n"/>
-      <c r="L28" s="9" t="n"/>
-      <c r="M28" s="8" t="n"/>
-      <c r="N28" s="10" t="n"/>
-      <c r="O28" s="10" t="n"/>
-      <c r="P28" s="10" t="n"/>
-      <c r="Q28" s="8" t="n"/>
-      <c r="R28" s="8" t="n"/>
-      <c r="S28" s="8" t="n"/>
-      <c r="T28" s="8" t="n"/>
-      <c r="U28" s="8" t="n"/>
-      <c r="V28" s="10" t="n"/>
-      <c r="W28" s="10" t="n"/>
-      <c r="X28" s="10" t="n"/>
-      <c r="Y28" s="11" t="n"/>
-      <c r="Z28" s="10" t="n"/>
-      <c r="AA28" s="10" t="n"/>
+      <c r="A28" s="6" t="inlineStr"/>
+      <c r="B28" s="7" t="n">
+        <v>4629</v>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>GfQTxMvqECUbWGIsaVDk</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="inlineStr"/>
+      <c r="E28" s="8" t="inlineStr"/>
+      <c r="F28" s="8" t="inlineStr"/>
+      <c r="G28" s="8" t="inlineStr"/>
+      <c r="H28" s="8" t="inlineStr"/>
+      <c r="I28" s="8" t="inlineStr">
+        <is>
+          <t>Bobina</t>
+        </is>
+      </c>
+      <c r="J28" s="9" t="inlineStr"/>
+      <c r="K28" s="9" t="inlineStr"/>
+      <c r="L28" s="9" t="inlineStr"/>
+      <c r="M28" s="8" t="inlineStr"/>
+      <c r="N28" s="10" t="inlineStr"/>
+      <c r="O28" s="10" t="inlineStr"/>
+      <c r="P28" s="10" t="inlineStr"/>
+      <c r="Q28" s="8" t="inlineStr"/>
+      <c r="R28" s="8" t="inlineStr"/>
+      <c r="S28" s="8" t="inlineStr"/>
+      <c r="T28" s="8" t="inlineStr"/>
+      <c r="U28" s="8" t="inlineStr"/>
+      <c r="V28" s="10" t="inlineStr"/>
+      <c r="W28" s="10" t="inlineStr"/>
+      <c r="X28" s="10" t="inlineStr"/>
+      <c r="Y28" s="11" t="inlineStr"/>
+      <c r="Z28" s="10" t="inlineStr"/>
+      <c r="AA28" s="10" t="inlineStr"/>
     </row>
     <row r="29" ht="30" customHeight="1">
-      <c r="A29" s="6" t="n"/>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="8" t="n"/>
-      <c r="D29" s="8" t="n"/>
-      <c r="E29" s="8" t="n"/>
-      <c r="F29" s="8" t="n"/>
-      <c r="G29" s="8" t="n"/>
-      <c r="H29" s="8" t="n"/>
-      <c r="I29" s="8" t="n"/>
-      <c r="J29" s="9" t="n"/>
-      <c r="K29" s="9" t="n"/>
-      <c r="L29" s="9" t="n"/>
-      <c r="M29" s="8" t="n"/>
-      <c r="N29" s="10" t="n"/>
-      <c r="O29" s="10" t="n"/>
-      <c r="P29" s="10" t="n"/>
-      <c r="Q29" s="8" t="n"/>
-      <c r="R29" s="8" t="n"/>
-      <c r="S29" s="8" t="n"/>
-      <c r="T29" s="8" t="n"/>
-      <c r="U29" s="8" t="n"/>
-      <c r="V29" s="10" t="n"/>
-      <c r="W29" s="10" t="n"/>
-      <c r="X29" s="10" t="n"/>
-      <c r="Y29" s="11" t="n"/>
-      <c r="Z29" s="10" t="n"/>
-      <c r="AA29" s="10" t="n"/>
+      <c r="A29" s="6" t="inlineStr"/>
+      <c r="B29" s="7" t="n">
+        <v>4344</v>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>ovWIaRPcZsqyCEWgWCbO</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="inlineStr"/>
+      <c r="E29" s="8" t="inlineStr"/>
+      <c r="F29" s="8" t="inlineStr"/>
+      <c r="G29" s="8" t="inlineStr"/>
+      <c r="H29" s="8" t="inlineStr"/>
+      <c r="I29" s="8" t="inlineStr">
+        <is>
+          <t>Balde</t>
+        </is>
+      </c>
+      <c r="J29" s="9" t="inlineStr"/>
+      <c r="K29" s="9" t="inlineStr"/>
+      <c r="L29" s="9" t="inlineStr"/>
+      <c r="M29" s="8" t="inlineStr"/>
+      <c r="N29" s="10" t="inlineStr"/>
+      <c r="O29" s="10" t="inlineStr"/>
+      <c r="P29" s="10" t="inlineStr"/>
+      <c r="Q29" s="8" t="inlineStr"/>
+      <c r="R29" s="8" t="inlineStr"/>
+      <c r="S29" s="8" t="inlineStr"/>
+      <c r="T29" s="8" t="inlineStr"/>
+      <c r="U29" s="8" t="inlineStr"/>
+      <c r="V29" s="10" t="inlineStr"/>
+      <c r="W29" s="10" t="inlineStr"/>
+      <c r="X29" s="10" t="inlineStr"/>
+      <c r="Y29" s="11" t="inlineStr"/>
+      <c r="Z29" s="10" t="inlineStr"/>
+      <c r="AA29" s="10" t="inlineStr"/>
     </row>
     <row r="30" ht="30" customHeight="1">
-      <c r="A30" s="6" t="n"/>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="8" t="n"/>
-      <c r="D30" s="8" t="n"/>
-      <c r="E30" s="8" t="n"/>
-      <c r="F30" s="8" t="n"/>
-      <c r="G30" s="8" t="n"/>
-      <c r="H30" s="8" t="n"/>
-      <c r="I30" s="8" t="n"/>
-      <c r="J30" s="9" t="n"/>
-      <c r="K30" s="9" t="n"/>
-      <c r="L30" s="9" t="n"/>
-      <c r="M30" s="8" t="n"/>
-      <c r="N30" s="10" t="n"/>
-      <c r="O30" s="10" t="n"/>
-      <c r="P30" s="10" t="n"/>
-      <c r="Q30" s="8" t="n"/>
-      <c r="R30" s="8" t="n"/>
-      <c r="S30" s="8" t="n"/>
-      <c r="T30" s="8" t="n"/>
-      <c r="U30" s="8" t="n"/>
-      <c r="V30" s="10" t="n"/>
-      <c r="W30" s="10" t="n"/>
-      <c r="X30" s="10" t="n"/>
-      <c r="Y30" s="11" t="n"/>
-      <c r="Z30" s="10" t="n"/>
-      <c r="AA30" s="10" t="n"/>
+      <c r="A30" s="6" t="inlineStr"/>
+      <c r="B30" s="7" t="n">
+        <v>6424</v>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>xLNXNSshCzkadzWtdBmU</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="inlineStr"/>
+      <c r="E30" s="8" t="inlineStr"/>
+      <c r="F30" s="8" t="inlineStr"/>
+      <c r="G30" s="8" t="inlineStr"/>
+      <c r="H30" s="8" t="inlineStr"/>
+      <c r="I30" s="8" t="inlineStr">
+        <is>
+          <t>Balde</t>
+        </is>
+      </c>
+      <c r="J30" s="9" t="inlineStr"/>
+      <c r="K30" s="9" t="inlineStr"/>
+      <c r="L30" s="9" t="inlineStr"/>
+      <c r="M30" s="8" t="inlineStr"/>
+      <c r="N30" s="10" t="inlineStr"/>
+      <c r="O30" s="10" t="inlineStr"/>
+      <c r="P30" s="10" t="inlineStr"/>
+      <c r="Q30" s="8" t="inlineStr"/>
+      <c r="R30" s="8" t="inlineStr"/>
+      <c r="S30" s="8" t="inlineStr"/>
+      <c r="T30" s="8" t="inlineStr"/>
+      <c r="U30" s="8" t="inlineStr"/>
+      <c r="V30" s="10" t="inlineStr"/>
+      <c r="W30" s="10" t="inlineStr"/>
+      <c r="X30" s="10" t="inlineStr"/>
+      <c r="Y30" s="11" t="inlineStr"/>
+      <c r="Z30" s="10" t="inlineStr"/>
+      <c r="AA30" s="10" t="inlineStr"/>
     </row>
     <row r="31" ht="30" customHeight="1">
-      <c r="A31" s="6" t="n"/>
-      <c r="B31" s="7" t="n"/>
-      <c r="C31" s="8" t="n"/>
-      <c r="D31" s="8" t="n"/>
-      <c r="E31" s="8" t="n"/>
-      <c r="F31" s="8" t="n"/>
-      <c r="G31" s="8" t="n"/>
-      <c r="H31" s="8" t="n"/>
-      <c r="I31" s="8" t="n"/>
-      <c r="J31" s="9" t="n"/>
-      <c r="K31" s="9" t="n"/>
-      <c r="L31" s="9" t="n"/>
-      <c r="M31" s="8" t="n"/>
-      <c r="N31" s="10" t="n"/>
-      <c r="O31" s="10" t="n"/>
-      <c r="P31" s="10" t="n"/>
-      <c r="Q31" s="8" t="n"/>
-      <c r="R31" s="8" t="n"/>
-      <c r="S31" s="8" t="n"/>
-      <c r="T31" s="8" t="n"/>
-      <c r="U31" s="8" t="n"/>
-      <c r="V31" s="10" t="n"/>
-      <c r="W31" s="10" t="n"/>
-      <c r="X31" s="10" t="n"/>
-      <c r="Y31" s="11" t="n"/>
-      <c r="Z31" s="10" t="n"/>
-      <c r="AA31" s="10" t="n"/>
+      <c r="A31" s="6" t="inlineStr"/>
+      <c r="B31" s="7" t="n">
+        <v>4075</v>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>JjWmWJKWCTrStTsWKDHX</t>
+        </is>
+      </c>
+      <c r="D31" s="8" t="inlineStr"/>
+      <c r="E31" s="8" t="inlineStr"/>
+      <c r="F31" s="8" t="inlineStr"/>
+      <c r="G31" s="8" t="inlineStr"/>
+      <c r="H31" s="8" t="inlineStr"/>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>Ampola</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr"/>
+      <c r="K31" s="9" t="inlineStr"/>
+      <c r="L31" s="9" t="inlineStr"/>
+      <c r="M31" s="8" t="inlineStr"/>
+      <c r="N31" s="10" t="inlineStr"/>
+      <c r="O31" s="10" t="inlineStr"/>
+      <c r="P31" s="10" t="inlineStr"/>
+      <c r="Q31" s="8" t="inlineStr"/>
+      <c r="R31" s="8" t="inlineStr"/>
+      <c r="S31" s="8" t="inlineStr"/>
+      <c r="T31" s="8" t="inlineStr"/>
+      <c r="U31" s="8" t="inlineStr"/>
+      <c r="V31" s="10" t="inlineStr"/>
+      <c r="W31" s="10" t="inlineStr"/>
+      <c r="X31" s="10" t="inlineStr"/>
+      <c r="Y31" s="11" t="inlineStr"/>
+      <c r="Z31" s="10" t="inlineStr"/>
+      <c r="AA31" s="10" t="inlineStr"/>
     </row>
     <row r="32" ht="30" customHeight="1">
-      <c r="A32" s="6" t="n"/>
-      <c r="B32" s="7" t="n"/>
-      <c r="C32" s="8" t="n"/>
-      <c r="D32" s="8" t="n"/>
-      <c r="E32" s="8" t="n"/>
-      <c r="F32" s="8" t="n"/>
-      <c r="G32" s="8" t="n"/>
-      <c r="H32" s="8" t="n"/>
-      <c r="I32" s="8" t="n"/>
-      <c r="J32" s="9" t="n"/>
-      <c r="K32" s="9" t="n"/>
-      <c r="L32" s="9" t="n"/>
-      <c r="M32" s="8" t="n"/>
-      <c r="N32" s="10" t="n"/>
-      <c r="O32" s="10" t="n"/>
-      <c r="P32" s="10" t="n"/>
-      <c r="Q32" s="8" t="n"/>
-      <c r="R32" s="8" t="n"/>
-      <c r="S32" s="8" t="n"/>
-      <c r="T32" s="8" t="n"/>
-      <c r="U32" s="8" t="n"/>
-      <c r="V32" s="10" t="n"/>
-      <c r="W32" s="10" t="n"/>
-      <c r="X32" s="10" t="n"/>
-      <c r="Y32" s="11" t="n"/>
-      <c r="Z32" s="10" t="n"/>
-      <c r="AA32" s="10" t="n"/>
+      <c r="A32" s="6" t="inlineStr"/>
+      <c r="B32" s="7" t="n">
+        <v>144</v>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>QaassLrXmCgwtgVIdyjO</t>
+        </is>
+      </c>
+      <c r="D32" s="8" t="inlineStr"/>
+      <c r="E32" s="8" t="inlineStr"/>
+      <c r="F32" s="8" t="inlineStr"/>
+      <c r="G32" s="8" t="inlineStr"/>
+      <c r="H32" s="8" t="inlineStr"/>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>Ampola</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr"/>
+      <c r="K32" s="9" t="inlineStr"/>
+      <c r="L32" s="9" t="inlineStr"/>
+      <c r="M32" s="8" t="inlineStr"/>
+      <c r="N32" s="10" t="inlineStr"/>
+      <c r="O32" s="10" t="inlineStr"/>
+      <c r="P32" s="10" t="inlineStr"/>
+      <c r="Q32" s="8" t="inlineStr"/>
+      <c r="R32" s="8" t="inlineStr"/>
+      <c r="S32" s="8" t="inlineStr"/>
+      <c r="T32" s="8" t="inlineStr"/>
+      <c r="U32" s="8" t="inlineStr"/>
+      <c r="V32" s="10" t="inlineStr"/>
+      <c r="W32" s="10" t="inlineStr"/>
+      <c r="X32" s="10" t="inlineStr"/>
+      <c r="Y32" s="11" t="inlineStr"/>
+      <c r="Z32" s="10" t="inlineStr"/>
+      <c r="AA32" s="10" t="inlineStr"/>
     </row>
     <row r="33" ht="30" customHeight="1">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="7" t="n"/>
-      <c r="C33" s="8" t="n"/>
-      <c r="D33" s="8" t="n"/>
-      <c r="E33" s="8" t="n"/>
-      <c r="F33" s="8" t="n"/>
-      <c r="G33" s="8" t="n"/>
-      <c r="H33" s="8" t="n"/>
-      <c r="I33" s="8" t="n"/>
-      <c r="J33" s="9" t="n"/>
-      <c r="K33" s="9" t="n"/>
-      <c r="L33" s="9" t="n"/>
-      <c r="M33" s="8" t="n"/>
-      <c r="N33" s="10" t="n"/>
-      <c r="O33" s="10" t="n"/>
-      <c r="P33" s="10" t="n"/>
-      <c r="Q33" s="8" t="n"/>
-      <c r="R33" s="8" t="n"/>
-      <c r="S33" s="8" t="n"/>
-      <c r="T33" s="8" t="n"/>
-      <c r="U33" s="8" t="n"/>
-      <c r="V33" s="10" t="n"/>
-      <c r="W33" s="10" t="n"/>
-      <c r="X33" s="10" t="n"/>
-      <c r="Y33" s="11" t="n"/>
-      <c r="Z33" s="10" t="n"/>
-      <c r="AA33" s="10" t="n"/>
+      <c r="A33" s="6" t="inlineStr"/>
+      <c r="B33" s="7" t="n">
+        <v>8318</v>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>iPeAuyiBHTJtbAdqrMuU</t>
+        </is>
+      </c>
+      <c r="D33" s="8" t="inlineStr"/>
+      <c r="E33" s="8" t="inlineStr"/>
+      <c r="F33" s="8" t="inlineStr"/>
+      <c r="G33" s="8" t="inlineStr"/>
+      <c r="H33" s="8" t="inlineStr"/>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>Ampola</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr"/>
+      <c r="K33" s="9" t="inlineStr"/>
+      <c r="L33" s="9" t="inlineStr"/>
+      <c r="M33" s="8" t="inlineStr"/>
+      <c r="N33" s="10" t="inlineStr"/>
+      <c r="O33" s="10" t="inlineStr"/>
+      <c r="P33" s="10" t="inlineStr"/>
+      <c r="Q33" s="8" t="inlineStr"/>
+      <c r="R33" s="8" t="inlineStr"/>
+      <c r="S33" s="8" t="inlineStr"/>
+      <c r="T33" s="8" t="inlineStr"/>
+      <c r="U33" s="8" t="inlineStr"/>
+      <c r="V33" s="10" t="inlineStr"/>
+      <c r="W33" s="10" t="inlineStr"/>
+      <c r="X33" s="10" t="inlineStr"/>
+      <c r="Y33" s="11" t="inlineStr"/>
+      <c r="Z33" s="10" t="inlineStr"/>
+      <c r="AA33" s="10" t="inlineStr"/>
     </row>
     <row r="34" ht="30" customHeight="1">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="7" t="n"/>
-      <c r="C34" s="8" t="n"/>
-      <c r="D34" s="8" t="n"/>
-      <c r="E34" s="8" t="n"/>
-      <c r="F34" s="8" t="n"/>
-      <c r="G34" s="8" t="n"/>
-      <c r="H34" s="8" t="n"/>
-      <c r="I34" s="8" t="n"/>
-      <c r="J34" s="9" t="n"/>
-      <c r="K34" s="9" t="n"/>
-      <c r="L34" s="9" t="n"/>
-      <c r="M34" s="8" t="n"/>
-      <c r="N34" s="10" t="n"/>
-      <c r="O34" s="10" t="n"/>
-      <c r="P34" s="10" t="n"/>
-      <c r="Q34" s="8" t="n"/>
-      <c r="R34" s="8" t="n"/>
-      <c r="S34" s="8" t="n"/>
-      <c r="T34" s="8" t="n"/>
-      <c r="U34" s="8" t="n"/>
-      <c r="V34" s="10" t="n"/>
-      <c r="W34" s="10" t="n"/>
-      <c r="X34" s="10" t="n"/>
-      <c r="Y34" s="11" t="n"/>
-      <c r="Z34" s="10" t="n"/>
-      <c r="AA34" s="10" t="n"/>
+      <c r="A34" s="6" t="inlineStr"/>
+      <c r="B34" s="7" t="n">
+        <v>1542</v>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>iJRLlRgWTEiXbFgSFVFj</t>
+        </is>
+      </c>
+      <c r="D34" s="8" t="inlineStr"/>
+      <c r="E34" s="8" t="inlineStr"/>
+      <c r="F34" s="8" t="inlineStr"/>
+      <c r="G34" s="8" t="inlineStr"/>
+      <c r="H34" s="8" t="inlineStr"/>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>Balde</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr"/>
+      <c r="K34" s="9" t="inlineStr"/>
+      <c r="L34" s="9" t="inlineStr"/>
+      <c r="M34" s="8" t="inlineStr"/>
+      <c r="N34" s="10" t="inlineStr"/>
+      <c r="O34" s="10" t="inlineStr"/>
+      <c r="P34" s="10" t="inlineStr"/>
+      <c r="Q34" s="8" t="inlineStr"/>
+      <c r="R34" s="8" t="inlineStr"/>
+      <c r="S34" s="8" t="inlineStr"/>
+      <c r="T34" s="8" t="inlineStr"/>
+      <c r="U34" s="8" t="inlineStr"/>
+      <c r="V34" s="10" t="inlineStr"/>
+      <c r="W34" s="10" t="inlineStr"/>
+      <c r="X34" s="10" t="inlineStr"/>
+      <c r="Y34" s="11" t="inlineStr"/>
+      <c r="Z34" s="10" t="inlineStr"/>
+      <c r="AA34" s="10" t="inlineStr"/>
     </row>
     <row r="35" ht="30" customHeight="1">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="7" t="n"/>
-      <c r="C35" s="8" t="n"/>
-      <c r="D35" s="8" t="n"/>
-      <c r="E35" s="8" t="n"/>
-      <c r="F35" s="8" t="n"/>
-      <c r="G35" s="8" t="n"/>
-      <c r="H35" s="8" t="n"/>
-      <c r="I35" s="8" t="n"/>
-      <c r="J35" s="9" t="n"/>
-      <c r="K35" s="9" t="n"/>
-      <c r="L35" s="9" t="n"/>
-      <c r="M35" s="8" t="n"/>
-      <c r="N35" s="10" t="n"/>
-      <c r="O35" s="10" t="n"/>
-      <c r="P35" s="10" t="n"/>
-      <c r="Q35" s="8" t="n"/>
-      <c r="R35" s="8" t="n"/>
-      <c r="S35" s="8" t="n"/>
-      <c r="T35" s="8" t="n"/>
-      <c r="U35" s="8" t="n"/>
-      <c r="V35" s="10" t="n"/>
-      <c r="W35" s="10" t="n"/>
-      <c r="X35" s="10" t="n"/>
-      <c r="Y35" s="11" t="n"/>
-      <c r="Z35" s="10" t="n"/>
-      <c r="AA35" s="10" t="n"/>
+      <c r="A35" s="6" t="inlineStr"/>
+      <c r="B35" s="7" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>CeVmwDcuJYmTefWsOGfP</t>
+        </is>
+      </c>
+      <c r="D35" s="8" t="inlineStr"/>
+      <c r="E35" s="8" t="inlineStr"/>
+      <c r="F35" s="8" t="inlineStr"/>
+      <c r="G35" s="8" t="inlineStr"/>
+      <c r="H35" s="8" t="inlineStr"/>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>Ampola</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr"/>
+      <c r="K35" s="9" t="inlineStr"/>
+      <c r="L35" s="9" t="inlineStr"/>
+      <c r="M35" s="8" t="inlineStr"/>
+      <c r="N35" s="10" t="inlineStr"/>
+      <c r="O35" s="10" t="inlineStr"/>
+      <c r="P35" s="10" t="inlineStr"/>
+      <c r="Q35" s="8" t="inlineStr"/>
+      <c r="R35" s="8" t="inlineStr"/>
+      <c r="S35" s="8" t="inlineStr"/>
+      <c r="T35" s="8" t="inlineStr"/>
+      <c r="U35" s="8" t="inlineStr"/>
+      <c r="V35" s="10" t="inlineStr"/>
+      <c r="W35" s="10" t="inlineStr"/>
+      <c r="X35" s="10" t="inlineStr"/>
+      <c r="Y35" s="11" t="inlineStr"/>
+      <c r="Z35" s="10" t="inlineStr"/>
+      <c r="AA35" s="10" t="inlineStr"/>
     </row>
     <row r="36" ht="30" customHeight="1">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="7" t="n"/>
-      <c r="C36" s="8" t="n"/>
-      <c r="D36" s="8" t="n"/>
-      <c r="E36" s="8" t="n"/>
-      <c r="F36" s="8" t="n"/>
-      <c r="G36" s="8" t="n"/>
-      <c r="H36" s="8" t="n"/>
-      <c r="I36" s="8" t="n"/>
-      <c r="J36" s="9" t="n"/>
-      <c r="K36" s="9" t="n"/>
-      <c r="L36" s="9" t="n"/>
-      <c r="M36" s="8" t="n"/>
-      <c r="N36" s="10" t="n"/>
-      <c r="O36" s="10" t="n"/>
-      <c r="P36" s="10" t="n"/>
-      <c r="Q36" s="8" t="n"/>
-      <c r="R36" s="8" t="n"/>
-      <c r="S36" s="8" t="n"/>
-      <c r="T36" s="8" t="n"/>
-      <c r="U36" s="8" t="n"/>
-      <c r="V36" s="10" t="n"/>
-      <c r="W36" s="10" t="n"/>
-      <c r="X36" s="10" t="n"/>
-      <c r="Y36" s="11" t="n"/>
-      <c r="Z36" s="10" t="n"/>
-      <c r="AA36" s="10" t="n"/>
+      <c r="A36" s="6" t="inlineStr"/>
+      <c r="B36" s="7" t="n">
+        <v>5422</v>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>hhHZuHObFgzZjUtWVRiE</t>
+        </is>
+      </c>
+      <c r="D36" s="8" t="inlineStr"/>
+      <c r="E36" s="8" t="inlineStr"/>
+      <c r="F36" s="8" t="inlineStr"/>
+      <c r="G36" s="8" t="inlineStr"/>
+      <c r="H36" s="8" t="inlineStr"/>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>Balde</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr"/>
+      <c r="K36" s="9" t="inlineStr"/>
+      <c r="L36" s="9" t="inlineStr"/>
+      <c r="M36" s="8" t="inlineStr"/>
+      <c r="N36" s="10" t="inlineStr"/>
+      <c r="O36" s="10" t="inlineStr"/>
+      <c r="P36" s="10" t="inlineStr"/>
+      <c r="Q36" s="8" t="inlineStr"/>
+      <c r="R36" s="8" t="inlineStr"/>
+      <c r="S36" s="8" t="inlineStr"/>
+      <c r="T36" s="8" t="inlineStr"/>
+      <c r="U36" s="8" t="inlineStr"/>
+      <c r="V36" s="10" t="inlineStr"/>
+      <c r="W36" s="10" t="inlineStr"/>
+      <c r="X36" s="10" t="inlineStr"/>
+      <c r="Y36" s="11" t="inlineStr"/>
+      <c r="Z36" s="10" t="inlineStr"/>
+      <c r="AA36" s="10" t="inlineStr"/>
     </row>
     <row r="37" ht="30" customHeight="1">
-      <c r="A37" s="6" t="n"/>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="8" t="n"/>
-      <c r="D37" s="8" t="n"/>
-      <c r="E37" s="8" t="n"/>
-      <c r="F37" s="8" t="n"/>
-      <c r="G37" s="8" t="n"/>
-      <c r="H37" s="8" t="n"/>
-      <c r="I37" s="8" t="n"/>
-      <c r="J37" s="9" t="n"/>
-      <c r="K37" s="9" t="n"/>
-      <c r="L37" s="9" t="n"/>
-      <c r="M37" s="8" t="n"/>
-      <c r="N37" s="10" t="n"/>
-      <c r="O37" s="10" t="n"/>
-      <c r="P37" s="10" t="n"/>
-      <c r="Q37" s="8" t="n"/>
-      <c r="R37" s="8" t="n"/>
-      <c r="S37" s="8" t="n"/>
-      <c r="T37" s="8" t="n"/>
-      <c r="U37" s="8" t="n"/>
-      <c r="V37" s="10" t="n"/>
-      <c r="W37" s="10" t="n"/>
-      <c r="X37" s="10" t="n"/>
-      <c r="Y37" s="11" t="n"/>
-      <c r="Z37" s="10" t="n"/>
-      <c r="AA37" s="10" t="n"/>
+      <c r="A37" s="6" t="inlineStr"/>
+      <c r="B37" s="7" t="n">
+        <v>7394</v>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>fKMTbCfNIyxibSJaHrvb</t>
+        </is>
+      </c>
+      <c r="D37" s="8" t="inlineStr"/>
+      <c r="E37" s="8" t="inlineStr"/>
+      <c r="F37" s="8" t="inlineStr"/>
+      <c r="G37" s="8" t="inlineStr"/>
+      <c r="H37" s="8" t="inlineStr"/>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>Bobina</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr"/>
+      <c r="K37" s="9" t="inlineStr"/>
+      <c r="L37" s="9" t="inlineStr"/>
+      <c r="M37" s="8" t="inlineStr"/>
+      <c r="N37" s="10" t="inlineStr"/>
+      <c r="O37" s="10" t="inlineStr"/>
+      <c r="P37" s="10" t="inlineStr"/>
+      <c r="Q37" s="8" t="inlineStr"/>
+      <c r="R37" s="8" t="inlineStr"/>
+      <c r="S37" s="8" t="inlineStr"/>
+      <c r="T37" s="8" t="inlineStr"/>
+      <c r="U37" s="8" t="inlineStr"/>
+      <c r="V37" s="10" t="inlineStr"/>
+      <c r="W37" s="10" t="inlineStr"/>
+      <c r="X37" s="10" t="inlineStr"/>
+      <c r="Y37" s="11" t="inlineStr"/>
+      <c r="Z37" s="10" t="inlineStr"/>
+      <c r="AA37" s="10" t="inlineStr"/>
     </row>
     <row r="38" ht="30" customHeight="1">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="8" t="n"/>
-      <c r="D38" s="8" t="n"/>
-      <c r="E38" s="8" t="n"/>
-      <c r="F38" s="8" t="n"/>
-      <c r="G38" s="8" t="n"/>
-      <c r="H38" s="8" t="n"/>
-      <c r="I38" s="8" t="n"/>
-      <c r="J38" s="9" t="n"/>
-      <c r="K38" s="9" t="n"/>
-      <c r="L38" s="9" t="n"/>
-      <c r="M38" s="8" t="n"/>
-      <c r="N38" s="10" t="n"/>
-      <c r="O38" s="10" t="n"/>
-      <c r="P38" s="10" t="n"/>
-      <c r="Q38" s="8" t="n"/>
-      <c r="R38" s="8" t="n"/>
-      <c r="S38" s="8" t="n"/>
-      <c r="T38" s="8" t="n"/>
-      <c r="U38" s="8" t="n"/>
-      <c r="V38" s="10" t="n"/>
-      <c r="W38" s="10" t="n"/>
-      <c r="X38" s="10" t="n"/>
-      <c r="Y38" s="11" t="n"/>
-      <c r="Z38" s="10" t="n"/>
-      <c r="AA38" s="10" t="n"/>
+      <c r="A38" s="6" t="inlineStr"/>
+      <c r="B38" s="7" t="n">
+        <v>6988</v>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>mNfGtkgfUsWMFdDVkRGq</t>
+        </is>
+      </c>
+      <c r="D38" s="8" t="inlineStr"/>
+      <c r="E38" s="8" t="inlineStr"/>
+      <c r="F38" s="8" t="inlineStr"/>
+      <c r="G38" s="8" t="inlineStr"/>
+      <c r="H38" s="8" t="inlineStr"/>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>Barra</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr"/>
+      <c r="K38" s="9" t="inlineStr"/>
+      <c r="L38" s="9" t="inlineStr"/>
+      <c r="M38" s="8" t="inlineStr"/>
+      <c r="N38" s="10" t="inlineStr"/>
+      <c r="O38" s="10" t="inlineStr"/>
+      <c r="P38" s="10" t="inlineStr"/>
+      <c r="Q38" s="8" t="inlineStr"/>
+      <c r="R38" s="8" t="inlineStr"/>
+      <c r="S38" s="8" t="inlineStr"/>
+      <c r="T38" s="8" t="inlineStr"/>
+      <c r="U38" s="8" t="inlineStr"/>
+      <c r="V38" s="10" t="inlineStr"/>
+      <c r="W38" s="10" t="inlineStr"/>
+      <c r="X38" s="10" t="inlineStr"/>
+      <c r="Y38" s="11" t="inlineStr"/>
+      <c r="Z38" s="10" t="inlineStr"/>
+      <c r="AA38" s="10" t="inlineStr"/>
     </row>
     <row r="39" ht="30" customHeight="1">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="7" t="n"/>
-      <c r="C39" s="8" t="n"/>
-      <c r="D39" s="8" t="n"/>
-      <c r="E39" s="8" t="n"/>
-      <c r="F39" s="8" t="n"/>
-      <c r="G39" s="8" t="n"/>
-      <c r="H39" s="8" t="n"/>
-      <c r="I39" s="8" t="n"/>
-      <c r="J39" s="9" t="n"/>
-      <c r="K39" s="9" t="n"/>
-      <c r="L39" s="9" t="n"/>
-      <c r="M39" s="8" t="n"/>
-      <c r="N39" s="10" t="n"/>
-      <c r="O39" s="10" t="n"/>
-      <c r="P39" s="10" t="n"/>
-      <c r="Q39" s="8" t="n"/>
-      <c r="R39" s="8" t="n"/>
-      <c r="S39" s="8" t="n"/>
-      <c r="T39" s="8" t="n"/>
-      <c r="U39" s="8" t="n"/>
-      <c r="V39" s="10" t="n"/>
-      <c r="W39" s="10" t="n"/>
-      <c r="X39" s="10" t="n"/>
-      <c r="Y39" s="11" t="n"/>
-      <c r="Z39" s="10" t="n"/>
-      <c r="AA39" s="10" t="n"/>
+      <c r="A39" s="6" t="inlineStr"/>
+      <c r="B39" s="7" t="n">
+        <v>7335</v>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>GWgxLserDFtTHcJittKi</t>
+        </is>
+      </c>
+      <c r="D39" s="8" t="inlineStr"/>
+      <c r="E39" s="8" t="inlineStr"/>
+      <c r="F39" s="8" t="inlineStr"/>
+      <c r="G39" s="8" t="inlineStr"/>
+      <c r="H39" s="8" t="inlineStr"/>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>Balde</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr"/>
+      <c r="K39" s="9" t="inlineStr"/>
+      <c r="L39" s="9" t="inlineStr"/>
+      <c r="M39" s="8" t="inlineStr"/>
+      <c r="N39" s="10" t="inlineStr"/>
+      <c r="O39" s="10" t="inlineStr"/>
+      <c r="P39" s="10" t="inlineStr"/>
+      <c r="Q39" s="8" t="inlineStr"/>
+      <c r="R39" s="8" t="inlineStr"/>
+      <c r="S39" s="8" t="inlineStr"/>
+      <c r="T39" s="8" t="inlineStr"/>
+      <c r="U39" s="8" t="inlineStr"/>
+      <c r="V39" s="10" t="inlineStr"/>
+      <c r="W39" s="10" t="inlineStr"/>
+      <c r="X39" s="10" t="inlineStr"/>
+      <c r="Y39" s="11" t="inlineStr"/>
+      <c r="Z39" s="10" t="inlineStr"/>
+      <c r="AA39" s="10" t="inlineStr"/>
     </row>
     <row r="40" ht="30" customHeight="1">
-      <c r="A40" s="6" t="n"/>
-      <c r="B40" s="7" t="n"/>
-      <c r="C40" s="8" t="n"/>
-      <c r="D40" s="8" t="n"/>
-      <c r="E40" s="8" t="n"/>
-      <c r="F40" s="8" t="n"/>
-      <c r="G40" s="8" t="n"/>
-      <c r="H40" s="8" t="n"/>
-      <c r="I40" s="8" t="n"/>
-      <c r="J40" s="9" t="n"/>
-      <c r="K40" s="9" t="n"/>
-      <c r="L40" s="9" t="n"/>
-      <c r="M40" s="8" t="n"/>
-      <c r="N40" s="10" t="n"/>
-      <c r="O40" s="10" t="n"/>
-      <c r="P40" s="10" t="n"/>
-      <c r="Q40" s="8" t="n"/>
-      <c r="R40" s="8" t="n"/>
-      <c r="S40" s="8" t="n"/>
-      <c r="T40" s="8" t="n"/>
-      <c r="U40" s="8" t="n"/>
-      <c r="V40" s="10" t="n"/>
-      <c r="W40" s="10" t="n"/>
-      <c r="X40" s="10" t="n"/>
-      <c r="Y40" s="11" t="n"/>
-      <c r="Z40" s="10" t="n"/>
-      <c r="AA40" s="10" t="n"/>
+      <c r="A40" s="6" t="inlineStr"/>
+      <c r="B40" s="7" t="n">
+        <v>2664</v>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>jQGqELXGgBkwlqLVYlBt</t>
+        </is>
+      </c>
+      <c r="D40" s="8" t="inlineStr"/>
+      <c r="E40" s="8" t="inlineStr"/>
+      <c r="F40" s="8" t="inlineStr"/>
+      <c r="G40" s="8" t="inlineStr"/>
+      <c r="H40" s="8" t="inlineStr"/>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>Balde</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr"/>
+      <c r="K40" s="9" t="inlineStr"/>
+      <c r="L40" s="9" t="inlineStr"/>
+      <c r="M40" s="8" t="inlineStr"/>
+      <c r="N40" s="10" t="inlineStr"/>
+      <c r="O40" s="10" t="inlineStr"/>
+      <c r="P40" s="10" t="inlineStr"/>
+      <c r="Q40" s="8" t="inlineStr"/>
+      <c r="R40" s="8" t="inlineStr"/>
+      <c r="S40" s="8" t="inlineStr"/>
+      <c r="T40" s="8" t="inlineStr"/>
+      <c r="U40" s="8" t="inlineStr"/>
+      <c r="V40" s="10" t="inlineStr"/>
+      <c r="W40" s="10" t="inlineStr"/>
+      <c r="X40" s="10" t="inlineStr"/>
+      <c r="Y40" s="11" t="inlineStr"/>
+      <c r="Z40" s="10" t="inlineStr"/>
+      <c r="AA40" s="10" t="inlineStr"/>
     </row>
     <row r="41" ht="30" customHeight="1">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="8" t="n"/>
-      <c r="D41" s="8" t="n"/>
-      <c r="E41" s="8" t="n"/>
-      <c r="F41" s="8" t="n"/>
-      <c r="G41" s="8" t="n"/>
-      <c r="H41" s="8" t="n"/>
-      <c r="I41" s="8" t="n"/>
-      <c r="J41" s="9" t="n"/>
-      <c r="K41" s="9" t="n"/>
-      <c r="L41" s="9" t="n"/>
-      <c r="M41" s="8" t="n"/>
-      <c r="N41" s="10" t="n"/>
-      <c r="O41" s="10" t="n"/>
-      <c r="P41" s="10" t="n"/>
-      <c r="Q41" s="8" t="n"/>
-      <c r="R41" s="8" t="n"/>
-      <c r="S41" s="8" t="n"/>
-      <c r="T41" s="8" t="n"/>
-      <c r="U41" s="8" t="n"/>
-      <c r="V41" s="10" t="n"/>
-      <c r="W41" s="10" t="n"/>
-      <c r="X41" s="10" t="n"/>
-      <c r="Y41" s="11" t="n"/>
-      <c r="Z41" s="10" t="n"/>
-      <c r="AA41" s="10" t="n"/>
+      <c r="A41" s="6" t="inlineStr"/>
+      <c r="B41" s="7" t="n">
+        <v>7806</v>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>cOzRbBCQNoyNfGUFHBov</t>
+        </is>
+      </c>
+      <c r="D41" s="8" t="inlineStr"/>
+      <c r="E41" s="8" t="inlineStr"/>
+      <c r="F41" s="8" t="inlineStr"/>
+      <c r="G41" s="8" t="inlineStr"/>
+      <c r="H41" s="8" t="inlineStr"/>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>Balde</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr"/>
+      <c r="K41" s="9" t="inlineStr"/>
+      <c r="L41" s="9" t="inlineStr"/>
+      <c r="M41" s="8" t="inlineStr"/>
+      <c r="N41" s="10" t="inlineStr"/>
+      <c r="O41" s="10" t="inlineStr"/>
+      <c r="P41" s="10" t="inlineStr"/>
+      <c r="Q41" s="8" t="inlineStr"/>
+      <c r="R41" s="8" t="inlineStr"/>
+      <c r="S41" s="8" t="inlineStr"/>
+      <c r="T41" s="8" t="inlineStr"/>
+      <c r="U41" s="8" t="inlineStr"/>
+      <c r="V41" s="10" t="inlineStr"/>
+      <c r="W41" s="10" t="inlineStr"/>
+      <c r="X41" s="10" t="inlineStr"/>
+      <c r="Y41" s="11" t="inlineStr"/>
+      <c r="Z41" s="10" t="inlineStr"/>
+      <c r="AA41" s="10" t="inlineStr"/>
     </row>
     <row r="42" ht="30" customHeight="1">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="7" t="n"/>
-      <c r="C42" s="8" t="n"/>
-      <c r="D42" s="8" t="n"/>
-      <c r="E42" s="8" t="n"/>
-      <c r="F42" s="8" t="n"/>
-      <c r="G42" s="8" t="n"/>
-      <c r="H42" s="8" t="n"/>
-      <c r="I42" s="8" t="n"/>
-      <c r="J42" s="9" t="n"/>
-      <c r="K42" s="9" t="n"/>
-      <c r="L42" s="9" t="n"/>
-      <c r="M42" s="8" t="n"/>
-      <c r="N42" s="10" t="n"/>
-      <c r="O42" s="10" t="n"/>
-      <c r="P42" s="10" t="n"/>
-      <c r="Q42" s="8" t="n"/>
-      <c r="R42" s="8" t="n"/>
-      <c r="S42" s="8" t="n"/>
-      <c r="T42" s="8" t="n"/>
-      <c r="U42" s="8" t="n"/>
-      <c r="V42" s="10" t="n"/>
-      <c r="W42" s="10" t="n"/>
-      <c r="X42" s="10" t="n"/>
-      <c r="Y42" s="11" t="n"/>
-      <c r="Z42" s="10" t="n"/>
-      <c r="AA42" s="10" t="n"/>
+      <c r="A42" s="6" t="inlineStr"/>
+      <c r="B42" s="7" t="n">
+        <v>1517</v>
+      </c>
+      <c r="C42" s="8" t="inlineStr">
+        <is>
+          <t>XHeQhOOjeqNsNnTDIWjD</t>
+        </is>
+      </c>
+      <c r="D42" s="8" t="inlineStr"/>
+      <c r="E42" s="8" t="inlineStr"/>
+      <c r="F42" s="8" t="inlineStr"/>
+      <c r="G42" s="8" t="inlineStr"/>
+      <c r="H42" s="8" t="inlineStr"/>
+      <c r="I42" s="8" t="inlineStr">
+        <is>
+          <t>Bloco</t>
+        </is>
+      </c>
+      <c r="J42" s="9" t="inlineStr"/>
+      <c r="K42" s="9" t="inlineStr"/>
+      <c r="L42" s="9" t="inlineStr"/>
+      <c r="M42" s="8" t="inlineStr"/>
+      <c r="N42" s="10" t="inlineStr"/>
+      <c r="O42" s="10" t="inlineStr"/>
+      <c r="P42" s="10" t="inlineStr"/>
+      <c r="Q42" s="8" t="inlineStr"/>
+      <c r="R42" s="8" t="inlineStr"/>
+      <c r="S42" s="8" t="inlineStr"/>
+      <c r="T42" s="8" t="inlineStr"/>
+      <c r="U42" s="8" t="inlineStr"/>
+      <c r="V42" s="10" t="inlineStr"/>
+      <c r="W42" s="10" t="inlineStr"/>
+      <c r="X42" s="10" t="inlineStr"/>
+      <c r="Y42" s="11" t="inlineStr"/>
+      <c r="Z42" s="10" t="inlineStr"/>
+      <c r="AA42" s="10" t="inlineStr"/>
     </row>
     <row r="43" ht="30" customHeight="1">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="8" t="n"/>
-      <c r="D43" s="8" t="n"/>
-      <c r="E43" s="8" t="n"/>
-      <c r="F43" s="8" t="n"/>
-      <c r="G43" s="8" t="n"/>
-      <c r="H43" s="8" t="n"/>
-      <c r="I43" s="8" t="n"/>
-      <c r="J43" s="9" t="n"/>
-      <c r="K43" s="9" t="n"/>
-      <c r="L43" s="9" t="n"/>
-      <c r="M43" s="8" t="n"/>
-      <c r="N43" s="10" t="n"/>
-      <c r="O43" s="10" t="n"/>
-      <c r="P43" s="10" t="n"/>
-      <c r="Q43" s="8" t="n"/>
-      <c r="R43" s="8" t="n"/>
-      <c r="S43" s="8" t="n"/>
-      <c r="T43" s="8" t="n"/>
-      <c r="U43" s="8" t="n"/>
-      <c r="V43" s="10" t="n"/>
-      <c r="W43" s="10" t="n"/>
-      <c r="X43" s="10" t="n"/>
-      <c r="Y43" s="11" t="n"/>
-      <c r="Z43" s="10" t="n"/>
-      <c r="AA43" s="10" t="n"/>
+      <c r="A43" s="6" t="inlineStr"/>
+      <c r="B43" s="7" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C43" s="8" t="inlineStr">
+        <is>
+          <t>QKBTjhyWDQUbIbJZAxlB</t>
+        </is>
+      </c>
+      <c r="D43" s="8" t="inlineStr"/>
+      <c r="E43" s="8" t="inlineStr"/>
+      <c r="F43" s="8" t="inlineStr"/>
+      <c r="G43" s="8" t="inlineStr"/>
+      <c r="H43" s="8" t="inlineStr"/>
+      <c r="I43" s="8" t="inlineStr">
+        <is>
+          <t>Bobina</t>
+        </is>
+      </c>
+      <c r="J43" s="9" t="inlineStr"/>
+      <c r="K43" s="9" t="inlineStr"/>
+      <c r="L43" s="9" t="inlineStr"/>
+      <c r="M43" s="8" t="inlineStr"/>
+      <c r="N43" s="10" t="inlineStr"/>
+      <c r="O43" s="10" t="inlineStr"/>
+      <c r="P43" s="10" t="inlineStr"/>
+      <c r="Q43" s="8" t="inlineStr"/>
+      <c r="R43" s="8" t="inlineStr"/>
+      <c r="S43" s="8" t="inlineStr"/>
+      <c r="T43" s="8" t="inlineStr"/>
+      <c r="U43" s="8" t="inlineStr"/>
+      <c r="V43" s="10" t="inlineStr"/>
+      <c r="W43" s="10" t="inlineStr"/>
+      <c r="X43" s="10" t="inlineStr"/>
+      <c r="Y43" s="11" t="inlineStr"/>
+      <c r="Z43" s="10" t="inlineStr"/>
+      <c r="AA43" s="10" t="inlineStr"/>
     </row>
     <row r="44" ht="30" customHeight="1">
-      <c r="A44" s="6" t="n"/>
-      <c r="B44" s="7" t="n"/>
-      <c r="C44" s="8" t="n"/>
-      <c r="D44" s="8" t="n"/>
-      <c r="E44" s="8" t="n"/>
-      <c r="F44" s="8" t="n"/>
-      <c r="G44" s="8" t="n"/>
-      <c r="H44" s="8" t="n"/>
-      <c r="I44" s="8" t="n"/>
-      <c r="J44" s="9" t="n"/>
-      <c r="K44" s="9" t="n"/>
-      <c r="L44" s="9" t="n"/>
-      <c r="M44" s="8" t="n"/>
-      <c r="N44" s="10" t="n"/>
-      <c r="O44" s="10" t="n"/>
-      <c r="P44" s="10" t="n"/>
-      <c r="Q44" s="8" t="n"/>
-      <c r="R44" s="8" t="n"/>
-      <c r="S44" s="8" t="n"/>
-      <c r="T44" s="8" t="n"/>
-      <c r="U44" s="8" t="n"/>
-      <c r="V44" s="10" t="n"/>
-      <c r="W44" s="10" t="n"/>
-      <c r="X44" s="10" t="n"/>
-      <c r="Y44" s="11" t="n"/>
-      <c r="Z44" s="10" t="n"/>
-      <c r="AA44" s="10" t="n"/>
+      <c r="A44" s="6" t="inlineStr"/>
+      <c r="B44" s="7" t="n">
+        <v>4769</v>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>XHEWqbCVMSrOfnHYEFiW</t>
+        </is>
+      </c>
+      <c r="D44" s="8" t="inlineStr"/>
+      <c r="E44" s="8" t="inlineStr"/>
+      <c r="F44" s="8" t="inlineStr"/>
+      <c r="G44" s="8" t="inlineStr"/>
+      <c r="H44" s="8" t="inlineStr"/>
+      <c r="I44" s="8" t="inlineStr">
+        <is>
+          <t>Bloco</t>
+        </is>
+      </c>
+      <c r="J44" s="9" t="inlineStr"/>
+      <c r="K44" s="9" t="inlineStr"/>
+      <c r="L44" s="9" t="inlineStr"/>
+      <c r="M44" s="8" t="inlineStr"/>
+      <c r="N44" s="10" t="inlineStr"/>
+      <c r="O44" s="10" t="inlineStr"/>
+      <c r="P44" s="10" t="inlineStr"/>
+      <c r="Q44" s="8" t="inlineStr"/>
+      <c r="R44" s="8" t="inlineStr"/>
+      <c r="S44" s="8" t="inlineStr"/>
+      <c r="T44" s="8" t="inlineStr"/>
+      <c r="U44" s="8" t="inlineStr"/>
+      <c r="V44" s="10" t="inlineStr"/>
+      <c r="W44" s="10" t="inlineStr"/>
+      <c r="X44" s="10" t="inlineStr"/>
+      <c r="Y44" s="11" t="inlineStr"/>
+      <c r="Z44" s="10" t="inlineStr"/>
+      <c r="AA44" s="10" t="inlineStr"/>
     </row>
     <row r="45" ht="30" customHeight="1">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="7" t="n"/>
-      <c r="C45" s="8" t="n"/>
-      <c r="D45" s="8" t="n"/>
-      <c r="E45" s="8" t="n"/>
-      <c r="F45" s="8" t="n"/>
-      <c r="G45" s="8" t="n"/>
-      <c r="H45" s="8" t="n"/>
-      <c r="I45" s="8" t="n"/>
-      <c r="J45" s="9" t="n"/>
-      <c r="K45" s="9" t="n"/>
-      <c r="L45" s="9" t="n"/>
-      <c r="M45" s="8" t="n"/>
-      <c r="N45" s="10" t="n"/>
-      <c r="O45" s="10" t="n"/>
-      <c r="P45" s="10" t="n"/>
-      <c r="Q45" s="8" t="n"/>
-      <c r="R45" s="8" t="n"/>
-      <c r="S45" s="8" t="n"/>
-      <c r="T45" s="8" t="n"/>
-      <c r="U45" s="8" t="n"/>
-      <c r="V45" s="10" t="n"/>
-      <c r="W45" s="10" t="n"/>
-      <c r="X45" s="10" t="n"/>
-      <c r="Y45" s="11" t="n"/>
-      <c r="Z45" s="10" t="n"/>
-      <c r="AA45" s="10" t="n"/>
+      <c r="A45" s="6" t="inlineStr"/>
+      <c r="B45" s="7" t="n">
+        <v>6691</v>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>VhJTbUsZZgaYmxEbjedY</t>
+        </is>
+      </c>
+      <c r="D45" s="8" t="inlineStr"/>
+      <c r="E45" s="8" t="inlineStr"/>
+      <c r="F45" s="8" t="inlineStr"/>
+      <c r="G45" s="8" t="inlineStr"/>
+      <c r="H45" s="8" t="inlineStr"/>
+      <c r="I45" s="8" t="inlineStr">
+        <is>
+          <t>Bobina</t>
+        </is>
+      </c>
+      <c r="J45" s="9" t="inlineStr"/>
+      <c r="K45" s="9" t="inlineStr"/>
+      <c r="L45" s="9" t="inlineStr"/>
+      <c r="M45" s="8" t="inlineStr"/>
+      <c r="N45" s="10" t="inlineStr"/>
+      <c r="O45" s="10" t="inlineStr"/>
+      <c r="P45" s="10" t="inlineStr"/>
+      <c r="Q45" s="8" t="inlineStr"/>
+      <c r="R45" s="8" t="inlineStr"/>
+      <c r="S45" s="8" t="inlineStr"/>
+      <c r="T45" s="8" t="inlineStr"/>
+      <c r="U45" s="8" t="inlineStr"/>
+      <c r="V45" s="10" t="inlineStr"/>
+      <c r="W45" s="10" t="inlineStr"/>
+      <c r="X45" s="10" t="inlineStr"/>
+      <c r="Y45" s="11" t="inlineStr"/>
+      <c r="Z45" s="10" t="inlineStr"/>
+      <c r="AA45" s="10" t="inlineStr"/>
     </row>
     <row r="46" ht="30" customHeight="1">
-      <c r="A46" s="6" t="n"/>
-      <c r="B46" s="7" t="n"/>
-      <c r="C46" s="8" t="n"/>
-      <c r="D46" s="8" t="n"/>
-      <c r="E46" s="8" t="n"/>
-      <c r="F46" s="8" t="n"/>
-      <c r="G46" s="8" t="n"/>
-      <c r="H46" s="8" t="n"/>
-      <c r="I46" s="8" t="n"/>
-      <c r="J46" s="9" t="n"/>
-      <c r="K46" s="9" t="n"/>
-      <c r="L46" s="9" t="n"/>
-      <c r="M46" s="8" t="n"/>
-      <c r="N46" s="10" t="n"/>
-      <c r="O46" s="10" t="n"/>
-      <c r="P46" s="10" t="n"/>
-      <c r="Q46" s="8" t="n"/>
-      <c r="R46" s="8" t="n"/>
-      <c r="S46" s="8" t="n"/>
-      <c r="T46" s="8" t="n"/>
-      <c r="U46" s="8" t="n"/>
-      <c r="V46" s="10" t="n"/>
-      <c r="W46" s="10" t="n"/>
-      <c r="X46" s="10" t="n"/>
-      <c r="Y46" s="11" t="n"/>
-      <c r="Z46" s="10" t="n"/>
-      <c r="AA46" s="10" t="n"/>
+      <c r="A46" s="6" t="inlineStr"/>
+      <c r="B46" s="7" t="n">
+        <v>3807</v>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>TqrONBQWvFPyxTRixjJv</t>
+        </is>
+      </c>
+      <c r="D46" s="8" t="inlineStr"/>
+      <c r="E46" s="8" t="inlineStr"/>
+      <c r="F46" s="8" t="inlineStr"/>
+      <c r="G46" s="8" t="inlineStr"/>
+      <c r="H46" s="8" t="inlineStr"/>
+      <c r="I46" s="8" t="inlineStr">
+        <is>
+          <t>Bobina</t>
+        </is>
+      </c>
+      <c r="J46" s="9" t="inlineStr"/>
+      <c r="K46" s="9" t="inlineStr"/>
+      <c r="L46" s="9" t="inlineStr"/>
+      <c r="M46" s="8" t="inlineStr"/>
+      <c r="N46" s="10" t="inlineStr"/>
+      <c r="O46" s="10" t="inlineStr"/>
+      <c r="P46" s="10" t="inlineStr"/>
+      <c r="Q46" s="8" t="inlineStr"/>
+      <c r="R46" s="8" t="inlineStr"/>
+      <c r="S46" s="8" t="inlineStr"/>
+      <c r="T46" s="8" t="inlineStr"/>
+      <c r="U46" s="8" t="inlineStr"/>
+      <c r="V46" s="10" t="inlineStr"/>
+      <c r="W46" s="10" t="inlineStr"/>
+      <c r="X46" s="10" t="inlineStr"/>
+      <c r="Y46" s="11" t="inlineStr"/>
+      <c r="Z46" s="10" t="inlineStr"/>
+      <c r="AA46" s="10" t="inlineStr"/>
     </row>
     <row r="47" ht="30" customHeight="1">
       <c r="A47" s="6" t="n"/>

--- a/excel/planilhasGerada/importar-produtos.xlsx
+++ b/excel/planilhasGerada/importar-produtos.xlsx
@@ -794,176 +794,450 @@
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="6" t="inlineStr"/>
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B3" s="7" t="n">
-        <v>1944</v>
+        <v>5811</v>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>XdXakGShLpGgIdDcaaJE</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr"/>
-      <c r="E3" s="8" t="inlineStr"/>
-      <c r="F3" s="8" t="inlineStr"/>
-      <c r="G3" s="8" t="inlineStr"/>
-      <c r="H3" s="8" t="inlineStr"/>
+          <t>VYdhMTtZyrShCixoRRct</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>9854061736368</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>61.806</v>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>YUITA</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>82.23</v>
+      </c>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>Ampola</t>
+          <t>Balde</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr"/>
       <c r="K3" s="9" t="inlineStr"/>
-      <c r="L3" s="9" t="inlineStr"/>
-      <c r="M3" s="8" t="inlineStr"/>
-      <c r="N3" s="10" t="inlineStr"/>
-      <c r="O3" s="10" t="inlineStr"/>
-      <c r="P3" s="10" t="inlineStr"/>
-      <c r="Q3" s="8" t="inlineStr"/>
-      <c r="R3" s="8" t="inlineStr"/>
-      <c r="S3" s="8" t="inlineStr"/>
-      <c r="T3" s="8" t="inlineStr"/>
-      <c r="U3" s="8" t="inlineStr"/>
-      <c r="V3" s="10" t="inlineStr"/>
-      <c r="W3" s="10" t="inlineStr"/>
-      <c r="X3" s="10" t="inlineStr"/>
+      <c r="L3" s="9" t="inlineStr">
+        <is>
+          <t>OBQJG</t>
+        </is>
+      </c>
+      <c r="M3" s="8" t="inlineStr">
+        <is>
+          <t>O conforto de avançar de maneira eficaz</t>
+        </is>
+      </c>
+      <c r="N3" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O3" s="10" t="n">
+        <v>5907</v>
+      </c>
+      <c r="P3" s="10" t="n">
+        <v>2543</v>
+      </c>
+      <c r="Q3" s="8" t="inlineStr">
+        <is>
+          <t>8 - Nacional: mercadoria ou bem com Conteúdo de Importação superior a 70%</t>
+        </is>
+      </c>
+      <c r="R3" s="8" t="inlineStr">
+        <is>
+          <t>08 - Ativo Imobilizado</t>
+        </is>
+      </c>
+      <c r="S3" s="8" t="inlineStr">
+        <is>
+          <t>90302010</t>
+        </is>
+      </c>
+      <c r="T3" s="8" t="n">
+        <v>394</v>
+      </c>
+      <c r="U3" s="8" t="inlineStr">
+        <is>
+          <t>A7201320608286683990898215541212</t>
+        </is>
+      </c>
+      <c r="V3" s="10" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="W3" s="10" t="n">
+        <v>53.38</v>
+      </c>
+      <c r="X3" s="10" t="inlineStr">
+        <is>
+          <t>2899900</t>
+        </is>
+      </c>
       <c r="Y3" s="11" t="inlineStr"/>
-      <c r="Z3" s="10" t="inlineStr"/>
+      <c r="Z3" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA3" s="10" t="inlineStr"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="6" t="inlineStr"/>
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B4" s="7" t="n">
-        <v>8967</v>
+        <v>1882</v>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>VycNqOdjYHjxMHXXtjSU</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr"/>
-      <c r="E4" s="8" t="inlineStr"/>
-      <c r="F4" s="8" t="inlineStr"/>
-      <c r="G4" s="8" t="inlineStr"/>
-      <c r="H4" s="8" t="inlineStr"/>
+          <t>dgiLkCAiQlXvUvsKdEfc</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>8324470661168</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>418.721</v>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>BBPHN</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>47.11</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>29.36</v>
+      </c>
       <c r="I4" s="8" t="inlineStr">
         <is>
-          <t>Balde</t>
+          <t>Bobina</t>
         </is>
       </c>
       <c r="J4" s="9" t="inlineStr"/>
       <c r="K4" s="9" t="inlineStr"/>
-      <c r="L4" s="9" t="inlineStr"/>
-      <c r="M4" s="8" t="inlineStr"/>
-      <c r="N4" s="10" t="inlineStr"/>
-      <c r="O4" s="10" t="inlineStr"/>
-      <c r="P4" s="10" t="inlineStr"/>
-      <c r="Q4" s="8" t="inlineStr"/>
-      <c r="R4" s="8" t="inlineStr"/>
-      <c r="S4" s="8" t="inlineStr"/>
-      <c r="T4" s="8" t="inlineStr"/>
-      <c r="U4" s="8" t="inlineStr"/>
-      <c r="V4" s="10" t="inlineStr"/>
-      <c r="W4" s="10" t="inlineStr"/>
-      <c r="X4" s="10" t="inlineStr"/>
+      <c r="L4" s="9" t="inlineStr">
+        <is>
+          <t>OZTNO</t>
+        </is>
+      </c>
+      <c r="M4" s="8" t="inlineStr">
+        <is>
+          <t>O conforto de evoluir naturalmente</t>
+        </is>
+      </c>
+      <c r="N4" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O4" s="10" t="n">
+        <v>8398</v>
+      </c>
+      <c r="P4" s="10" t="n">
+        <v>7060</v>
+      </c>
+      <c r="Q4" s="8" t="inlineStr">
+        <is>
+          <t>2 - Estrangeira: adquirida no mercado interno, exceto a indicada no código 7</t>
+        </is>
+      </c>
+      <c r="R4" s="8" t="inlineStr">
+        <is>
+          <t>10 - Outros Insumos</t>
+        </is>
+      </c>
+      <c r="S4" s="8" t="inlineStr">
+        <is>
+          <t>90302010</t>
+        </is>
+      </c>
+      <c r="T4" s="8" t="n">
+        <v>461</v>
+      </c>
+      <c r="U4" s="8" t="inlineStr">
+        <is>
+          <t>A2464263995024001745300255366730</t>
+        </is>
+      </c>
+      <c r="V4" s="10" t="n">
+        <v>88.28</v>
+      </c>
+      <c r="W4" s="10" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="X4" s="10" t="inlineStr">
+        <is>
+          <t>0400100</t>
+        </is>
+      </c>
       <c r="Y4" s="11" t="inlineStr"/>
-      <c r="Z4" s="10" t="inlineStr"/>
+      <c r="Z4" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA4" s="10" t="inlineStr"/>
     </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="6" t="inlineStr"/>
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B5" s="7" t="n">
-        <v>463</v>
+        <v>4326</v>
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>PxNNenDxWtvLIxJjYKQB</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr"/>
-      <c r="E5" s="8" t="inlineStr"/>
-      <c r="F5" s="8" t="inlineStr"/>
-      <c r="G5" s="8" t="inlineStr"/>
-      <c r="H5" s="8" t="inlineStr"/>
+          <t>eGQDRzJpxppcCdDHwgKU</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>9392265824806</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>422.852</v>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>CZXTZ</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>8.470000000000001</v>
+      </c>
       <c r="I5" s="8" t="inlineStr">
         <is>
-          <t>Balde</t>
+          <t>Barra</t>
         </is>
       </c>
       <c r="J5" s="9" t="inlineStr"/>
       <c r="K5" s="9" t="inlineStr"/>
-      <c r="L5" s="9" t="inlineStr"/>
-      <c r="M5" s="8" t="inlineStr"/>
-      <c r="N5" s="10" t="inlineStr"/>
-      <c r="O5" s="10" t="inlineStr"/>
-      <c r="P5" s="10" t="inlineStr"/>
-      <c r="Q5" s="8" t="inlineStr"/>
-      <c r="R5" s="8" t="inlineStr"/>
-      <c r="S5" s="8" t="inlineStr"/>
-      <c r="T5" s="8" t="inlineStr"/>
-      <c r="U5" s="8" t="inlineStr"/>
-      <c r="V5" s="10" t="inlineStr"/>
-      <c r="W5" s="10" t="inlineStr"/>
-      <c r="X5" s="10" t="inlineStr"/>
+      <c r="L5" s="9" t="inlineStr">
+        <is>
+          <t>IOEFW</t>
+        </is>
+      </c>
+      <c r="M5" s="8" t="inlineStr">
+        <is>
+          <t>A arte de concretizar seus projetos mais rapidamente</t>
+        </is>
+      </c>
+      <c r="N5" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O5" s="10" t="n">
+        <v>6041</v>
+      </c>
+      <c r="P5" s="10" t="n">
+        <v>3330</v>
+      </c>
+      <c r="Q5" s="8" t="inlineStr">
+        <is>
+          <t>8 - Nacional: mercadoria ou bem com Conteúdo de Importação superior a 70%</t>
+        </is>
+      </c>
+      <c r="R5" s="8" t="inlineStr">
+        <is>
+          <t>02 - Embalagens</t>
+        </is>
+      </c>
+      <c r="S5" s="8" t="inlineStr">
+        <is>
+          <t>12116000</t>
+        </is>
+      </c>
+      <c r="T5" s="8" t="n">
+        <v>869</v>
+      </c>
+      <c r="U5" s="8" t="inlineStr">
+        <is>
+          <t>A2590739021107748363864135697804</t>
+        </is>
+      </c>
+      <c r="V5" s="10" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="W5" s="10" t="n">
+        <v>45.51</v>
+      </c>
+      <c r="X5" s="10" t="inlineStr">
+        <is>
+          <t>0200100</t>
+        </is>
+      </c>
       <c r="Y5" s="11" t="inlineStr"/>
-      <c r="Z5" s="10" t="inlineStr"/>
+      <c r="Z5" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA5" s="10" t="inlineStr"/>
     </row>
     <row r="6" ht="30" customHeight="1">
-      <c r="A6" s="6" t="inlineStr"/>
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B6" s="7" t="n">
-        <v>8688</v>
+        <v>2698</v>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>cwEArDGSstoNxEZEVZdP</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr"/>
-      <c r="E6" s="8" t="inlineStr"/>
-      <c r="F6" s="8" t="inlineStr"/>
-      <c r="G6" s="8" t="inlineStr"/>
-      <c r="H6" s="8" t="inlineStr"/>
+          <t>rUZwvhawaUqTvbkoJpVY</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>2239871208705</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>331.732</v>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>ANBPG</t>
+        </is>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>72.33</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>73.33</v>
+      </c>
       <c r="I6" s="8" t="inlineStr">
         <is>
-          <t>Barra</t>
+          <t>Ampola</t>
         </is>
       </c>
       <c r="J6" s="9" t="inlineStr"/>
       <c r="K6" s="9" t="inlineStr"/>
-      <c r="L6" s="9" t="inlineStr"/>
-      <c r="M6" s="8" t="inlineStr"/>
-      <c r="N6" s="10" t="inlineStr"/>
-      <c r="O6" s="10" t="inlineStr"/>
-      <c r="P6" s="10" t="inlineStr"/>
-      <c r="Q6" s="8" t="inlineStr"/>
-      <c r="R6" s="8" t="inlineStr"/>
-      <c r="S6" s="8" t="inlineStr"/>
-      <c r="T6" s="8" t="inlineStr"/>
-      <c r="U6" s="8" t="inlineStr"/>
-      <c r="V6" s="10" t="inlineStr"/>
-      <c r="W6" s="10" t="inlineStr"/>
-      <c r="X6" s="10" t="inlineStr"/>
+      <c r="L6" s="9" t="inlineStr">
+        <is>
+          <t>DTYRT</t>
+        </is>
+      </c>
+      <c r="M6" s="8" t="inlineStr">
+        <is>
+          <t>O prazer de atingir seus objetivos naturalmente</t>
+        </is>
+      </c>
+      <c r="N6" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O6" s="10" t="n">
+        <v>716</v>
+      </c>
+      <c r="P6" s="10" t="n">
+        <v>6298</v>
+      </c>
+      <c r="Q6" s="8" t="inlineStr">
+        <is>
+          <t>2 - Estrangeira: adquirida no mercado interno, exceto a indicada no código 7</t>
+        </is>
+      </c>
+      <c r="R6" s="8" t="inlineStr">
+        <is>
+          <t>01 - Matéria Prima</t>
+        </is>
+      </c>
+      <c r="S6" s="8" t="inlineStr">
+        <is>
+          <t>55094200</t>
+        </is>
+      </c>
+      <c r="T6" s="8" t="n">
+        <v>269</v>
+      </c>
+      <c r="U6" s="8" t="inlineStr">
+        <is>
+          <t>A0545849970383820874226707401530</t>
+        </is>
+      </c>
+      <c r="V6" s="10" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="W6" s="10" t="n">
+        <v>51.18</v>
+      </c>
+      <c r="X6" s="10" t="inlineStr">
+        <is>
+          <t>2899900</t>
+        </is>
+      </c>
       <c r="Y6" s="11" t="inlineStr"/>
-      <c r="Z6" s="10" t="inlineStr"/>
+      <c r="Z6" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA6" s="10" t="inlineStr"/>
     </row>
     <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="6" t="inlineStr"/>
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B7" s="7" t="n">
-        <v>9466</v>
+        <v>7345</v>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>ujKCohOLbbtKrpaDrIzS</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr"/>
-      <c r="E7" s="8" t="inlineStr"/>
-      <c r="F7" s="8" t="inlineStr"/>
-      <c r="G7" s="8" t="inlineStr"/>
-      <c r="H7" s="8" t="inlineStr"/>
+          <t>iGVMvnqpFlYMuEmDCMYL</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>3758296239556</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>442.468</v>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>QZBON</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>82.56999999999999</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>74.56999999999999</v>
+      </c>
       <c r="I7" s="8" t="inlineStr">
         <is>
           <t>Ampola</t>
@@ -971,77 +1245,205 @@
       </c>
       <c r="J7" s="9" t="inlineStr"/>
       <c r="K7" s="9" t="inlineStr"/>
-      <c r="L7" s="9" t="inlineStr"/>
-      <c r="M7" s="8" t="inlineStr"/>
-      <c r="N7" s="10" t="inlineStr"/>
-      <c r="O7" s="10" t="inlineStr"/>
-      <c r="P7" s="10" t="inlineStr"/>
-      <c r="Q7" s="8" t="inlineStr"/>
-      <c r="R7" s="8" t="inlineStr"/>
-      <c r="S7" s="8" t="inlineStr"/>
-      <c r="T7" s="8" t="inlineStr"/>
-      <c r="U7" s="8" t="inlineStr"/>
-      <c r="V7" s="10" t="inlineStr"/>
-      <c r="W7" s="10" t="inlineStr"/>
-      <c r="X7" s="10" t="inlineStr"/>
+      <c r="L7" s="9" t="inlineStr">
+        <is>
+          <t>AAWPY</t>
+        </is>
+      </c>
+      <c r="M7" s="8" t="inlineStr">
+        <is>
+          <t>A simplicidade de realizar seus sonhos mais facilmente</t>
+        </is>
+      </c>
+      <c r="N7" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O7" s="10" t="n">
+        <v>1136</v>
+      </c>
+      <c r="P7" s="10" t="n">
+        <v>9873</v>
+      </c>
+      <c r="Q7" s="8" t="inlineStr">
+        <is>
+          <t>8 - Nacional: mercadoria ou bem com Conteúdo de Importação superior a 70%</t>
+        </is>
+      </c>
+      <c r="R7" s="8" t="inlineStr">
+        <is>
+          <t>05 - Subproduto</t>
+        </is>
+      </c>
+      <c r="S7" s="8" t="inlineStr">
+        <is>
+          <t>90302010</t>
+        </is>
+      </c>
+      <c r="T7" s="8" t="n">
+        <v>698</v>
+      </c>
+      <c r="U7" s="8" t="inlineStr">
+        <is>
+          <t>A9532591396155401292127114677465</t>
+        </is>
+      </c>
+      <c r="V7" s="10" t="n">
+        <v>64.67</v>
+      </c>
+      <c r="W7" s="10" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="X7" s="10" t="inlineStr">
+        <is>
+          <t>0200100</t>
+        </is>
+      </c>
       <c r="Y7" s="11" t="inlineStr"/>
-      <c r="Z7" s="10" t="inlineStr"/>
+      <c r="Z7" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA7" s="10" t="inlineStr"/>
     </row>
     <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="6" t="inlineStr"/>
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B8" s="7" t="n">
-        <v>1471</v>
+        <v>880</v>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>CbGUznhDKoiZboeKdKbb</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr"/>
+          <t>PlwKOstbiSNHfOjpuSPz</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>9945489336169</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>890.659</v>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>NEPPA</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>97.66</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>14.21</v>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>Bloco</t>
+          <t>Balde</t>
         </is>
       </c>
       <c r="J8" s="9" t="inlineStr"/>
       <c r="K8" s="9" t="inlineStr"/>
-      <c r="L8" s="9" t="inlineStr"/>
-      <c r="M8" s="8" t="inlineStr"/>
-      <c r="N8" s="10" t="inlineStr"/>
-      <c r="O8" s="10" t="inlineStr"/>
-      <c r="P8" s="10" t="inlineStr"/>
-      <c r="Q8" s="8" t="inlineStr"/>
-      <c r="R8" s="8" t="inlineStr"/>
-      <c r="S8" s="8" t="inlineStr"/>
-      <c r="T8" s="8" t="inlineStr"/>
-      <c r="U8" s="8" t="inlineStr"/>
-      <c r="V8" s="10" t="inlineStr"/>
-      <c r="W8" s="10" t="inlineStr"/>
-      <c r="X8" s="10" t="inlineStr"/>
+      <c r="L8" s="9" t="inlineStr">
+        <is>
+          <t>GNTYV</t>
+        </is>
+      </c>
+      <c r="M8" s="8" t="inlineStr">
+        <is>
+          <t>A possibilidade de concretizar seus projetos naturalmente</t>
+        </is>
+      </c>
+      <c r="N8" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O8" s="10" t="n">
+        <v>7481</v>
+      </c>
+      <c r="P8" s="10" t="n">
+        <v>3729</v>
+      </c>
+      <c r="Q8" s="8" t="inlineStr">
+        <is>
+          <t>0 - Nacional: exceto as indicadas nos códigos 3, 4, 5 e 8</t>
+        </is>
+      </c>
+      <c r="R8" s="8" t="inlineStr">
+        <is>
+          <t>03 - Produto em Processo</t>
+        </is>
+      </c>
+      <c r="S8" s="8" t="inlineStr">
+        <is>
+          <t>55094200</t>
+        </is>
+      </c>
+      <c r="T8" s="8" t="n">
+        <v>497</v>
+      </c>
+      <c r="U8" s="8" t="inlineStr">
+        <is>
+          <t>A8753336671791522572107566438772</t>
+        </is>
+      </c>
+      <c r="V8" s="10" t="n">
+        <v>89.45</v>
+      </c>
+      <c r="W8" s="10" t="n">
+        <v>72.34999999999999</v>
+      </c>
+      <c r="X8" s="10" t="inlineStr">
+        <is>
+          <t>0300100</t>
+        </is>
+      </c>
       <c r="Y8" s="11" t="inlineStr"/>
-      <c r="Z8" s="10" t="inlineStr"/>
+      <c r="Z8" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA8" s="10" t="inlineStr"/>
     </row>
     <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="6" t="inlineStr"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="n">
-        <v>5668</v>
+        <v>8052</v>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>FVJnEjpBfGzRIwROWQqj</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+          <t>LpAwLaLcDTAeJbaUrDKc</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>6933600238167</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>895.673</v>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>ILICK</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>74.76000000000001</v>
+      </c>
       <c r="I9" s="8" t="inlineStr">
         <is>
           <t>Ampola</t>
@@ -1049,77 +1451,205 @@
       </c>
       <c r="J9" s="9" t="inlineStr"/>
       <c r="K9" s="9" t="inlineStr"/>
-      <c r="L9" s="9" t="inlineStr"/>
-      <c r="M9" s="8" t="inlineStr"/>
-      <c r="N9" s="10" t="inlineStr"/>
-      <c r="O9" s="10" t="inlineStr"/>
-      <c r="P9" s="10" t="inlineStr"/>
-      <c r="Q9" s="8" t="inlineStr"/>
-      <c r="R9" s="8" t="inlineStr"/>
-      <c r="S9" s="8" t="inlineStr"/>
-      <c r="T9" s="8" t="inlineStr"/>
-      <c r="U9" s="8" t="inlineStr"/>
-      <c r="V9" s="10" t="inlineStr"/>
-      <c r="W9" s="10" t="inlineStr"/>
-      <c r="X9" s="10" t="inlineStr"/>
+      <c r="L9" s="9" t="inlineStr">
+        <is>
+          <t>VZNRR</t>
+        </is>
+      </c>
+      <c r="M9" s="8" t="inlineStr">
+        <is>
+          <t>O poder de mudar de maneira eficaz</t>
+        </is>
+      </c>
+      <c r="N9" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O9" s="10" t="n">
+        <v>8041</v>
+      </c>
+      <c r="P9" s="10" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="8" t="inlineStr">
+        <is>
+          <t>6 - Estrangeira: importação direta, sem similar nacional, constante em lista da CAMEX</t>
+        </is>
+      </c>
+      <c r="R9" s="8" t="inlineStr">
+        <is>
+          <t>01 - Matéria Prima</t>
+        </is>
+      </c>
+      <c r="S9" s="8" t="inlineStr">
+        <is>
+          <t>01012100</t>
+        </is>
+      </c>
+      <c r="T9" s="8" t="n">
+        <v>260</v>
+      </c>
+      <c r="U9" s="8" t="inlineStr">
+        <is>
+          <t>A6772295152162402804030660942944</t>
+        </is>
+      </c>
+      <c r="V9" s="10" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="W9" s="10" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="X9" s="10" t="inlineStr">
+        <is>
+          <t>0100100</t>
+        </is>
+      </c>
       <c r="Y9" s="11" t="inlineStr"/>
-      <c r="Z9" s="10" t="inlineStr"/>
+      <c r="Z9" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA9" s="10" t="inlineStr"/>
     </row>
     <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="6" t="inlineStr"/>
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="n">
-        <v>3773</v>
+        <v>9331</v>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>xttKxxCczUzSIsxGsvCg</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
+          <t>BCTnvIWmuozEDElwOJaU</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>6668915996043</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>897.966</v>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>CTYBI</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>3.47</v>
+      </c>
       <c r="I10" s="8" t="inlineStr">
         <is>
-          <t>Ampola</t>
+          <t>Bloco</t>
         </is>
       </c>
       <c r="J10" s="9" t="inlineStr"/>
       <c r="K10" s="9" t="inlineStr"/>
-      <c r="L10" s="9" t="inlineStr"/>
-      <c r="M10" s="8" t="inlineStr"/>
-      <c r="N10" s="10" t="inlineStr"/>
-      <c r="O10" s="10" t="inlineStr"/>
-      <c r="P10" s="10" t="inlineStr"/>
-      <c r="Q10" s="8" t="inlineStr"/>
-      <c r="R10" s="8" t="inlineStr"/>
-      <c r="S10" s="8" t="inlineStr"/>
-      <c r="T10" s="8" t="inlineStr"/>
-      <c r="U10" s="8" t="inlineStr"/>
-      <c r="V10" s="10" t="inlineStr"/>
-      <c r="W10" s="10" t="inlineStr"/>
-      <c r="X10" s="10" t="inlineStr"/>
+      <c r="L10" s="9" t="inlineStr">
+        <is>
+          <t>RVGOL</t>
+        </is>
+      </c>
+      <c r="M10" s="8" t="inlineStr">
+        <is>
+          <t>A liberdade de evoluir direto da fonte</t>
+        </is>
+      </c>
+      <c r="N10" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O10" s="10" t="n">
+        <v>6044</v>
+      </c>
+      <c r="P10" s="10" t="n">
+        <v>1174</v>
+      </c>
+      <c r="Q10" s="8" t="inlineStr">
+        <is>
+          <t>0 - Nacional: exceto as indicadas nos códigos 3, 4, 5 e 8</t>
+        </is>
+      </c>
+      <c r="R10" s="8" t="inlineStr">
+        <is>
+          <t>04 - Produto Acabado</t>
+        </is>
+      </c>
+      <c r="S10" s="8" t="inlineStr">
+        <is>
+          <t>90302010</t>
+        </is>
+      </c>
+      <c r="T10" s="8" t="n">
+        <v>374</v>
+      </c>
+      <c r="U10" s="8" t="inlineStr">
+        <is>
+          <t>A6711681289688407210178604486366</t>
+        </is>
+      </c>
+      <c r="V10" s="10" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="W10" s="10" t="n">
+        <v>75.58</v>
+      </c>
+      <c r="X10" s="10" t="inlineStr">
+        <is>
+          <t>0100100</t>
+        </is>
+      </c>
       <c r="Y10" s="11" t="inlineStr"/>
-      <c r="Z10" s="10" t="inlineStr"/>
+      <c r="Z10" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA10" s="10" t="inlineStr"/>
     </row>
     <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="6" t="inlineStr"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="n">
-        <v>2071</v>
+        <v>449</v>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>YtCwPCGpuCdcpWiCzJGg</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
+          <t>PssWKIsGvkVvZBQLafTJ</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>5053941075052</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>704.914</v>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>ZRCOU</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>84.15000000000001</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>98.61</v>
+      </c>
       <c r="I11" s="8" t="inlineStr">
         <is>
           <t>Bobina</t>
@@ -1127,389 +1657,1029 @@
       </c>
       <c r="J11" s="9" t="inlineStr"/>
       <c r="K11" s="9" t="inlineStr"/>
-      <c r="L11" s="9" t="inlineStr"/>
-      <c r="M11" s="8" t="inlineStr"/>
-      <c r="N11" s="10" t="inlineStr"/>
-      <c r="O11" s="10" t="inlineStr"/>
-      <c r="P11" s="10" t="inlineStr"/>
-      <c r="Q11" s="8" t="inlineStr"/>
-      <c r="R11" s="8" t="inlineStr"/>
-      <c r="S11" s="8" t="inlineStr"/>
-      <c r="T11" s="8" t="inlineStr"/>
-      <c r="U11" s="8" t="inlineStr"/>
-      <c r="V11" s="10" t="inlineStr"/>
-      <c r="W11" s="10" t="inlineStr"/>
-      <c r="X11" s="10" t="inlineStr"/>
+      <c r="L11" s="9" t="inlineStr">
+        <is>
+          <t>AEPVI</t>
+        </is>
+      </c>
+      <c r="M11" s="8" t="inlineStr">
+        <is>
+          <t>O direito de concretizar seus projetos mais rapidamente</t>
+        </is>
+      </c>
+      <c r="N11" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O11" s="10" t="n">
+        <v>8879</v>
+      </c>
+      <c r="P11" s="10" t="n">
+        <v>8208</v>
+      </c>
+      <c r="Q11" s="8" t="inlineStr">
+        <is>
+          <t>8 - Nacional: mercadoria ou bem com Conteúdo de Importação superior a 70%</t>
+        </is>
+      </c>
+      <c r="R11" s="8" t="inlineStr">
+        <is>
+          <t>99 - Outros</t>
+        </is>
+      </c>
+      <c r="S11" s="8" t="inlineStr">
+        <is>
+          <t>12116000</t>
+        </is>
+      </c>
+      <c r="T11" s="8" t="n">
+        <v>891</v>
+      </c>
+      <c r="U11" s="8" t="inlineStr">
+        <is>
+          <t>A9901300430788477769016786348667</t>
+        </is>
+      </c>
+      <c r="V11" s="10" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="W11" s="10" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="X11" s="10" t="inlineStr">
+        <is>
+          <t>2899900</t>
+        </is>
+      </c>
       <c r="Y11" s="11" t="inlineStr"/>
-      <c r="Z11" s="10" t="inlineStr"/>
+      <c r="Z11" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA11" s="10" t="inlineStr"/>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="6" t="inlineStr"/>
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="n">
-        <v>5891</v>
+        <v>7492</v>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>OaWekZGPhVCQdLQXczcI</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
+          <t>xDANOOmyuxvkBIGFFVnl</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>5135701210283</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>850.093</v>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>SSZSK</t>
+        </is>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>70.54000000000001</v>
+      </c>
       <c r="I12" s="8" t="inlineStr">
         <is>
-          <t>Barra</t>
+          <t>Ampola</t>
         </is>
       </c>
       <c r="J12" s="9" t="inlineStr"/>
       <c r="K12" s="9" t="inlineStr"/>
-      <c r="L12" s="9" t="inlineStr"/>
-      <c r="M12" s="8" t="inlineStr"/>
-      <c r="N12" s="10" t="inlineStr"/>
-      <c r="O12" s="10" t="inlineStr"/>
-      <c r="P12" s="10" t="inlineStr"/>
-      <c r="Q12" s="8" t="inlineStr"/>
-      <c r="R12" s="8" t="inlineStr"/>
-      <c r="S12" s="8" t="inlineStr"/>
-      <c r="T12" s="8" t="inlineStr"/>
-      <c r="U12" s="8" t="inlineStr"/>
-      <c r="V12" s="10" t="inlineStr"/>
-      <c r="W12" s="10" t="inlineStr"/>
-      <c r="X12" s="10" t="inlineStr"/>
+      <c r="L12" s="9" t="inlineStr">
+        <is>
+          <t>XSAPZ</t>
+        </is>
+      </c>
+      <c r="M12" s="8" t="inlineStr">
+        <is>
+          <t>A vantagem de mudar direto da fonte</t>
+        </is>
+      </c>
+      <c r="N12" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O12" s="10" t="n">
+        <v>6378</v>
+      </c>
+      <c r="P12" s="10" t="n">
+        <v>3753</v>
+      </c>
+      <c r="Q12" s="8" t="inlineStr">
+        <is>
+          <t>1 - Estrangeira: importação direta, exceto a indicada no código 6</t>
+        </is>
+      </c>
+      <c r="R12" s="8" t="inlineStr">
+        <is>
+          <t>00 - Mercadoria para Revenda</t>
+        </is>
+      </c>
+      <c r="S12" s="8" t="inlineStr">
+        <is>
+          <t>02011000</t>
+        </is>
+      </c>
+      <c r="T12" s="8" t="n">
+        <v>388</v>
+      </c>
+      <c r="U12" s="8" t="inlineStr">
+        <is>
+          <t>A9570928422541454603726837465725</t>
+        </is>
+      </c>
+      <c r="V12" s="10" t="n">
+        <v>57.77</v>
+      </c>
+      <c r="W12" s="10" t="n">
+        <v>52.85</v>
+      </c>
+      <c r="X12" s="10" t="inlineStr">
+        <is>
+          <t>0300100</t>
+        </is>
+      </c>
       <c r="Y12" s="11" t="inlineStr"/>
-      <c r="Z12" s="10" t="inlineStr"/>
+      <c r="Z12" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA12" s="10" t="inlineStr"/>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="6" t="inlineStr"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="n">
-        <v>4404</v>
+        <v>3137</v>
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>jqdUgocRgqsEUCukALPL</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+          <t>mCPzvoMghOPBBPSGBxxU</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>3375291540564</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>855.8150000000001</v>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>VLSHL</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>31.59</v>
+      </c>
       <c r="I13" s="8" t="inlineStr">
         <is>
-          <t>Balde</t>
+          <t>Barra</t>
         </is>
       </c>
       <c r="J13" s="9" t="inlineStr"/>
       <c r="K13" s="9" t="inlineStr"/>
-      <c r="L13" s="9" t="inlineStr"/>
-      <c r="M13" s="8" t="inlineStr"/>
-      <c r="N13" s="10" t="inlineStr"/>
-      <c r="O13" s="10" t="inlineStr"/>
-      <c r="P13" s="10" t="inlineStr"/>
-      <c r="Q13" s="8" t="inlineStr"/>
-      <c r="R13" s="8" t="inlineStr"/>
-      <c r="S13" s="8" t="inlineStr"/>
-      <c r="T13" s="8" t="inlineStr"/>
-      <c r="U13" s="8" t="inlineStr"/>
-      <c r="V13" s="10" t="inlineStr"/>
-      <c r="W13" s="10" t="inlineStr"/>
-      <c r="X13" s="10" t="inlineStr"/>
+      <c r="L13" s="9" t="inlineStr">
+        <is>
+          <t>XPDLQ</t>
+        </is>
+      </c>
+      <c r="M13" s="8" t="inlineStr">
+        <is>
+          <t>O prazer de evoluir mais facilmente</t>
+        </is>
+      </c>
+      <c r="N13" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O13" s="10" t="n">
+        <v>410</v>
+      </c>
+      <c r="P13" s="10" t="n">
+        <v>376</v>
+      </c>
+      <c r="Q13" s="8" t="inlineStr">
+        <is>
+          <t>5 - Nacional: mercadoria ou bem com Conteúdo de Importação inferior ou igual a 40%</t>
+        </is>
+      </c>
+      <c r="R13" s="8" t="inlineStr">
+        <is>
+          <t>08 - Ativo Imobilizado</t>
+        </is>
+      </c>
+      <c r="S13" s="8" t="inlineStr">
+        <is>
+          <t>01012100</t>
+        </is>
+      </c>
+      <c r="T13" s="8" t="n">
+        <v>501</v>
+      </c>
+      <c r="U13" s="8" t="inlineStr">
+        <is>
+          <t>A6700706309582895638937251463794</t>
+        </is>
+      </c>
+      <c r="V13" s="10" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="W13" s="10" t="n">
+        <v>57.45</v>
+      </c>
+      <c r="X13" s="10" t="inlineStr">
+        <is>
+          <t>0300100</t>
+        </is>
+      </c>
       <c r="Y13" s="11" t="inlineStr"/>
-      <c r="Z13" s="10" t="inlineStr"/>
+      <c r="Z13" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA13" s="10" t="inlineStr"/>
     </row>
     <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="6" t="inlineStr"/>
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="n">
-        <v>9684</v>
+        <v>2338</v>
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>yWaKNtnyfhNeDXwqNyyj</t>
-        </is>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
+          <t>IsofmgbXGRHRyJDAPuKm</t>
+        </is>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>2399905647105</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>562.285</v>
+      </c>
+      <c r="F14" s="8" t="inlineStr">
+        <is>
+          <t>JCRJE</t>
+        </is>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>96.20999999999999</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v>12.99</v>
+      </c>
       <c r="I14" s="8" t="inlineStr">
         <is>
-          <t>Barra</t>
+          <t>Bloco</t>
         </is>
       </c>
       <c r="J14" s="9" t="inlineStr"/>
       <c r="K14" s="9" t="inlineStr"/>
-      <c r="L14" s="9" t="inlineStr"/>
-      <c r="M14" s="8" t="inlineStr"/>
-      <c r="N14" s="10" t="inlineStr"/>
-      <c r="O14" s="10" t="inlineStr"/>
-      <c r="P14" s="10" t="inlineStr"/>
-      <c r="Q14" s="8" t="inlineStr"/>
-      <c r="R14" s="8" t="inlineStr"/>
-      <c r="S14" s="8" t="inlineStr"/>
-      <c r="T14" s="8" t="inlineStr"/>
-      <c r="U14" s="8" t="inlineStr"/>
-      <c r="V14" s="10" t="inlineStr"/>
-      <c r="W14" s="10" t="inlineStr"/>
-      <c r="X14" s="10" t="inlineStr"/>
+      <c r="L14" s="9" t="inlineStr">
+        <is>
+          <t>GNEWB</t>
+        </is>
+      </c>
+      <c r="M14" s="8" t="inlineStr">
+        <is>
+          <t>A simplicidade de evoluir com toda a tranquilidade</t>
+        </is>
+      </c>
+      <c r="N14" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O14" s="10" t="n">
+        <v>638</v>
+      </c>
+      <c r="P14" s="10" t="n">
+        <v>3831</v>
+      </c>
+      <c r="Q14" s="8" t="inlineStr">
+        <is>
+          <t>0 - Nacional: exceto as indicadas nos códigos 3, 4, 5 e 8</t>
+        </is>
+      </c>
+      <c r="R14" s="8" t="inlineStr">
+        <is>
+          <t>07 - Material de uso e consumo</t>
+        </is>
+      </c>
+      <c r="S14" s="8" t="inlineStr">
+        <is>
+          <t>12116000</t>
+        </is>
+      </c>
+      <c r="T14" s="8" t="n">
+        <v>781</v>
+      </c>
+      <c r="U14" s="8" t="inlineStr">
+        <is>
+          <t>A8067100384149675293018190033780</t>
+        </is>
+      </c>
+      <c r="V14" s="10" t="n">
+        <v>51.07</v>
+      </c>
+      <c r="W14" s="10" t="n">
+        <v>68.22</v>
+      </c>
+      <c r="X14" s="10" t="inlineStr">
+        <is>
+          <t>0100100</t>
+        </is>
+      </c>
       <c r="Y14" s="11" t="inlineStr"/>
-      <c r="Z14" s="10" t="inlineStr"/>
+      <c r="Z14" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA14" s="10" t="inlineStr"/>
     </row>
     <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="6" t="inlineStr"/>
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B15" s="7" t="n">
-        <v>9227</v>
+        <v>6666</v>
       </c>
       <c r="C15" s="8" t="inlineStr">
         <is>
-          <t>GfSLQZdoKmpNsfEjAixU</t>
-        </is>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
+          <t>MskdQFOOLrzNgyDkqIoq</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>4861949674563</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>106.244</v>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>PISRX</t>
+        </is>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>40.88</v>
+      </c>
       <c r="I15" s="8" t="inlineStr">
         <is>
-          <t>Bobina</t>
+          <t>Barra</t>
         </is>
       </c>
       <c r="J15" s="9" t="inlineStr"/>
       <c r="K15" s="9" t="inlineStr"/>
-      <c r="L15" s="9" t="inlineStr"/>
-      <c r="M15" s="8" t="inlineStr"/>
-      <c r="N15" s="10" t="inlineStr"/>
-      <c r="O15" s="10" t="inlineStr"/>
-      <c r="P15" s="10" t="inlineStr"/>
-      <c r="Q15" s="8" t="inlineStr"/>
-      <c r="R15" s="8" t="inlineStr"/>
-      <c r="S15" s="8" t="inlineStr"/>
-      <c r="T15" s="8" t="inlineStr"/>
-      <c r="U15" s="8" t="inlineStr"/>
-      <c r="V15" s="10" t="inlineStr"/>
-      <c r="W15" s="10" t="inlineStr"/>
-      <c r="X15" s="10" t="inlineStr"/>
+      <c r="L15" s="9" t="inlineStr">
+        <is>
+          <t>PNLCT</t>
+        </is>
+      </c>
+      <c r="M15" s="8" t="inlineStr">
+        <is>
+          <t>O direito de ganhar com toda a tranquilidade</t>
+        </is>
+      </c>
+      <c r="N15" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O15" s="10" t="n">
+        <v>4632</v>
+      </c>
+      <c r="P15" s="10" t="n">
+        <v>8567</v>
+      </c>
+      <c r="Q15" s="8" t="inlineStr">
+        <is>
+          <t>7 - Estrangeira: adquirida no mercado interno, sem similar nacional, constante em lista da CAMEX</t>
+        </is>
+      </c>
+      <c r="R15" s="8" t="inlineStr">
+        <is>
+          <t>07 - Material de uso e consumo</t>
+        </is>
+      </c>
+      <c r="S15" s="8" t="inlineStr">
+        <is>
+          <t>55094200</t>
+        </is>
+      </c>
+      <c r="T15" s="8" t="n">
+        <v>759</v>
+      </c>
+      <c r="U15" s="8" t="inlineStr">
+        <is>
+          <t>A1528524989035247603409135292834</t>
+        </is>
+      </c>
+      <c r="V15" s="10" t="n">
+        <v>69.77</v>
+      </c>
+      <c r="W15" s="10" t="n">
+        <v>36.98</v>
+      </c>
+      <c r="X15" s="10" t="inlineStr">
+        <is>
+          <t>0200100</t>
+        </is>
+      </c>
       <c r="Y15" s="11" t="inlineStr"/>
-      <c r="Z15" s="10" t="inlineStr"/>
+      <c r="Z15" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA15" s="10" t="inlineStr"/>
     </row>
     <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="6" t="inlineStr"/>
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B16" s="7" t="n">
-        <v>9844</v>
+        <v>4875</v>
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>PCFHWihjEgzriOSzQfUq</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
+          <t>LTnQDtbkQFSeOzCvcQvQ</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>7423257912361</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>41.635</v>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>AVHTE</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>98.88</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>95.90000000000001</v>
+      </c>
       <c r="I16" s="8" t="inlineStr">
         <is>
-          <t>Barra</t>
+          <t>Ampola</t>
         </is>
       </c>
       <c r="J16" s="9" t="inlineStr"/>
       <c r="K16" s="9" t="inlineStr"/>
-      <c r="L16" s="9" t="inlineStr"/>
-      <c r="M16" s="8" t="inlineStr"/>
-      <c r="N16" s="10" t="inlineStr"/>
-      <c r="O16" s="10" t="inlineStr"/>
-      <c r="P16" s="10" t="inlineStr"/>
-      <c r="Q16" s="8" t="inlineStr"/>
-      <c r="R16" s="8" t="inlineStr"/>
-      <c r="S16" s="8" t="inlineStr"/>
-      <c r="T16" s="8" t="inlineStr"/>
-      <c r="U16" s="8" t="inlineStr"/>
-      <c r="V16" s="10" t="inlineStr"/>
-      <c r="W16" s="10" t="inlineStr"/>
-      <c r="X16" s="10" t="inlineStr"/>
+      <c r="L16" s="9" t="inlineStr">
+        <is>
+          <t>XVRYD</t>
+        </is>
+      </c>
+      <c r="M16" s="8" t="inlineStr">
+        <is>
+          <t>A segurança de conseguir direto da fonte</t>
+        </is>
+      </c>
+      <c r="N16" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O16" s="10" t="n">
+        <v>3832</v>
+      </c>
+      <c r="P16" s="10" t="n">
+        <v>6529</v>
+      </c>
+      <c r="Q16" s="8" t="inlineStr">
+        <is>
+          <t>3 - Nacional: mercadoria ou bem com Conteúdo de Importação superior a 40% e inferior ou igual a 70%</t>
+        </is>
+      </c>
+      <c r="R16" s="8" t="inlineStr">
+        <is>
+          <t>01 - Matéria Prima</t>
+        </is>
+      </c>
+      <c r="S16" s="8" t="inlineStr">
+        <is>
+          <t>90302010</t>
+        </is>
+      </c>
+      <c r="T16" s="8" t="n">
+        <v>981</v>
+      </c>
+      <c r="U16" s="8" t="inlineStr">
+        <is>
+          <t>A0539915373750409282149666834169</t>
+        </is>
+      </c>
+      <c r="V16" s="10" t="n">
+        <v>59.64</v>
+      </c>
+      <c r="W16" s="10" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="X16" s="10" t="inlineStr">
+        <is>
+          <t>0100100</t>
+        </is>
+      </c>
       <c r="Y16" s="11" t="inlineStr"/>
-      <c r="Z16" s="10" t="inlineStr"/>
+      <c r="Z16" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA16" s="10" t="inlineStr"/>
     </row>
     <row r="17" ht="30" customHeight="1">
-      <c r="A17" s="6" t="inlineStr"/>
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B17" s="7" t="n">
-        <v>6606</v>
+        <v>8595</v>
       </c>
       <c r="C17" s="8" t="inlineStr">
         <is>
-          <t>CKhaYchIFcpBGaXRWHfE</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
+          <t>ApvOczAejYiWruuidCVO</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>4848664129233</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>241.749</v>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>DUTZE</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>63.05</v>
+      </c>
+      <c r="H17" s="8" t="n">
+        <v>79.95999999999999</v>
+      </c>
       <c r="I17" s="8" t="inlineStr">
         <is>
-          <t>Barra</t>
+          <t>Ampola</t>
         </is>
       </c>
       <c r="J17" s="9" t="inlineStr"/>
       <c r="K17" s="9" t="inlineStr"/>
-      <c r="L17" s="9" t="inlineStr"/>
-      <c r="M17" s="8" t="inlineStr"/>
-      <c r="N17" s="10" t="inlineStr"/>
-      <c r="O17" s="10" t="inlineStr"/>
-      <c r="P17" s="10" t="inlineStr"/>
-      <c r="Q17" s="8" t="inlineStr"/>
-      <c r="R17" s="8" t="inlineStr"/>
-      <c r="S17" s="8" t="inlineStr"/>
-      <c r="T17" s="8" t="inlineStr"/>
-      <c r="U17" s="8" t="inlineStr"/>
-      <c r="V17" s="10" t="inlineStr"/>
-      <c r="W17" s="10" t="inlineStr"/>
-      <c r="X17" s="10" t="inlineStr"/>
+      <c r="L17" s="9" t="inlineStr">
+        <is>
+          <t>EOBJX</t>
+        </is>
+      </c>
+      <c r="M17" s="8" t="inlineStr">
+        <is>
+          <t>O conforto de atingir seus objetivos antes de tudo</t>
+        </is>
+      </c>
+      <c r="N17" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O17" s="10" t="n">
+        <v>8469</v>
+      </c>
+      <c r="P17" s="10" t="n">
+        <v>9116</v>
+      </c>
+      <c r="Q17" s="8" t="inlineStr">
+        <is>
+          <t>7 - Estrangeira: adquirida no mercado interno, sem similar nacional, constante em lista da CAMEX</t>
+        </is>
+      </c>
+      <c r="R17" s="8" t="inlineStr">
+        <is>
+          <t>01 - Matéria Prima</t>
+        </is>
+      </c>
+      <c r="S17" s="8" t="inlineStr">
+        <is>
+          <t>12116000</t>
+        </is>
+      </c>
+      <c r="T17" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="U17" s="8" t="inlineStr">
+        <is>
+          <t>A3299578364159220221155598273815</t>
+        </is>
+      </c>
+      <c r="V17" s="10" t="n">
+        <v>84.67</v>
+      </c>
+      <c r="W17" s="10" t="n">
+        <v>71.48999999999999</v>
+      </c>
+      <c r="X17" s="10" t="inlineStr">
+        <is>
+          <t>0100100</t>
+        </is>
+      </c>
       <c r="Y17" s="11" t="inlineStr"/>
-      <c r="Z17" s="10" t="inlineStr"/>
+      <c r="Z17" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA17" s="10" t="inlineStr"/>
     </row>
     <row r="18" ht="30" customHeight="1">
-      <c r="A18" s="6" t="inlineStr"/>
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="n">
-        <v>5298</v>
+        <v>1537</v>
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>NcwMkPIOLQJPtoIriIiZ</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr"/>
+          <t>ByRIyPhMznBTEzLEfzux</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>8685237046155</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>970.401</v>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>DVYEA</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>30.81</v>
+      </c>
+      <c r="H18" s="8" t="n">
+        <v>62.96</v>
+      </c>
       <c r="I18" s="8" t="inlineStr">
         <is>
-          <t>Balde</t>
+          <t>Bobina</t>
         </is>
       </c>
       <c r="J18" s="9" t="inlineStr"/>
       <c r="K18" s="9" t="inlineStr"/>
-      <c r="L18" s="9" t="inlineStr"/>
-      <c r="M18" s="8" t="inlineStr"/>
-      <c r="N18" s="10" t="inlineStr"/>
-      <c r="O18" s="10" t="inlineStr"/>
-      <c r="P18" s="10" t="inlineStr"/>
-      <c r="Q18" s="8" t="inlineStr"/>
-      <c r="R18" s="8" t="inlineStr"/>
-      <c r="S18" s="8" t="inlineStr"/>
-      <c r="T18" s="8" t="inlineStr"/>
-      <c r="U18" s="8" t="inlineStr"/>
-      <c r="V18" s="10" t="inlineStr"/>
-      <c r="W18" s="10" t="inlineStr"/>
-      <c r="X18" s="10" t="inlineStr"/>
+      <c r="L18" s="9" t="inlineStr">
+        <is>
+          <t>PRZST</t>
+        </is>
+      </c>
+      <c r="M18" s="8" t="inlineStr">
+        <is>
+          <t>A certeza de avançar antes de tudo</t>
+        </is>
+      </c>
+      <c r="N18" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O18" s="10" t="n">
+        <v>2602</v>
+      </c>
+      <c r="P18" s="10" t="n">
+        <v>684</v>
+      </c>
+      <c r="Q18" s="8" t="inlineStr">
+        <is>
+          <t>8 - Nacional: mercadoria ou bem com Conteúdo de Importação superior a 70%</t>
+        </is>
+      </c>
+      <c r="R18" s="8" t="inlineStr">
+        <is>
+          <t>07 - Material de uso e consumo</t>
+        </is>
+      </c>
+      <c r="S18" s="8" t="inlineStr">
+        <is>
+          <t>55094200</t>
+        </is>
+      </c>
+      <c r="T18" s="8" t="n">
+        <v>252</v>
+      </c>
+      <c r="U18" s="8" t="inlineStr">
+        <is>
+          <t>A2578814914696347290737768808563</t>
+        </is>
+      </c>
+      <c r="V18" s="10" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="W18" s="10" t="n">
+        <v>32.83</v>
+      </c>
+      <c r="X18" s="10" t="inlineStr">
+        <is>
+          <t>2899900</t>
+        </is>
+      </c>
       <c r="Y18" s="11" t="inlineStr"/>
-      <c r="Z18" s="10" t="inlineStr"/>
+      <c r="Z18" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA18" s="10" t="inlineStr"/>
     </row>
     <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="6" t="inlineStr"/>
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B19" s="7" t="n">
-        <v>1076</v>
+        <v>9566</v>
       </c>
       <c r="C19" s="8" t="inlineStr">
         <is>
-          <t>qlhbmiAMOFrduvZCjDpx</t>
-        </is>
-      </c>
-      <c r="D19" s="8" t="inlineStr"/>
-      <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="8" t="inlineStr"/>
+          <t>YtBdToUELmVpczHJoxUd</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="inlineStr">
+        <is>
+          <t>8995687453954</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>790.511</v>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>BJSYL</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>80.13</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <v>13.64</v>
+      </c>
       <c r="I19" s="8" t="inlineStr">
         <is>
-          <t>Ampola</t>
+          <t>Balde</t>
         </is>
       </c>
       <c r="J19" s="9" t="inlineStr"/>
       <c r="K19" s="9" t="inlineStr"/>
-      <c r="L19" s="9" t="inlineStr"/>
-      <c r="M19" s="8" t="inlineStr"/>
-      <c r="N19" s="10" t="inlineStr"/>
-      <c r="O19" s="10" t="inlineStr"/>
-      <c r="P19" s="10" t="inlineStr"/>
-      <c r="Q19" s="8" t="inlineStr"/>
-      <c r="R19" s="8" t="inlineStr"/>
-      <c r="S19" s="8" t="inlineStr"/>
-      <c r="T19" s="8" t="inlineStr"/>
-      <c r="U19" s="8" t="inlineStr"/>
-      <c r="V19" s="10" t="inlineStr"/>
-      <c r="W19" s="10" t="inlineStr"/>
-      <c r="X19" s="10" t="inlineStr"/>
+      <c r="L19" s="9" t="inlineStr">
+        <is>
+          <t>PXJLJ</t>
+        </is>
+      </c>
+      <c r="M19" s="8" t="inlineStr">
+        <is>
+          <t>A vantagem de inovar com confiança</t>
+        </is>
+      </c>
+      <c r="N19" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O19" s="10" t="n">
+        <v>3430</v>
+      </c>
+      <c r="P19" s="10" t="n">
+        <v>3971</v>
+      </c>
+      <c r="Q19" s="8" t="inlineStr">
+        <is>
+          <t>5 - Nacional: mercadoria ou bem com Conteúdo de Importação inferior ou igual a 40%</t>
+        </is>
+      </c>
+      <c r="R19" s="8" t="inlineStr">
+        <is>
+          <t>08 - Ativo Imobilizado</t>
+        </is>
+      </c>
+      <c r="S19" s="8" t="inlineStr">
+        <is>
+          <t>02011000</t>
+        </is>
+      </c>
+      <c r="T19" s="8" t="n">
+        <v>653</v>
+      </c>
+      <c r="U19" s="8" t="inlineStr">
+        <is>
+          <t>A6335951171403840721253126646381</t>
+        </is>
+      </c>
+      <c r="V19" s="10" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="W19" s="10" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="X19" s="10" t="inlineStr">
+        <is>
+          <t>0300100</t>
+        </is>
+      </c>
       <c r="Y19" s="11" t="inlineStr"/>
-      <c r="Z19" s="10" t="inlineStr"/>
+      <c r="Z19" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA19" s="10" t="inlineStr"/>
     </row>
     <row r="20" ht="30" customHeight="1">
-      <c r="A20" s="6" t="inlineStr"/>
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="n">
-        <v>9345</v>
+        <v>7344</v>
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>qaGTMFZCGikMGuoUKqul</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="8" t="inlineStr"/>
-      <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
-      <c r="H20" s="8" t="inlineStr"/>
+          <t>zYbTLtPoPQlcNLMhCdhU</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>4859762241178</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>162.192</v>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>YJOEH</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <v>90.08</v>
+      </c>
       <c r="I20" s="8" t="inlineStr">
         <is>
-          <t>Barra</t>
+          <t>Ampola</t>
         </is>
       </c>
       <c r="J20" s="9" t="inlineStr"/>
       <c r="K20" s="9" t="inlineStr"/>
-      <c r="L20" s="9" t="inlineStr"/>
-      <c r="M20" s="8" t="inlineStr"/>
-      <c r="N20" s="10" t="inlineStr"/>
-      <c r="O20" s="10" t="inlineStr"/>
-      <c r="P20" s="10" t="inlineStr"/>
-      <c r="Q20" s="8" t="inlineStr"/>
-      <c r="R20" s="8" t="inlineStr"/>
-      <c r="S20" s="8" t="inlineStr"/>
-      <c r="T20" s="8" t="inlineStr"/>
-      <c r="U20" s="8" t="inlineStr"/>
-      <c r="V20" s="10" t="inlineStr"/>
-      <c r="W20" s="10" t="inlineStr"/>
-      <c r="X20" s="10" t="inlineStr"/>
+      <c r="L20" s="9" t="inlineStr">
+        <is>
+          <t>WNGMY</t>
+        </is>
+      </c>
+      <c r="M20" s="8" t="inlineStr">
+        <is>
+          <t>A simplicidade de conseguir sem preocupação</t>
+        </is>
+      </c>
+      <c r="N20" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O20" s="10" t="n">
+        <v>6490</v>
+      </c>
+      <c r="P20" s="10" t="n">
+        <v>7219</v>
+      </c>
+      <c r="Q20" s="8" t="inlineStr">
+        <is>
+          <t>0 - Nacional: exceto as indicadas nos códigos 3, 4, 5 e 8</t>
+        </is>
+      </c>
+      <c r="R20" s="8" t="inlineStr">
+        <is>
+          <t>99 - Outros</t>
+        </is>
+      </c>
+      <c r="S20" s="8" t="inlineStr">
+        <is>
+          <t>02011000</t>
+        </is>
+      </c>
+      <c r="T20" s="8" t="n">
+        <v>139</v>
+      </c>
+      <c r="U20" s="8" t="inlineStr">
+        <is>
+          <t>A6826520126972473740541895438743</t>
+        </is>
+      </c>
+      <c r="V20" s="10" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="W20" s="10" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="X20" s="10" t="inlineStr">
+        <is>
+          <t>0400100</t>
+        </is>
+      </c>
       <c r="Y20" s="11" t="inlineStr"/>
-      <c r="Z20" s="10" t="inlineStr"/>
+      <c r="Z20" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA20" s="10" t="inlineStr"/>
     </row>
     <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="6" t="inlineStr"/>
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B21" s="7" t="n">
-        <v>2289</v>
+        <v>9056</v>
       </c>
       <c r="C21" s="8" t="inlineStr">
         <is>
-          <t>jHYTTmJAyRknzhSDPimL</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="8" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr"/>
+          <t>OYCAIQZMzZhSlueZteQN</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>1388149820796</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>420.689</v>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>HPKMQ</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>92.02</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>47.7</v>
+      </c>
       <c r="I21" s="8" t="inlineStr">
         <is>
           <t>Barra</t>
@@ -1517,997 +2687,1015 @@
       </c>
       <c r="J21" s="9" t="inlineStr"/>
       <c r="K21" s="9" t="inlineStr"/>
-      <c r="L21" s="9" t="inlineStr"/>
-      <c r="M21" s="8" t="inlineStr"/>
-      <c r="N21" s="10" t="inlineStr"/>
-      <c r="O21" s="10" t="inlineStr"/>
-      <c r="P21" s="10" t="inlineStr"/>
-      <c r="Q21" s="8" t="inlineStr"/>
-      <c r="R21" s="8" t="inlineStr"/>
-      <c r="S21" s="8" t="inlineStr"/>
-      <c r="T21" s="8" t="inlineStr"/>
-      <c r="U21" s="8" t="inlineStr"/>
-      <c r="V21" s="10" t="inlineStr"/>
-      <c r="W21" s="10" t="inlineStr"/>
-      <c r="X21" s="10" t="inlineStr"/>
+      <c r="L21" s="9" t="inlineStr">
+        <is>
+          <t>ZQDFR</t>
+        </is>
+      </c>
+      <c r="M21" s="8" t="inlineStr">
+        <is>
+          <t>O prazer de realizar seus sonhos de maneira eficaz</t>
+        </is>
+      </c>
+      <c r="N21" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O21" s="10" t="n">
+        <v>3040</v>
+      </c>
+      <c r="P21" s="10" t="n">
+        <v>4079</v>
+      </c>
+      <c r="Q21" s="8" t="inlineStr">
+        <is>
+          <t>1 - Estrangeira: importação direta, exceto a indicada no código 6</t>
+        </is>
+      </c>
+      <c r="R21" s="8" t="inlineStr">
+        <is>
+          <t>99 - Outros</t>
+        </is>
+      </c>
+      <c r="S21" s="8" t="inlineStr">
+        <is>
+          <t>12116000</t>
+        </is>
+      </c>
+      <c r="T21" s="8" t="n">
+        <v>693</v>
+      </c>
+      <c r="U21" s="8" t="inlineStr">
+        <is>
+          <t>A4627371136726758619308594248361</t>
+        </is>
+      </c>
+      <c r="V21" s="10" t="n">
+        <v>67.78</v>
+      </c>
+      <c r="W21" s="10" t="n">
+        <v>74.16</v>
+      </c>
+      <c r="X21" s="10" t="inlineStr">
+        <is>
+          <t>0300100</t>
+        </is>
+      </c>
       <c r="Y21" s="11" t="inlineStr"/>
-      <c r="Z21" s="10" t="inlineStr"/>
+      <c r="Z21" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA21" s="10" t="inlineStr"/>
     </row>
     <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="6" t="inlineStr"/>
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B22" s="7" t="n">
-        <v>6198</v>
+        <v>518</v>
       </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>BOMaBMUzoOEjpzPkJkKL</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="inlineStr"/>
-      <c r="E22" s="8" t="inlineStr"/>
-      <c r="F22" s="8" t="inlineStr"/>
-      <c r="G22" s="8" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr"/>
+          <t>jMWldAJaCgoXZmWAcbQz</t>
+        </is>
+      </c>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>7090104836783</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>394.855</v>
+      </c>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>JDTSX</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="H22" s="8" t="n">
+        <v>15.25</v>
+      </c>
       <c r="I22" s="8" t="inlineStr">
         <is>
-          <t>Barra</t>
+          <t>Balde</t>
         </is>
       </c>
       <c r="J22" s="9" t="inlineStr"/>
       <c r="K22" s="9" t="inlineStr"/>
-      <c r="L22" s="9" t="inlineStr"/>
-      <c r="M22" s="8" t="inlineStr"/>
-      <c r="N22" s="10" t="inlineStr"/>
-      <c r="O22" s="10" t="inlineStr"/>
-      <c r="P22" s="10" t="inlineStr"/>
-      <c r="Q22" s="8" t="inlineStr"/>
-      <c r="R22" s="8" t="inlineStr"/>
-      <c r="S22" s="8" t="inlineStr"/>
-      <c r="T22" s="8" t="inlineStr"/>
-      <c r="U22" s="8" t="inlineStr"/>
-      <c r="V22" s="10" t="inlineStr"/>
-      <c r="W22" s="10" t="inlineStr"/>
-      <c r="X22" s="10" t="inlineStr"/>
+      <c r="L22" s="9" t="inlineStr">
+        <is>
+          <t>LKJOS</t>
+        </is>
+      </c>
+      <c r="M22" s="8" t="inlineStr">
+        <is>
+          <t>A arte de mudar sem preocupação</t>
+        </is>
+      </c>
+      <c r="N22" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O22" s="10" t="n">
+        <v>5759</v>
+      </c>
+      <c r="P22" s="10" t="n">
+        <v>8848</v>
+      </c>
+      <c r="Q22" s="8" t="inlineStr">
+        <is>
+          <t>4 - Nacional: produção em conformidade com processos básicos tratados na legislação dos Ajustes</t>
+        </is>
+      </c>
+      <c r="R22" s="8" t="inlineStr">
+        <is>
+          <t>04 - Produto Acabado</t>
+        </is>
+      </c>
+      <c r="S22" s="8" t="inlineStr">
+        <is>
+          <t>90302010</t>
+        </is>
+      </c>
+      <c r="T22" s="8" t="n">
+        <v>754</v>
+      </c>
+      <c r="U22" s="8" t="inlineStr">
+        <is>
+          <t>A0339096256087924286846500112055</t>
+        </is>
+      </c>
+      <c r="V22" s="10" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="W22" s="10" t="n">
+        <v>36.48</v>
+      </c>
+      <c r="X22" s="10" t="inlineStr">
+        <is>
+          <t>0200100</t>
+        </is>
+      </c>
       <c r="Y22" s="11" t="inlineStr"/>
-      <c r="Z22" s="10" t="inlineStr"/>
+      <c r="Z22" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA22" s="10" t="inlineStr"/>
     </row>
     <row r="23" ht="30" customHeight="1">
-      <c r="A23" s="6" t="inlineStr"/>
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B23" s="7" t="n">
-        <v>268</v>
+        <v>8430</v>
       </c>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t>zJVTaUcIvZTfflbAondg</t>
-        </is>
-      </c>
-      <c r="D23" s="8" t="inlineStr"/>
-      <c r="E23" s="8" t="inlineStr"/>
-      <c r="F23" s="8" t="inlineStr"/>
-      <c r="G23" s="8" t="inlineStr"/>
-      <c r="H23" s="8" t="inlineStr"/>
+          <t>oNnHmGdvDyTQrRojuFsj</t>
+        </is>
+      </c>
+      <c r="D23" s="8" t="inlineStr">
+        <is>
+          <t>6909662144920</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>997.9109999999999</v>
+      </c>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t>QWDES</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>62.83</v>
+      </c>
+      <c r="H23" s="8" t="n">
+        <v>67.61</v>
+      </c>
       <c r="I23" s="8" t="inlineStr">
         <is>
-          <t>Bobina</t>
+          <t>Ampola</t>
         </is>
       </c>
       <c r="J23" s="9" t="inlineStr"/>
       <c r="K23" s="9" t="inlineStr"/>
-      <c r="L23" s="9" t="inlineStr"/>
-      <c r="M23" s="8" t="inlineStr"/>
-      <c r="N23" s="10" t="inlineStr"/>
-      <c r="O23" s="10" t="inlineStr"/>
-      <c r="P23" s="10" t="inlineStr"/>
-      <c r="Q23" s="8" t="inlineStr"/>
-      <c r="R23" s="8" t="inlineStr"/>
-      <c r="S23" s="8" t="inlineStr"/>
-      <c r="T23" s="8" t="inlineStr"/>
-      <c r="U23" s="8" t="inlineStr"/>
-      <c r="V23" s="10" t="inlineStr"/>
-      <c r="W23" s="10" t="inlineStr"/>
-      <c r="X23" s="10" t="inlineStr"/>
+      <c r="L23" s="9" t="inlineStr">
+        <is>
+          <t>WCAWZ</t>
+        </is>
+      </c>
+      <c r="M23" s="8" t="inlineStr">
+        <is>
+          <t>A possibilidade de conseguir naturalmente</t>
+        </is>
+      </c>
+      <c r="N23" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O23" s="10" t="n">
+        <v>8996</v>
+      </c>
+      <c r="P23" s="10" t="n">
+        <v>2191</v>
+      </c>
+      <c r="Q23" s="8" t="inlineStr">
+        <is>
+          <t>5 - Nacional: mercadoria ou bem com Conteúdo de Importação inferior ou igual a 40%</t>
+        </is>
+      </c>
+      <c r="R23" s="8" t="inlineStr">
+        <is>
+          <t>02 - Embalagens</t>
+        </is>
+      </c>
+      <c r="S23" s="8" t="inlineStr">
+        <is>
+          <t>90302010</t>
+        </is>
+      </c>
+      <c r="T23" s="8" t="n">
+        <v>981</v>
+      </c>
+      <c r="U23" s="8" t="inlineStr">
+        <is>
+          <t>A4296531698919853269778693339111</t>
+        </is>
+      </c>
+      <c r="V23" s="10" t="n">
+        <v>56.74</v>
+      </c>
+      <c r="W23" s="10" t="n">
+        <v>68.16</v>
+      </c>
+      <c r="X23" s="10" t="inlineStr">
+        <is>
+          <t>0300100</t>
+        </is>
+      </c>
       <c r="Y23" s="11" t="inlineStr"/>
-      <c r="Z23" s="10" t="inlineStr"/>
+      <c r="Z23" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA23" s="10" t="inlineStr"/>
     </row>
     <row r="24" ht="30" customHeight="1">
-      <c r="A24" s="6" t="inlineStr"/>
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
       <c r="B24" s="7" t="n">
-        <v>3189</v>
+        <v>674</v>
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>TwlfKpAKqEHUpYceRUhp</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="inlineStr"/>
-      <c r="E24" s="8" t="inlineStr"/>
-      <c r="F24" s="8" t="inlineStr"/>
-      <c r="G24" s="8" t="inlineStr"/>
-      <c r="H24" s="8" t="inlineStr"/>
+          <t>xkQsizXTKJXEdoEqEHYx</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>5298671804293</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>23.334</v>
+      </c>
+      <c r="F24" s="8" t="inlineStr">
+        <is>
+          <t>ERTQJ</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <v>19.78</v>
+      </c>
       <c r="I24" s="8" t="inlineStr">
         <is>
-          <t>Balde</t>
+          <t>Barra</t>
         </is>
       </c>
       <c r="J24" s="9" t="inlineStr"/>
       <c r="K24" s="9" t="inlineStr"/>
-      <c r="L24" s="9" t="inlineStr"/>
-      <c r="M24" s="8" t="inlineStr"/>
-      <c r="N24" s="10" t="inlineStr"/>
-      <c r="O24" s="10" t="inlineStr"/>
-      <c r="P24" s="10" t="inlineStr"/>
-      <c r="Q24" s="8" t="inlineStr"/>
-      <c r="R24" s="8" t="inlineStr"/>
-      <c r="S24" s="8" t="inlineStr"/>
-      <c r="T24" s="8" t="inlineStr"/>
-      <c r="U24" s="8" t="inlineStr"/>
-      <c r="V24" s="10" t="inlineStr"/>
-      <c r="W24" s="10" t="inlineStr"/>
-      <c r="X24" s="10" t="inlineStr"/>
+      <c r="L24" s="9" t="inlineStr">
+        <is>
+          <t>RELZI</t>
+        </is>
+      </c>
+      <c r="M24" s="8" t="inlineStr">
+        <is>
+          <t>O direito de ganhar com força total</t>
+        </is>
+      </c>
+      <c r="N24" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O24" s="10" t="n">
+        <v>414</v>
+      </c>
+      <c r="P24" s="10" t="n">
+        <v>6028</v>
+      </c>
+      <c r="Q24" s="8" t="inlineStr">
+        <is>
+          <t>8 - Nacional: mercadoria ou bem com Conteúdo de Importação superior a 70%</t>
+        </is>
+      </c>
+      <c r="R24" s="8" t="inlineStr">
+        <is>
+          <t>05 - Subproduto</t>
+        </is>
+      </c>
+      <c r="S24" s="8" t="inlineStr">
+        <is>
+          <t>90302010</t>
+        </is>
+      </c>
+      <c r="T24" s="8" t="n">
+        <v>754</v>
+      </c>
+      <c r="U24" s="8" t="inlineStr">
+        <is>
+          <t>A6464089739695513452931932242231</t>
+        </is>
+      </c>
+      <c r="V24" s="10" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="W24" s="10" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="X24" s="10" t="inlineStr">
+        <is>
+          <t>0100100</t>
+        </is>
+      </c>
       <c r="Y24" s="11" t="inlineStr"/>
-      <c r="Z24" s="10" t="inlineStr"/>
+      <c r="Z24" s="10" t="inlineStr">
+        <is>
+          <t>12548791</t>
+        </is>
+      </c>
       <c r="AA24" s="10" t="inlineStr"/>
     </row>
     <row r="25" ht="30" customHeight="1">
-      <c r="A25" s="6" t="inlineStr"/>
-      <c r="B25" s="7" t="n">
-        <v>7435</v>
-      </c>
-      <c r="C25" s="8" t="inlineStr">
-        <is>
-          <t>KxHzpofeCGndDFszJiRV</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr"/>
-      <c r="E25" s="8" t="inlineStr"/>
-      <c r="F25" s="8" t="inlineStr"/>
-      <c r="G25" s="8" t="inlineStr"/>
-      <c r="H25" s="8" t="inlineStr"/>
-      <c r="I25" s="8" t="inlineStr">
-        <is>
-          <t>Ampola</t>
-        </is>
-      </c>
-      <c r="J25" s="9" t="inlineStr"/>
-      <c r="K25" s="9" t="inlineStr"/>
-      <c r="L25" s="9" t="inlineStr"/>
-      <c r="M25" s="8" t="inlineStr"/>
-      <c r="N25" s="10" t="inlineStr"/>
-      <c r="O25" s="10" t="inlineStr"/>
-      <c r="P25" s="10" t="inlineStr"/>
-      <c r="Q25" s="8" t="inlineStr"/>
-      <c r="R25" s="8" t="inlineStr"/>
-      <c r="S25" s="8" t="inlineStr"/>
-      <c r="T25" s="8" t="inlineStr"/>
-      <c r="U25" s="8" t="inlineStr"/>
-      <c r="V25" s="10" t="inlineStr"/>
-      <c r="W25" s="10" t="inlineStr"/>
-      <c r="X25" s="10" t="inlineStr"/>
-      <c r="Y25" s="11" t="inlineStr"/>
-      <c r="Z25" s="10" t="inlineStr"/>
-      <c r="AA25" s="10" t="inlineStr"/>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="7" t="n"/>
+      <c r="C25" s="8" t="n"/>
+      <c r="D25" s="8" t="n"/>
+      <c r="E25" s="8" t="n"/>
+      <c r="F25" s="8" t="n"/>
+      <c r="G25" s="8" t="n"/>
+      <c r="H25" s="8" t="n"/>
+      <c r="I25" s="8" t="n"/>
+      <c r="J25" s="9" t="n"/>
+      <c r="K25" s="9" t="n"/>
+      <c r="L25" s="9" t="n"/>
+      <c r="M25" s="8" t="n"/>
+      <c r="N25" s="10" t="n"/>
+      <c r="O25" s="10" t="n"/>
+      <c r="P25" s="10" t="n"/>
+      <c r="Q25" s="8" t="n"/>
+      <c r="R25" s="8" t="n"/>
+      <c r="S25" s="8" t="n"/>
+      <c r="T25" s="8" t="n"/>
+      <c r="U25" s="8" t="n"/>
+      <c r="V25" s="10" t="n"/>
+      <c r="W25" s="10" t="n"/>
+      <c r="X25" s="10" t="n"/>
+      <c r="Y25" s="11" t="n"/>
+      <c r="Z25" s="10" t="n"/>
+      <c r="AA25" s="10" t="n"/>
     </row>
     <row r="26" ht="30" customHeight="1">
-      <c r="A26" s="6" t="inlineStr"/>
-      <c r="B26" s="7" t="n">
-        <v>6814</v>
-      </c>
-      <c r="C26" s="8" t="inlineStr">
-        <is>
-          <t>UQTdOXlMimciiSUJLjfV</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="inlineStr"/>
-      <c r="E26" s="8" t="inlineStr"/>
-      <c r="F26" s="8" t="inlineStr"/>
-      <c r="G26" s="8" t="inlineStr"/>
-      <c r="H26" s="8" t="inlineStr"/>
-      <c r="I26" s="8" t="inlineStr">
-        <is>
-          <t>Balde</t>
-        </is>
-      </c>
-      <c r="J26" s="9" t="inlineStr"/>
-      <c r="K26" s="9" t="inlineStr"/>
-      <c r="L26" s="9" t="inlineStr"/>
-      <c r="M26" s="8" t="inlineStr"/>
-      <c r="N26" s="10" t="inlineStr"/>
-      <c r="O26" s="10" t="inlineStr"/>
-      <c r="P26" s="10" t="inlineStr"/>
-      <c r="Q26" s="8" t="inlineStr"/>
-      <c r="R26" s="8" t="inlineStr"/>
-      <c r="S26" s="8" t="inlineStr"/>
-      <c r="T26" s="8" t="inlineStr"/>
-      <c r="U26" s="8" t="inlineStr"/>
-      <c r="V26" s="10" t="inlineStr"/>
-      <c r="W26" s="10" t="inlineStr"/>
-      <c r="X26" s="10" t="inlineStr"/>
-      <c r="Y26" s="11" t="inlineStr"/>
-      <c r="Z26" s="10" t="inlineStr"/>
-      <c r="AA26" s="10" t="inlineStr"/>
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="7" t="n"/>
+      <c r="C26" s="8" t="n"/>
+      <c r="D26" s="8" t="n"/>
+      <c r="E26" s="8" t="n"/>
+      <c r="F26" s="8" t="n"/>
+      <c r="G26" s="8" t="n"/>
+      <c r="H26" s="8" t="n"/>
+      <c r="I26" s="8" t="n"/>
+      <c r="J26" s="9" t="n"/>
+      <c r="K26" s="9" t="n"/>
+      <c r="L26" s="9" t="n"/>
+      <c r="M26" s="8" t="n"/>
+      <c r="N26" s="10" t="n"/>
+      <c r="O26" s="10" t="n"/>
+      <c r="P26" s="10" t="n"/>
+      <c r="Q26" s="8" t="n"/>
+      <c r="R26" s="8" t="n"/>
+      <c r="S26" s="8" t="n"/>
+      <c r="T26" s="8" t="n"/>
+      <c r="U26" s="8" t="n"/>
+      <c r="V26" s="10" t="n"/>
+      <c r="W26" s="10" t="n"/>
+      <c r="X26" s="10" t="n"/>
+      <c r="Y26" s="11" t="n"/>
+      <c r="Z26" s="10" t="n"/>
+      <c r="AA26" s="10" t="n"/>
     </row>
     <row r="27" ht="30" customHeight="1">
-      <c r="A27" s="6" t="inlineStr"/>
-      <c r="B27" s="7" t="n">
-        <v>4170</v>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>JGuCpIFnDariwhJpMwTL</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="inlineStr"/>
-      <c r="E27" s="8" t="inlineStr"/>
-      <c r="F27" s="8" t="inlineStr"/>
-      <c r="G27" s="8" t="inlineStr"/>
-      <c r="H27" s="8" t="inlineStr"/>
-      <c r="I27" s="8" t="inlineStr">
-        <is>
-          <t>Bobina</t>
-        </is>
-      </c>
-      <c r="J27" s="9" t="inlineStr"/>
-      <c r="K27" s="9" t="inlineStr"/>
-      <c r="L27" s="9" t="inlineStr"/>
-      <c r="M27" s="8" t="inlineStr"/>
-      <c r="N27" s="10" t="inlineStr"/>
-      <c r="O27" s="10" t="inlineStr"/>
-      <c r="P27" s="10" t="inlineStr"/>
-      <c r="Q27" s="8" t="inlineStr"/>
-      <c r="R27" s="8" t="inlineStr"/>
-      <c r="S27" s="8" t="inlineStr"/>
-      <c r="T27" s="8" t="inlineStr"/>
-      <c r="U27" s="8" t="inlineStr"/>
-      <c r="V27" s="10" t="inlineStr"/>
-      <c r="W27" s="10" t="inlineStr"/>
-      <c r="X27" s="10" t="inlineStr"/>
-      <c r="Y27" s="11" t="inlineStr"/>
-      <c r="Z27" s="10" t="inlineStr"/>
-      <c r="AA27" s="10" t="inlineStr"/>
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="8" t="n"/>
+      <c r="D27" s="8" t="n"/>
+      <c r="E27" s="8" t="n"/>
+      <c r="F27" s="8" t="n"/>
+      <c r="G27" s="8" t="n"/>
+      <c r="H27" s="8" t="n"/>
+      <c r="I27" s="8" t="n"/>
+      <c r="J27" s="9" t="n"/>
+      <c r="K27" s="9" t="n"/>
+      <c r="L27" s="9" t="n"/>
+      <c r="M27" s="8" t="n"/>
+      <c r="N27" s="10" t="n"/>
+      <c r="O27" s="10" t="n"/>
+      <c r="P27" s="10" t="n"/>
+      <c r="Q27" s="8" t="n"/>
+      <c r="R27" s="8" t="n"/>
+      <c r="S27" s="8" t="n"/>
+      <c r="T27" s="8" t="n"/>
+      <c r="U27" s="8" t="n"/>
+      <c r="V27" s="10" t="n"/>
+      <c r="W27" s="10" t="n"/>
+      <c r="X27" s="10" t="n"/>
+      <c r="Y27" s="11" t="n"/>
+      <c r="Z27" s="10" t="n"/>
+      <c r="AA27" s="10" t="n"/>
     </row>
     <row r="28" ht="30" customHeight="1">
-      <c r="A28" s="6" t="inlineStr"/>
-      <c r="B28" s="7" t="n">
-        <v>4629</v>
-      </c>
-      <c r="C28" s="8" t="inlineStr">
-        <is>
-          <t>GfQTxMvqECUbWGIsaVDk</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="inlineStr"/>
-      <c r="E28" s="8" t="inlineStr"/>
-      <c r="F28" s="8" t="inlineStr"/>
-      <c r="G28" s="8" t="inlineStr"/>
-      <c r="H28" s="8" t="inlineStr"/>
-      <c r="I28" s="8" t="inlineStr">
-        <is>
-          <t>Bobina</t>
-        </is>
-      </c>
-      <c r="J28" s="9" t="inlineStr"/>
-      <c r="K28" s="9" t="inlineStr"/>
-      <c r="L28" s="9" t="inlineStr"/>
-      <c r="M28" s="8" t="inlineStr"/>
-      <c r="N28" s="10" t="inlineStr"/>
-      <c r="O28" s="10" t="inlineStr"/>
-      <c r="P28" s="10" t="inlineStr"/>
-      <c r="Q28" s="8" t="inlineStr"/>
-      <c r="R28" s="8" t="inlineStr"/>
-      <c r="S28" s="8" t="inlineStr"/>
-      <c r="T28" s="8" t="inlineStr"/>
-      <c r="U28" s="8" t="inlineStr"/>
-      <c r="V28" s="10" t="inlineStr"/>
-      <c r="W28" s="10" t="inlineStr"/>
-      <c r="X28" s="10" t="inlineStr"/>
-      <c r="Y28" s="11" t="inlineStr"/>
-      <c r="Z28" s="10" t="inlineStr"/>
-      <c r="AA28" s="10" t="inlineStr"/>
+      <c r="A28" s="6" t="n"/>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="8" t="n"/>
+      <c r="D28" s="8" t="n"/>
+      <c r="E28" s="8" t="n"/>
+      <c r="F28" s="8" t="n"/>
+      <c r="G28" s="8" t="n"/>
+      <c r="H28" s="8" t="n"/>
+      <c r="I28" s="8" t="n"/>
+      <c r="J28" s="9" t="n"/>
+      <c r="K28" s="9" t="n"/>
+      <c r="L28" s="9" t="n"/>
+      <c r="M28" s="8" t="n"/>
+      <c r="N28" s="10" t="n"/>
+      <c r="O28" s="10" t="n"/>
+      <c r="P28" s="10" t="n"/>
+      <c r="Q28" s="8" t="n"/>
+      <c r="R28" s="8" t="n"/>
+      <c r="S28" s="8" t="n"/>
+      <c r="T28" s="8" t="n"/>
+      <c r="U28" s="8" t="n"/>
+      <c r="V28" s="10" t="n"/>
+      <c r="W28" s="10" t="n"/>
+      <c r="X28" s="10" t="n"/>
+      <c r="Y28" s="11" t="n"/>
+      <c r="Z28" s="10" t="n"/>
+      <c r="AA28" s="10" t="n"/>
     </row>
     <row r="29" ht="30" customHeight="1">
-      <c r="A29" s="6" t="inlineStr"/>
-      <c r="B29" s="7" t="n">
-        <v>4344</v>
-      </c>
-      <c r="C29" s="8" t="inlineStr">
-        <is>
-          <t>ovWIaRPcZsqyCEWgWCbO</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="inlineStr"/>
-      <c r="E29" s="8" t="inlineStr"/>
-      <c r="F29" s="8" t="inlineStr"/>
-      <c r="G29" s="8" t="inlineStr"/>
-      <c r="H29" s="8" t="inlineStr"/>
-      <c r="I29" s="8" t="inlineStr">
-        <is>
-          <t>Balde</t>
-        </is>
-      </c>
-      <c r="J29" s="9" t="inlineStr"/>
-      <c r="K29" s="9" t="inlineStr"/>
-      <c r="L29" s="9" t="inlineStr"/>
-      <c r="M29" s="8" t="inlineStr"/>
-      <c r="N29" s="10" t="inlineStr"/>
-      <c r="O29" s="10" t="inlineStr"/>
-      <c r="P29" s="10" t="inlineStr"/>
-      <c r="Q29" s="8" t="inlineStr"/>
-      <c r="R29" s="8" t="inlineStr"/>
-      <c r="S29" s="8" t="inlineStr"/>
-      <c r="T29" s="8" t="inlineStr"/>
-      <c r="U29" s="8" t="inlineStr"/>
-      <c r="V29" s="10" t="inlineStr"/>
-      <c r="W29" s="10" t="inlineStr"/>
-      <c r="X29" s="10" t="inlineStr"/>
-      <c r="Y29" s="11" t="inlineStr"/>
-      <c r="Z29" s="10" t="inlineStr"/>
-      <c r="AA29" s="10" t="inlineStr"/>
+      <c r="A29" s="6" t="n"/>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="8" t="n"/>
+      <c r="D29" s="8" t="n"/>
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
+      <c r="G29" s="8" t="n"/>
+      <c r="H29" s="8" t="n"/>
+      <c r="I29" s="8" t="n"/>
+      <c r="J29" s="9" t="n"/>
+      <c r="K29" s="9" t="n"/>
+      <c r="L29" s="9" t="n"/>
+      <c r="M29" s="8" t="n"/>
+      <c r="N29" s="10" t="n"/>
+      <c r="O29" s="10" t="n"/>
+      <c r="P29" s="10" t="n"/>
+      <c r="Q29" s="8" t="n"/>
+      <c r="R29" s="8" t="n"/>
+      <c r="S29" s="8" t="n"/>
+      <c r="T29" s="8" t="n"/>
+      <c r="U29" s="8" t="n"/>
+      <c r="V29" s="10" t="n"/>
+      <c r="W29" s="10" t="n"/>
+      <c r="X29" s="10" t="n"/>
+      <c r="Y29" s="11" t="n"/>
+      <c r="Z29" s="10" t="n"/>
+      <c r="AA29" s="10" t="n"/>
     </row>
     <row r="30" ht="30" customHeight="1">
-      <c r="A30" s="6" t="inlineStr"/>
-      <c r="B30" s="7" t="n">
-        <v>6424</v>
-      </c>
-      <c r="C30" s="8" t="inlineStr">
-        <is>
-          <t>xLNXNSshCzkadzWtdBmU</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="inlineStr"/>
-      <c r="E30" s="8" t="inlineStr"/>
-      <c r="F30" s="8" t="inlineStr"/>
-      <c r="G30" s="8" t="inlineStr"/>
-      <c r="H30" s="8" t="inlineStr"/>
-      <c r="I30" s="8" t="inlineStr">
-        <is>
-          <t>Balde</t>
-        </is>
-      </c>
-      <c r="J30" s="9" t="inlineStr"/>
-      <c r="K30" s="9" t="inlineStr"/>
-      <c r="L30" s="9" t="inlineStr"/>
-      <c r="M30" s="8" t="inlineStr"/>
-      <c r="N30" s="10" t="inlineStr"/>
-      <c r="O30" s="10" t="inlineStr"/>
-      <c r="P30" s="10" t="inlineStr"/>
-      <c r="Q30" s="8" t="inlineStr"/>
-      <c r="R30" s="8" t="inlineStr"/>
-      <c r="S30" s="8" t="inlineStr"/>
-      <c r="T30" s="8" t="inlineStr"/>
-      <c r="U30" s="8" t="inlineStr"/>
-      <c r="V30" s="10" t="inlineStr"/>
-      <c r="W30" s="10" t="inlineStr"/>
-      <c r="X30" s="10" t="inlineStr"/>
-      <c r="Y30" s="11" t="inlineStr"/>
-      <c r="Z30" s="10" t="inlineStr"/>
-      <c r="AA30" s="10" t="inlineStr"/>
+      <c r="A30" s="6" t="n"/>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="8" t="n"/>
+      <c r="D30" s="8" t="n"/>
+      <c r="E30" s="8" t="n"/>
+      <c r="F30" s="8" t="n"/>
+      <c r="G30" s="8" t="n"/>
+      <c r="H30" s="8" t="n"/>
+      <c r="I30" s="8" t="n"/>
+      <c r="J30" s="9" t="n"/>
+      <c r="K30" s="9" t="n"/>
+      <c r="L30" s="9" t="n"/>
+      <c r="M30" s="8" t="n"/>
+      <c r="N30" s="10" t="n"/>
+      <c r="O30" s="10" t="n"/>
+      <c r="P30" s="10" t="n"/>
+      <c r="Q30" s="8" t="n"/>
+      <c r="R30" s="8" t="n"/>
+      <c r="S30" s="8" t="n"/>
+      <c r="T30" s="8" t="n"/>
+      <c r="U30" s="8" t="n"/>
+      <c r="V30" s="10" t="n"/>
+      <c r="W30" s="10" t="n"/>
+      <c r="X30" s="10" t="n"/>
+      <c r="Y30" s="11" t="n"/>
+      <c r="Z30" s="10" t="n"/>
+      <c r="AA30" s="10" t="n"/>
     </row>
     <row r="31" ht="30" customHeight="1">
-      <c r="A31" s="6" t="inlineStr"/>
-      <c r="B31" s="7" t="n">
-        <v>4075</v>
-      </c>
-      <c r="C31" s="8" t="inlineStr">
-        <is>
-          <t>JjWmWJKWCTrStTsWKDHX</t>
-        </is>
-      </c>
-      <c r="D31" s="8" t="inlineStr"/>
-      <c r="E31" s="8" t="inlineStr"/>
-      <c r="F31" s="8" t="inlineStr"/>
-      <c r="G31" s="8" t="inlineStr"/>
-      <c r="H31" s="8" t="inlineStr"/>
-      <c r="I31" s="8" t="inlineStr">
-        <is>
-          <t>Ampola</t>
-        </is>
-      </c>
-      <c r="J31" s="9" t="inlineStr"/>
-      <c r="K31" s="9" t="inlineStr"/>
-      <c r="L31" s="9" t="inlineStr"/>
-      <c r="M31" s="8" t="inlineStr"/>
-      <c r="N31" s="10" t="inlineStr"/>
-      <c r="O31" s="10" t="inlineStr"/>
-      <c r="P31" s="10" t="inlineStr"/>
-      <c r="Q31" s="8" t="inlineStr"/>
-      <c r="R31" s="8" t="inlineStr"/>
-      <c r="S31" s="8" t="inlineStr"/>
-      <c r="T31" s="8" t="inlineStr"/>
-      <c r="U31" s="8" t="inlineStr"/>
-      <c r="V31" s="10" t="inlineStr"/>
-      <c r="W31" s="10" t="inlineStr"/>
-      <c r="X31" s="10" t="inlineStr"/>
-      <c r="Y31" s="11" t="inlineStr"/>
-      <c r="Z31" s="10" t="inlineStr"/>
-      <c r="AA31" s="10" t="inlineStr"/>
+      <c r="A31" s="6" t="n"/>
+      <c r="B31" s="7" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
+      <c r="G31" s="8" t="n"/>
+      <c r="H31" s="8" t="n"/>
+      <c r="I31" s="8" t="n"/>
+      <c r="J31" s="9" t="n"/>
+      <c r="K31" s="9" t="n"/>
+      <c r="L31" s="9" t="n"/>
+      <c r="M31" s="8" t="n"/>
+      <c r="N31" s="10" t="n"/>
+      <c r="O31" s="10" t="n"/>
+      <c r="P31" s="10" t="n"/>
+      <c r="Q31" s="8" t="n"/>
+      <c r="R31" s="8" t="n"/>
+      <c r="S31" s="8" t="n"/>
+      <c r="T31" s="8" t="n"/>
+      <c r="U31" s="8" t="n"/>
+      <c r="V31" s="10" t="n"/>
+      <c r="W31" s="10" t="n"/>
+      <c r="X31" s="10" t="n"/>
+      <c r="Y31" s="11" t="n"/>
+      <c r="Z31" s="10" t="n"/>
+      <c r="AA31" s="10" t="n"/>
     </row>
     <row r="32" ht="30" customHeight="1">
-      <c r="A32" s="6" t="inlineStr"/>
-      <c r="B32" s="7" t="n">
-        <v>144</v>
-      </c>
-      <c r="C32" s="8" t="inlineStr">
-        <is>
-          <t>QaassLrXmCgwtgVIdyjO</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="inlineStr"/>
-      <c r="E32" s="8" t="inlineStr"/>
-      <c r="F32" s="8" t="inlineStr"/>
-      <c r="G32" s="8" t="inlineStr"/>
-      <c r="H32" s="8" t="inlineStr"/>
-      <c r="I32" s="8" t="inlineStr">
-        <is>
-          <t>Ampola</t>
-        </is>
-      </c>
-      <c r="J32" s="9" t="inlineStr"/>
-      <c r="K32" s="9" t="inlineStr"/>
-      <c r="L32" s="9" t="inlineStr"/>
-      <c r="M32" s="8" t="inlineStr"/>
-      <c r="N32" s="10" t="inlineStr"/>
-      <c r="O32" s="10" t="inlineStr"/>
-      <c r="P32" s="10" t="inlineStr"/>
-      <c r="Q32" s="8" t="inlineStr"/>
-      <c r="R32" s="8" t="inlineStr"/>
-      <c r="S32" s="8" t="inlineStr"/>
-      <c r="T32" s="8" t="inlineStr"/>
-      <c r="U32" s="8" t="inlineStr"/>
-      <c r="V32" s="10" t="inlineStr"/>
-      <c r="W32" s="10" t="inlineStr"/>
-      <c r="X32" s="10" t="inlineStr"/>
-      <c r="Y32" s="11" t="inlineStr"/>
-      <c r="Z32" s="10" t="inlineStr"/>
-      <c r="AA32" s="10" t="inlineStr"/>
+      <c r="A32" s="6" t="n"/>
+      <c r="B32" s="7" t="n"/>
+      <c r="C32" s="8" t="n"/>
+      <c r="D32" s="8" t="n"/>
+      <c r="E32" s="8" t="n"/>
+      <c r="F32" s="8" t="n"/>
+      <c r="G32" s="8" t="n"/>
+      <c r="H32" s="8" t="n"/>
+      <c r="I32" s="8" t="n"/>
+      <c r="J32" s="9" t="n"/>
+      <c r="K32" s="9" t="n"/>
+      <c r="L32" s="9" t="n"/>
+      <c r="M32" s="8" t="n"/>
+      <c r="N32" s="10" t="n"/>
+      <c r="O32" s="10" t="n"/>
+      <c r="P32" s="10" t="n"/>
+      <c r="Q32" s="8" t="n"/>
+      <c r="R32" s="8" t="n"/>
+      <c r="S32" s="8" t="n"/>
+      <c r="T32" s="8" t="n"/>
+      <c r="U32" s="8" t="n"/>
+      <c r="V32" s="10" t="n"/>
+      <c r="W32" s="10" t="n"/>
+      <c r="X32" s="10" t="n"/>
+      <c r="Y32" s="11" t="n"/>
+      <c r="Z32" s="10" t="n"/>
+      <c r="AA32" s="10" t="n"/>
     </row>
     <row r="33" ht="30" customHeight="1">
-      <c r="A33" s="6" t="inlineStr"/>
-      <c r="B33" s="7" t="n">
-        <v>8318</v>
-      </c>
-      <c r="C33" s="8" t="inlineStr">
-        <is>
-          <t>iPeAuyiBHTJtbAdqrMuU</t>
-        </is>
-      </c>
-      <c r="D33" s="8" t="inlineStr"/>
-      <c r="E33" s="8" t="inlineStr"/>
-      <c r="F33" s="8" t="inlineStr"/>
-      <c r="G33" s="8" t="inlineStr"/>
-      <c r="H33" s="8" t="inlineStr"/>
-      <c r="I33" s="8" t="inlineStr">
-        <is>
-          <t>Ampola</t>
-        </is>
-      </c>
-      <c r="J33" s="9" t="inlineStr"/>
-      <c r="K33" s="9" t="inlineStr"/>
-      <c r="L33" s="9" t="inlineStr"/>
-      <c r="M33" s="8" t="inlineStr"/>
-      <c r="N33" s="10" t="inlineStr"/>
-      <c r="O33" s="10" t="inlineStr"/>
-      <c r="P33" s="10" t="inlineStr"/>
-      <c r="Q33" s="8" t="inlineStr"/>
-      <c r="R33" s="8" t="inlineStr"/>
-      <c r="S33" s="8" t="inlineStr"/>
-      <c r="T33" s="8" t="inlineStr"/>
-      <c r="U33" s="8" t="inlineStr"/>
-      <c r="V33" s="10" t="inlineStr"/>
-      <c r="W33" s="10" t="inlineStr"/>
-      <c r="X33" s="10" t="inlineStr"/>
-      <c r="Y33" s="11" t="inlineStr"/>
-      <c r="Z33" s="10" t="inlineStr"/>
-      <c r="AA33" s="10" t="inlineStr"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="7" t="n"/>
+      <c r="C33" s="8" t="n"/>
+      <c r="D33" s="8" t="n"/>
+      <c r="E33" s="8" t="n"/>
+      <c r="F33" s="8" t="n"/>
+      <c r="G33" s="8" t="n"/>
+      <c r="H33" s="8" t="n"/>
+      <c r="I33" s="8" t="n"/>
+      <c r="J33" s="9" t="n"/>
+      <c r="K33" s="9" t="n"/>
+      <c r="L33" s="9" t="n"/>
+      <c r="M33" s="8" t="n"/>
+      <c r="N33" s="10" t="n"/>
+      <c r="O33" s="10" t="n"/>
+      <c r="P33" s="10" t="n"/>
+      <c r="Q33" s="8" t="n"/>
+      <c r="R33" s="8" t="n"/>
+      <c r="S33" s="8" t="n"/>
+      <c r="T33" s="8" t="n"/>
+      <c r="U33" s="8" t="n"/>
+      <c r="V33" s="10" t="n"/>
+      <c r="W33" s="10" t="n"/>
+      <c r="X33" s="10" t="n"/>
+      <c r="Y33" s="11" t="n"/>
+      <c r="Z33" s="10" t="n"/>
+      <c r="AA33" s="10" t="n"/>
     </row>
     <row r="34" ht="30" customHeight="1">
-      <c r="A34" s="6" t="inlineStr"/>
-      <c r="B34" s="7" t="n">
-        <v>1542</v>
-      </c>
-      <c r="C34" s="8" t="inlineStr">
-        <is>
-          <t>iJRLlRgWTEiXbFgSFVFj</t>
-        </is>
-      </c>
-      <c r="D34" s="8" t="inlineStr"/>
-      <c r="E34" s="8" t="inlineStr"/>
-      <c r="F34" s="8" t="inlineStr"/>
-      <c r="G34" s="8" t="inlineStr"/>
-      <c r="H34" s="8" t="inlineStr"/>
-      <c r="I34" s="8" t="inlineStr">
-        <is>
-          <t>Balde</t>
-        </is>
-      </c>
-      <c r="J34" s="9" t="inlineStr"/>
-      <c r="K34" s="9" t="inlineStr"/>
-      <c r="L34" s="9" t="inlineStr"/>
-      <c r="M34" s="8" t="inlineStr"/>
-      <c r="N34" s="10" t="inlineStr"/>
-      <c r="O34" s="10" t="inlineStr"/>
-      <c r="P34" s="10" t="inlineStr"/>
-      <c r="Q34" s="8" t="inlineStr"/>
-      <c r="R34" s="8" t="inlineStr"/>
-      <c r="S34" s="8" t="inlineStr"/>
-      <c r="T34" s="8" t="inlineStr"/>
-      <c r="U34" s="8" t="inlineStr"/>
-      <c r="V34" s="10" t="inlineStr"/>
-      <c r="W34" s="10" t="inlineStr"/>
-      <c r="X34" s="10" t="inlineStr"/>
-      <c r="Y34" s="11" t="inlineStr"/>
-      <c r="Z34" s="10" t="inlineStr"/>
-      <c r="AA34" s="10" t="inlineStr"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="7" t="n"/>
+      <c r="C34" s="8" t="n"/>
+      <c r="D34" s="8" t="n"/>
+      <c r="E34" s="8" t="n"/>
+      <c r="F34" s="8" t="n"/>
+      <c r="G34" s="8" t="n"/>
+      <c r="H34" s="8" t="n"/>
+      <c r="I34" s="8" t="n"/>
+      <c r="J34" s="9" t="n"/>
+      <c r="K34" s="9" t="n"/>
+      <c r="L34" s="9" t="n"/>
+      <c r="M34" s="8" t="n"/>
+      <c r="N34" s="10" t="n"/>
+      <c r="O34" s="10" t="n"/>
+      <c r="P34" s="10" t="n"/>
+      <c r="Q34" s="8" t="n"/>
+      <c r="R34" s="8" t="n"/>
+      <c r="S34" s="8" t="n"/>
+      <c r="T34" s="8" t="n"/>
+      <c r="U34" s="8" t="n"/>
+      <c r="V34" s="10" t="n"/>
+      <c r="W34" s="10" t="n"/>
+      <c r="X34" s="10" t="n"/>
+      <c r="Y34" s="11" t="n"/>
+      <c r="Z34" s="10" t="n"/>
+      <c r="AA34" s="10" t="n"/>
     </row>
     <row r="35" ht="30" customHeight="1">
-      <c r="A35" s="6" t="inlineStr"/>
-      <c r="B35" s="7" t="n">
-        <v>1921</v>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <t>CeVmwDcuJYmTefWsOGfP</t>
-        </is>
-      </c>
-      <c r="D35" s="8" t="inlineStr"/>
-      <c r="E35" s="8" t="inlineStr"/>
-      <c r="F35" s="8" t="inlineStr"/>
-      <c r="G35" s="8" t="inlineStr"/>
-      <c r="H35" s="8" t="inlineStr"/>
-      <c r="I35" s="8" t="inlineStr">
-        <is>
-          <t>Ampola</t>
-        </is>
-      </c>
-      <c r="J35" s="9" t="inlineStr"/>
-      <c r="K35" s="9" t="inlineStr"/>
-      <c r="L35" s="9" t="inlineStr"/>
-      <c r="M35" s="8" t="inlineStr"/>
-      <c r="N35" s="10" t="inlineStr"/>
-      <c r="O35" s="10" t="inlineStr"/>
-      <c r="P35" s="10" t="inlineStr"/>
-      <c r="Q35" s="8" t="inlineStr"/>
-      <c r="R35" s="8" t="inlineStr"/>
-      <c r="S35" s="8" t="inlineStr"/>
-      <c r="T35" s="8" t="inlineStr"/>
-      <c r="U35" s="8" t="inlineStr"/>
-      <c r="V35" s="10" t="inlineStr"/>
-      <c r="W35" s="10" t="inlineStr"/>
-      <c r="X35" s="10" t="inlineStr"/>
-      <c r="Y35" s="11" t="inlineStr"/>
-      <c r="Z35" s="10" t="inlineStr"/>
-      <c r="AA35" s="10" t="inlineStr"/>
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="8" t="n"/>
+      <c r="D35" s="8" t="n"/>
+      <c r="E35" s="8" t="n"/>
+      <c r="F35" s="8" t="n"/>
+      <c r="G35" s="8" t="n"/>
+      <c r="H35" s="8" t="n"/>
+      <c r="I35" s="8" t="n"/>
+      <c r="J35" s="9" t="n"/>
+      <c r="K35" s="9" t="n"/>
+      <c r="L35" s="9" t="n"/>
+      <c r="M35" s="8" t="n"/>
+      <c r="N35" s="10" t="n"/>
+      <c r="O35" s="10" t="n"/>
+      <c r="P35" s="10" t="n"/>
+      <c r="Q35" s="8" t="n"/>
+      <c r="R35" s="8" t="n"/>
+      <c r="S35" s="8" t="n"/>
+      <c r="T35" s="8" t="n"/>
+      <c r="U35" s="8" t="n"/>
+      <c r="V35" s="10" t="n"/>
+      <c r="W35" s="10" t="n"/>
+      <c r="X35" s="10" t="n"/>
+      <c r="Y35" s="11" t="n"/>
+      <c r="Z35" s="10" t="n"/>
+      <c r="AA35" s="10" t="n"/>
     </row>
     <row r="36" ht="30" customHeight="1">
-      <c r="A36" s="6" t="inlineStr"/>
-      <c r="B36" s="7" t="n">
-        <v>5422</v>
-      </c>
-      <c r="C36" s="8" t="inlineStr">
-        <is>
-          <t>hhHZuHObFgzZjUtWVRiE</t>
-        </is>
-      </c>
-      <c r="D36" s="8" t="inlineStr"/>
-      <c r="E36" s="8" t="inlineStr"/>
-      <c r="F36" s="8" t="inlineStr"/>
-      <c r="G36" s="8" t="inlineStr"/>
-      <c r="H36" s="8" t="inlineStr"/>
-      <c r="I36" s="8" t="inlineStr">
-        <is>
-          <t>Balde</t>
-        </is>
-      </c>
-      <c r="J36" s="9" t="inlineStr"/>
-      <c r="K36" s="9" t="inlineStr"/>
-      <c r="L36" s="9" t="inlineStr"/>
-      <c r="M36" s="8" t="inlineStr"/>
-      <c r="N36" s="10" t="inlineStr"/>
-      <c r="O36" s="10" t="inlineStr"/>
-      <c r="P36" s="10" t="inlineStr"/>
-      <c r="Q36" s="8" t="inlineStr"/>
-      <c r="R36" s="8" t="inlineStr"/>
-      <c r="S36" s="8" t="inlineStr"/>
-      <c r="T36" s="8" t="inlineStr"/>
-      <c r="U36" s="8" t="inlineStr"/>
-      <c r="V36" s="10" t="inlineStr"/>
-      <c r="W36" s="10" t="inlineStr"/>
-      <c r="X36" s="10" t="inlineStr"/>
-      <c r="Y36" s="11" t="inlineStr"/>
-      <c r="Z36" s="10" t="inlineStr"/>
-      <c r="AA36" s="10" t="inlineStr"/>
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="7" t="n"/>
+      <c r="C36" s="8" t="n"/>
+      <c r="D36" s="8" t="n"/>
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
+      <c r="G36" s="8" t="n"/>
+      <c r="H36" s="8" t="n"/>
+      <c r="I36" s="8" t="n"/>
+      <c r="J36" s="9" t="n"/>
+      <c r="K36" s="9" t="n"/>
+      <c r="L36" s="9" t="n"/>
+      <c r="M36" s="8" t="n"/>
+      <c r="N36" s="10" t="n"/>
+      <c r="O36" s="10" t="n"/>
+      <c r="P36" s="10" t="n"/>
+      <c r="Q36" s="8" t="n"/>
+      <c r="R36" s="8" t="n"/>
+      <c r="S36" s="8" t="n"/>
+      <c r="T36" s="8" t="n"/>
+      <c r="U36" s="8" t="n"/>
+      <c r="V36" s="10" t="n"/>
+      <c r="W36" s="10" t="n"/>
+      <c r="X36" s="10" t="n"/>
+      <c r="Y36" s="11" t="n"/>
+      <c r="Z36" s="10" t="n"/>
+      <c r="AA36" s="10" t="n"/>
     </row>
     <row r="37" ht="30" customHeight="1">
-      <c r="A37" s="6" t="inlineStr"/>
-      <c r="B37" s="7" t="n">
-        <v>7394</v>
-      </c>
-      <c r="C37" s="8" t="inlineStr">
-        <is>
-          <t>fKMTbCfNIyxibSJaHrvb</t>
-        </is>
-      </c>
-      <c r="D37" s="8" t="inlineStr"/>
-      <c r="E37" s="8" t="inlineStr"/>
-      <c r="F37" s="8" t="inlineStr"/>
-      <c r="G37" s="8" t="inlineStr"/>
-      <c r="H37" s="8" t="inlineStr"/>
-      <c r="I37" s="8" t="inlineStr">
-        <is>
-          <t>Bobina</t>
-        </is>
-      </c>
-      <c r="J37" s="9" t="inlineStr"/>
-      <c r="K37" s="9" t="inlineStr"/>
-      <c r="L37" s="9" t="inlineStr"/>
-      <c r="M37" s="8" t="inlineStr"/>
-      <c r="N37" s="10" t="inlineStr"/>
-      <c r="O37" s="10" t="inlineStr"/>
-      <c r="P37" s="10" t="inlineStr"/>
-      <c r="Q37" s="8" t="inlineStr"/>
-      <c r="R37" s="8" t="inlineStr"/>
-      <c r="S37" s="8" t="inlineStr"/>
-      <c r="T37" s="8" t="inlineStr"/>
-      <c r="U37" s="8" t="inlineStr"/>
-      <c r="V37" s="10" t="inlineStr"/>
-      <c r="W37" s="10" t="inlineStr"/>
-      <c r="X37" s="10" t="inlineStr"/>
-      <c r="Y37" s="11" t="inlineStr"/>
-      <c r="Z37" s="10" t="inlineStr"/>
-      <c r="AA37" s="10" t="inlineStr"/>
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="7" t="n"/>
+      <c r="C37" s="8" t="n"/>
+      <c r="D37" s="8" t="n"/>
+      <c r="E37" s="8" t="n"/>
+      <c r="F37" s="8" t="n"/>
+      <c r="G37" s="8" t="n"/>
+      <c r="H37" s="8" t="n"/>
+      <c r="I37" s="8" t="n"/>
+      <c r="J37" s="9" t="n"/>
+      <c r="K37" s="9" t="n"/>
+      <c r="L37" s="9" t="n"/>
+      <c r="M37" s="8" t="n"/>
+      <c r="N37" s="10" t="n"/>
+      <c r="O37" s="10" t="n"/>
+      <c r="P37" s="10" t="n"/>
+      <c r="Q37" s="8" t="n"/>
+      <c r="R37" s="8" t="n"/>
+      <c r="S37" s="8" t="n"/>
+      <c r="T37" s="8" t="n"/>
+      <c r="U37" s="8" t="n"/>
+      <c r="V37" s="10" t="n"/>
+      <c r="W37" s="10" t="n"/>
+      <c r="X37" s="10" t="n"/>
+      <c r="Y37" s="11" t="n"/>
+      <c r="Z37" s="10" t="n"/>
+      <c r="AA37" s="10" t="n"/>
     </row>
     <row r="38" ht="30" customHeight="1">
-      <c r="A38" s="6" t="inlineStr"/>
-      <c r="B38" s="7" t="n">
-        <v>6988</v>
-      </c>
-      <c r="C38" s="8" t="inlineStr">
-        <is>
-          <t>mNfGtkgfUsWMFdDVkRGq</t>
-        </is>
-      </c>
-      <c r="D38" s="8" t="inlineStr"/>
-      <c r="E38" s="8" t="inlineStr"/>
-      <c r="F38" s="8" t="inlineStr"/>
-      <c r="G38" s="8" t="inlineStr"/>
-      <c r="H38" s="8" t="inlineStr"/>
-      <c r="I38" s="8" t="inlineStr">
-        <is>
-          <t>Barra</t>
-        </is>
-      </c>
-      <c r="J38" s="9" t="inlineStr"/>
-      <c r="K38" s="9" t="inlineStr"/>
-      <c r="L38" s="9" t="inlineStr"/>
-      <c r="M38" s="8" t="inlineStr"/>
-      <c r="N38" s="10" t="inlineStr"/>
-      <c r="O38" s="10" t="inlineStr"/>
-      <c r="P38" s="10" t="inlineStr"/>
-      <c r="Q38" s="8" t="inlineStr"/>
-      <c r="R38" s="8" t="inlineStr"/>
-      <c r="S38" s="8" t="inlineStr"/>
-      <c r="T38" s="8" t="inlineStr"/>
-      <c r="U38" s="8" t="inlineStr"/>
-      <c r="V38" s="10" t="inlineStr"/>
-      <c r="W38" s="10" t="inlineStr"/>
-      <c r="X38" s="10" t="inlineStr"/>
-      <c r="Y38" s="11" t="inlineStr"/>
-      <c r="Z38" s="10" t="inlineStr"/>
-      <c r="AA38" s="10" t="inlineStr"/>
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="7" t="n"/>
+      <c r="C38" s="8" t="n"/>
+      <c r="D38" s="8" t="n"/>
+      <c r="E38" s="8" t="n"/>
+      <c r="F38" s="8" t="n"/>
+      <c r="G38" s="8" t="n"/>
+      <c r="H38" s="8" t="n"/>
+      <c r="I38" s="8" t="n"/>
+      <c r="J38" s="9" t="n"/>
+      <c r="K38" s="9" t="n"/>
+      <c r="L38" s="9" t="n"/>
+      <c r="M38" s="8" t="n"/>
+      <c r="N38" s="10" t="n"/>
+      <c r="O38" s="10" t="n"/>
+      <c r="P38" s="10" t="n"/>
+      <c r="Q38" s="8" t="n"/>
+      <c r="R38" s="8" t="n"/>
+      <c r="S38" s="8" t="n"/>
+      <c r="T38" s="8" t="n"/>
+      <c r="U38" s="8" t="n"/>
+      <c r="V38" s="10" t="n"/>
+      <c r="W38" s="10" t="n"/>
+      <c r="X38" s="10" t="n"/>
+      <c r="Y38" s="11" t="n"/>
+      <c r="Z38" s="10" t="n"/>
+      <c r="AA38" s="10" t="n"/>
     </row>
     <row r="39" ht="30" customHeight="1">
-      <c r="A39" s="6" t="inlineStr"/>
-      <c r="B39" s="7" t="n">
-        <v>7335</v>
-      </c>
-      <c r="C39" s="8" t="inlineStr">
-        <is>
-          <t>GWgxLserDFtTHcJittKi</t>
-        </is>
-      </c>
-      <c r="D39" s="8" t="inlineStr"/>
-      <c r="E39" s="8" t="inlineStr"/>
-      <c r="F39" s="8" t="inlineStr"/>
-      <c r="G39" s="8" t="inlineStr"/>
-      <c r="H39" s="8" t="inlineStr"/>
-      <c r="I39" s="8" t="inlineStr">
-        <is>
-          <t>Balde</t>
-        </is>
-      </c>
-      <c r="J39" s="9" t="inlineStr"/>
-      <c r="K39" s="9" t="inlineStr"/>
-      <c r="L39" s="9" t="inlineStr"/>
-      <c r="M39" s="8" t="inlineStr"/>
-      <c r="N39" s="10" t="inlineStr"/>
-      <c r="O39" s="10" t="inlineStr"/>
-      <c r="P39" s="10" t="inlineStr"/>
-      <c r="Q39" s="8" t="inlineStr"/>
-      <c r="R39" s="8" t="inlineStr"/>
-      <c r="S39" s="8" t="inlineStr"/>
-      <c r="T39" s="8" t="inlineStr"/>
-      <c r="U39" s="8" t="inlineStr"/>
-      <c r="V39" s="10" t="inlineStr"/>
-      <c r="W39" s="10" t="inlineStr"/>
-      <c r="X39" s="10" t="inlineStr"/>
-      <c r="Y39" s="11" t="inlineStr"/>
-      <c r="Z39" s="10" t="inlineStr"/>
-      <c r="AA39" s="10" t="inlineStr"/>
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="7" t="n"/>
+      <c r="C39" s="8" t="n"/>
+      <c r="D39" s="8" t="n"/>
+      <c r="E39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
+      <c r="G39" s="8" t="n"/>
+      <c r="H39" s="8" t="n"/>
+      <c r="I39" s="8" t="n"/>
+      <c r="J39" s="9" t="n"/>
+      <c r="K39" s="9" t="n"/>
+      <c r="L39" s="9" t="n"/>
+      <c r="M39" s="8" t="n"/>
+      <c r="N39" s="10" t="n"/>
+      <c r="O39" s="10" t="n"/>
+      <c r="P39" s="10" t="n"/>
+      <c r="Q39" s="8" t="n"/>
+      <c r="R39" s="8" t="n"/>
+      <c r="S39" s="8" t="n"/>
+      <c r="T39" s="8" t="n"/>
+      <c r="U39" s="8" t="n"/>
+      <c r="V39" s="10" t="n"/>
+      <c r="W39" s="10" t="n"/>
+      <c r="X39" s="10" t="n"/>
+      <c r="Y39" s="11" t="n"/>
+      <c r="Z39" s="10" t="n"/>
+      <c r="AA39" s="10" t="n"/>
     </row>
     <row r="40" ht="30" customHeight="1">
-      <c r="A40" s="6" t="inlineStr"/>
-      <c r="B40" s="7" t="n">
-        <v>2664</v>
-      </c>
-      <c r="C40" s="8" t="inlineStr">
-        <is>
-          <t>jQGqELXGgBkwlqLVYlBt</t>
-        </is>
-      </c>
-      <c r="D40" s="8" t="inlineStr"/>
-      <c r="E40" s="8" t="inlineStr"/>
-      <c r="F40" s="8" t="inlineStr"/>
-      <c r="G40" s="8" t="inlineStr"/>
-      <c r="H40" s="8" t="inlineStr"/>
-      <c r="I40" s="8" t="inlineStr">
-        <is>
-          <t>Balde</t>
-        </is>
-      </c>
-      <c r="J40" s="9" t="inlineStr"/>
-      <c r="K40" s="9" t="inlineStr"/>
-      <c r="L40" s="9" t="inlineStr"/>
-      <c r="M40" s="8" t="inlineStr"/>
-      <c r="N40" s="10" t="inlineStr"/>
-      <c r="O40" s="10" t="inlineStr"/>
-      <c r="P40" s="10" t="inlineStr"/>
-      <c r="Q40" s="8" t="inlineStr"/>
-      <c r="R40" s="8" t="inlineStr"/>
-      <c r="S40" s="8" t="inlineStr"/>
-      <c r="T40" s="8" t="inlineStr"/>
-      <c r="U40" s="8" t="inlineStr"/>
-      <c r="V40" s="10" t="inlineStr"/>
-      <c r="W40" s="10" t="inlineStr"/>
-      <c r="X40" s="10" t="inlineStr"/>
-      <c r="Y40" s="11" t="inlineStr"/>
-      <c r="Z40" s="10" t="inlineStr"/>
-      <c r="AA40" s="10" t="inlineStr"/>
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="7" t="n"/>
+      <c r="C40" s="8" t="n"/>
+      <c r="D40" s="8" t="n"/>
+      <c r="E40" s="8" t="n"/>
+      <c r="F40" s="8" t="n"/>
+      <c r="G40" s="8" t="n"/>
+      <c r="H40" s="8" t="n"/>
+      <c r="I40" s="8" t="n"/>
+      <c r="J40" s="9" t="n"/>
+      <c r="K40" s="9" t="n"/>
+      <c r="L40" s="9" t="n"/>
+      <c r="M40" s="8" t="n"/>
+      <c r="N40" s="10" t="n"/>
+      <c r="O40" s="10" t="n"/>
+      <c r="P40" s="10" t="n"/>
+      <c r="Q40" s="8" t="n"/>
+      <c r="R40" s="8" t="n"/>
+      <c r="S40" s="8" t="n"/>
+      <c r="T40" s="8" t="n"/>
+      <c r="U40" s="8" t="n"/>
+      <c r="V40" s="10" t="n"/>
+      <c r="W40" s="10" t="n"/>
+      <c r="X40" s="10" t="n"/>
+      <c r="Y40" s="11" t="n"/>
+      <c r="Z40" s="10" t="n"/>
+      <c r="AA40" s="10" t="n"/>
     </row>
     <row r="41" ht="30" customHeight="1">
-      <c r="A41" s="6" t="inlineStr"/>
-      <c r="B41" s="7" t="n">
-        <v>7806</v>
-      </c>
-      <c r="C41" s="8" t="inlineStr">
-        <is>
-          <t>cOzRbBCQNoyNfGUFHBov</t>
-        </is>
-      </c>
-      <c r="D41" s="8" t="inlineStr"/>
-      <c r="E41" s="8" t="inlineStr"/>
-      <c r="F41" s="8" t="inlineStr"/>
-      <c r="G41" s="8" t="inlineStr"/>
-      <c r="H41" s="8" t="inlineStr"/>
-      <c r="I41" s="8" t="inlineStr">
-        <is>
-          <t>Balde</t>
-        </is>
-      </c>
-      <c r="J41" s="9" t="inlineStr"/>
-      <c r="K41" s="9" t="inlineStr"/>
-      <c r="L41" s="9" t="inlineStr"/>
-      <c r="M41" s="8" t="inlineStr"/>
-      <c r="N41" s="10" t="inlineStr"/>
-      <c r="O41" s="10" t="inlineStr"/>
-      <c r="P41" s="10" t="inlineStr"/>
-      <c r="Q41" s="8" t="inlineStr"/>
-      <c r="R41" s="8" t="inlineStr"/>
-      <c r="S41" s="8" t="inlineStr"/>
-      <c r="T41" s="8" t="inlineStr"/>
-      <c r="U41" s="8" t="inlineStr"/>
-      <c r="V41" s="10" t="inlineStr"/>
-      <c r="W41" s="10" t="inlineStr"/>
-      <c r="X41" s="10" t="inlineStr"/>
-      <c r="Y41" s="11" t="inlineStr"/>
-      <c r="Z41" s="10" t="inlineStr"/>
-      <c r="AA41" s="10" t="inlineStr"/>
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="7" t="n"/>
+      <c r="C41" s="8" t="n"/>
+      <c r="D41" s="8" t="n"/>
+      <c r="E41" s="8" t="n"/>
+      <c r="F41" s="8" t="n"/>
+      <c r="G41" s="8" t="n"/>
+      <c r="H41" s="8" t="n"/>
+      <c r="I41" s="8" t="n"/>
+      <c r="J41" s="9" t="n"/>
+      <c r="K41" s="9" t="n"/>
+      <c r="L41" s="9" t="n"/>
+      <c r="M41" s="8" t="n"/>
+      <c r="N41" s="10" t="n"/>
+      <c r="O41" s="10" t="n"/>
+      <c r="P41" s="10" t="n"/>
+      <c r="Q41" s="8" t="n"/>
+      <c r="R41" s="8" t="n"/>
+      <c r="S41" s="8" t="n"/>
+      <c r="T41" s="8" t="n"/>
+      <c r="U41" s="8" t="n"/>
+      <c r="V41" s="10" t="n"/>
+      <c r="W41" s="10" t="n"/>
+      <c r="X41" s="10" t="n"/>
+      <c r="Y41" s="11" t="n"/>
+      <c r="Z41" s="10" t="n"/>
+      <c r="AA41" s="10" t="n"/>
     </row>
     <row r="42" ht="30" customHeight="1">
-      <c r="A42" s="6" t="inlineStr"/>
-      <c r="B42" s="7" t="n">
-        <v>1517</v>
-      </c>
-      <c r="C42" s="8" t="inlineStr">
-        <is>
-          <t>XHeQhOOjeqNsNnTDIWjD</t>
-        </is>
-      </c>
-      <c r="D42" s="8" t="inlineStr"/>
-      <c r="E42" s="8" t="inlineStr"/>
-      <c r="F42" s="8" t="inlineStr"/>
-      <c r="G42" s="8" t="inlineStr"/>
-      <c r="H42" s="8" t="inlineStr"/>
-      <c r="I42" s="8" t="inlineStr">
-        <is>
-          <t>Bloco</t>
-        </is>
-      </c>
-      <c r="J42" s="9" t="inlineStr"/>
-      <c r="K42" s="9" t="inlineStr"/>
-      <c r="L42" s="9" t="inlineStr"/>
-      <c r="M42" s="8" t="inlineStr"/>
-      <c r="N42" s="10" t="inlineStr"/>
-      <c r="O42" s="10" t="inlineStr"/>
-      <c r="P42" s="10" t="inlineStr"/>
-      <c r="Q42" s="8" t="inlineStr"/>
-      <c r="R42" s="8" t="inlineStr"/>
-      <c r="S42" s="8" t="inlineStr"/>
-      <c r="T42" s="8" t="inlineStr"/>
-      <c r="U42" s="8" t="inlineStr"/>
-      <c r="V42" s="10" t="inlineStr"/>
-      <c r="W42" s="10" t="inlineStr"/>
-      <c r="X42" s="10" t="inlineStr"/>
-      <c r="Y42" s="11" t="inlineStr"/>
-      <c r="Z42" s="10" t="inlineStr"/>
-      <c r="AA42" s="10" t="inlineStr"/>
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="7" t="n"/>
+      <c r="C42" s="8" t="n"/>
+      <c r="D42" s="8" t="n"/>
+      <c r="E42" s="8" t="n"/>
+      <c r="F42" s="8" t="n"/>
+      <c r="G42" s="8" t="n"/>
+      <c r="H42" s="8" t="n"/>
+      <c r="I42" s="8" t="n"/>
+      <c r="J42" s="9" t="n"/>
+      <c r="K42" s="9" t="n"/>
+      <c r="L42" s="9" t="n"/>
+      <c r="M42" s="8" t="n"/>
+      <c r="N42" s="10" t="n"/>
+      <c r="O42" s="10" t="n"/>
+      <c r="P42" s="10" t="n"/>
+      <c r="Q42" s="8" t="n"/>
+      <c r="R42" s="8" t="n"/>
+      <c r="S42" s="8" t="n"/>
+      <c r="T42" s="8" t="n"/>
+      <c r="U42" s="8" t="n"/>
+      <c r="V42" s="10" t="n"/>
+      <c r="W42" s="10" t="n"/>
+      <c r="X42" s="10" t="n"/>
+      <c r="Y42" s="11" t="n"/>
+      <c r="Z42" s="10" t="n"/>
+      <c r="AA42" s="10" t="n"/>
     </row>
     <row r="43" ht="30" customHeight="1">
-      <c r="A43" s="6" t="inlineStr"/>
-      <c r="B43" s="7" t="n">
-        <v>1032</v>
-      </c>
-      <c r="C43" s="8" t="inlineStr">
-        <is>
-          <t>QKBTjhyWDQUbIbJZAxlB</t>
-        </is>
-      </c>
-      <c r="D43" s="8" t="inlineStr"/>
-      <c r="E43" s="8" t="inlineStr"/>
-      <c r="F43" s="8" t="inlineStr"/>
-      <c r="G43" s="8" t="inlineStr"/>
-      <c r="H43" s="8" t="inlineStr"/>
-      <c r="I43" s="8" t="inlineStr">
-        <is>
-          <t>Bobina</t>
-        </is>
-      </c>
-      <c r="J43" s="9" t="inlineStr"/>
-      <c r="K43" s="9" t="inlineStr"/>
-      <c r="L43" s="9" t="inlineStr"/>
-      <c r="M43" s="8" t="inlineStr"/>
-      <c r="N43" s="10" t="inlineStr"/>
-      <c r="O43" s="10" t="inlineStr"/>
-      <c r="P43" s="10" t="inlineStr"/>
-      <c r="Q43" s="8" t="inlineStr"/>
-      <c r="R43" s="8" t="inlineStr"/>
-      <c r="S43" s="8" t="inlineStr"/>
-      <c r="T43" s="8" t="inlineStr"/>
-      <c r="U43" s="8" t="inlineStr"/>
-      <c r="V43" s="10" t="inlineStr"/>
-      <c r="W43" s="10" t="inlineStr"/>
-      <c r="X43" s="10" t="inlineStr"/>
-      <c r="Y43" s="11" t="inlineStr"/>
-      <c r="Z43" s="10" t="inlineStr"/>
-      <c r="AA43" s="10" t="inlineStr"/>
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="7" t="n"/>
+      <c r="C43" s="8" t="n"/>
+      <c r="D43" s="8" t="n"/>
+      <c r="E43" s="8" t="n"/>
+      <c r="F43" s="8" t="n"/>
+      <c r="G43" s="8" t="n"/>
+      <c r="H43" s="8" t="n"/>
+      <c r="I43" s="8" t="n"/>
+      <c r="J43" s="9" t="n"/>
+      <c r="K43" s="9" t="n"/>
+      <c r="L43" s="9" t="n"/>
+      <c r="M43" s="8" t="n"/>
+      <c r="N43" s="10" t="n"/>
+      <c r="O43" s="10" t="n"/>
+      <c r="P43" s="10" t="n"/>
+      <c r="Q43" s="8" t="n"/>
+      <c r="R43" s="8" t="n"/>
+      <c r="S43" s="8" t="n"/>
+      <c r="T43" s="8" t="n"/>
+      <c r="U43" s="8" t="n"/>
+      <c r="V43" s="10" t="n"/>
+      <c r="W43" s="10" t="n"/>
+      <c r="X43" s="10" t="n"/>
+      <c r="Y43" s="11" t="n"/>
+      <c r="Z43" s="10" t="n"/>
+      <c r="AA43" s="10" t="n"/>
     </row>
     <row r="44" ht="30" customHeight="1">
-      <c r="A44" s="6" t="inlineStr"/>
-      <c r="B44" s="7" t="n">
-        <v>4769</v>
-      </c>
-      <c r="C44" s="8" t="inlineStr">
-        <is>
-          <t>XHEWqbCVMSrOfnHYEFiW</t>
-        </is>
-      </c>
-      <c r="D44" s="8" t="inlineStr"/>
-      <c r="E44" s="8" t="inlineStr"/>
-      <c r="F44" s="8" t="inlineStr"/>
-      <c r="G44" s="8" t="inlineStr"/>
-      <c r="H44" s="8" t="inlineStr"/>
-      <c r="I44" s="8" t="inlineStr">
-        <is>
-          <t>Bloco</t>
-        </is>
-      </c>
-      <c r="J44" s="9" t="inlineStr"/>
-      <c r="K44" s="9" t="inlineStr"/>
-      <c r="L44" s="9" t="inlineStr"/>
-      <c r="M44" s="8" t="inlineStr"/>
-      <c r="N44" s="10" t="inlineStr"/>
-      <c r="O44" s="10" t="inlineStr"/>
-      <c r="P44" s="10" t="inlineStr"/>
-      <c r="Q44" s="8" t="inlineStr"/>
-      <c r="R44" s="8" t="inlineStr"/>
-      <c r="S44" s="8" t="inlineStr"/>
-      <c r="T44" s="8" t="inlineStr"/>
-      <c r="U44" s="8" t="inlineStr"/>
-      <c r="V44" s="10" t="inlineStr"/>
-      <c r="W44" s="10" t="inlineStr"/>
-      <c r="X44" s="10" t="inlineStr"/>
-      <c r="Y44" s="11" t="inlineStr"/>
-      <c r="Z44" s="10" t="inlineStr"/>
-      <c r="AA44" s="10" t="inlineStr"/>
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="7" t="n"/>
+      <c r="C44" s="8" t="n"/>
+      <c r="D44" s="8" t="n"/>
+      <c r="E44" s="8" t="n"/>
+      <c r="F44" s="8" t="n"/>
+      <c r="G44" s="8" t="n"/>
+      <c r="H44" s="8" t="n"/>
+      <c r="I44" s="8" t="n"/>
+      <c r="J44" s="9" t="n"/>
+      <c r="K44" s="9" t="n"/>
+      <c r="L44" s="9" t="n"/>
+      <c r="M44" s="8" t="n"/>
+      <c r="N44" s="10" t="n"/>
+      <c r="O44" s="10" t="n"/>
+      <c r="P44" s="10" t="n"/>
+      <c r="Q44" s="8" t="n"/>
+      <c r="R44" s="8" t="n"/>
+      <c r="S44" s="8" t="n"/>
+      <c r="T44" s="8" t="n"/>
+      <c r="U44" s="8" t="n"/>
+      <c r="V44" s="10" t="n"/>
+      <c r="W44" s="10" t="n"/>
+      <c r="X44" s="10" t="n"/>
+      <c r="Y44" s="11" t="n"/>
+      <c r="Z44" s="10" t="n"/>
+      <c r="AA44" s="10" t="n"/>
     </row>
     <row r="45" ht="30" customHeight="1">
-      <c r="A45" s="6" t="inlineStr"/>
-      <c r="B45" s="7" t="n">
-        <v>6691</v>
-      </c>
-      <c r="C45" s="8" t="inlineStr">
-        <is>
-          <t>VhJTbUsZZgaYmxEbjedY</t>
-        </is>
-      </c>
-      <c r="D45" s="8" t="inlineStr"/>
-      <c r="E45" s="8" t="inlineStr"/>
-      <c r="F45" s="8" t="inlineStr"/>
-      <c r="G45" s="8" t="inlineStr"/>
-      <c r="H45" s="8" t="inlineStr"/>
-      <c r="I45" s="8" t="inlineStr">
-        <is>
-          <t>Bobina</t>
-        </is>
-      </c>
-      <c r="J45" s="9" t="inlineStr"/>
-      <c r="K45" s="9" t="inlineStr"/>
-      <c r="L45" s="9" t="inlineStr"/>
-      <c r="M45" s="8" t="inlineStr"/>
-      <c r="N45" s="10" t="inlineStr"/>
-      <c r="O45" s="10" t="inlineStr"/>
-      <c r="P45" s="10" t="inlineStr"/>
-      <c r="Q45" s="8" t="inlineStr"/>
-      <c r="R45" s="8" t="inlineStr"/>
-      <c r="S45" s="8" t="inlineStr"/>
-      <c r="T45" s="8" t="inlineStr"/>
-      <c r="U45" s="8" t="inlineStr"/>
-      <c r="V45" s="10" t="inlineStr"/>
-      <c r="W45" s="10" t="inlineStr"/>
-      <c r="X45" s="10" t="inlineStr"/>
-      <c r="Y45" s="11" t="inlineStr"/>
-      <c r="Z45" s="10" t="inlineStr"/>
-      <c r="AA45" s="10" t="inlineStr"/>
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="7" t="n"/>
+      <c r="C45" s="8" t="n"/>
+      <c r="D45" s="8" t="n"/>
+      <c r="E45" s="8" t="n"/>
+      <c r="F45" s="8" t="n"/>
+      <c r="G45" s="8" t="n"/>
+      <c r="H45" s="8" t="n"/>
+      <c r="I45" s="8" t="n"/>
+      <c r="J45" s="9" t="n"/>
+      <c r="K45" s="9" t="n"/>
+      <c r="L45" s="9" t="n"/>
+      <c r="M45" s="8" t="n"/>
+      <c r="N45" s="10" t="n"/>
+      <c r="O45" s="10" t="n"/>
+      <c r="P45" s="10" t="n"/>
+      <c r="Q45" s="8" t="n"/>
+      <c r="R45" s="8" t="n"/>
+      <c r="S45" s="8" t="n"/>
+      <c r="T45" s="8" t="n"/>
+      <c r="U45" s="8" t="n"/>
+      <c r="V45" s="10" t="n"/>
+      <c r="W45" s="10" t="n"/>
+      <c r="X45" s="10" t="n"/>
+      <c r="Y45" s="11" t="n"/>
+      <c r="Z45" s="10" t="n"/>
+      <c r="AA45" s="10" t="n"/>
     </row>
     <row r="46" ht="30" customHeight="1">
-      <c r="A46" s="6" t="inlineStr"/>
-      <c r="B46" s="7" t="n">
-        <v>3807</v>
-      </c>
-      <c r="C46" s="8" t="inlineStr">
-        <is>
-          <t>TqrONBQWvFPyxTRixjJv</t>
-        </is>
-      </c>
-      <c r="D46" s="8" t="inlineStr"/>
-      <c r="E46" s="8" t="inlineStr"/>
-      <c r="F46" s="8" t="inlineStr"/>
-      <c r="G46" s="8" t="inlineStr"/>
-      <c r="H46" s="8" t="inlineStr"/>
-      <c r="I46" s="8" t="inlineStr">
-        <is>
-          <t>Bobina</t>
-        </is>
-      </c>
-      <c r="J46" s="9" t="inlineStr"/>
-      <c r="K46" s="9" t="inlineStr"/>
-      <c r="L46" s="9" t="inlineStr"/>
-      <c r="M46" s="8" t="inlineStr"/>
-      <c r="N46" s="10" t="inlineStr"/>
-      <c r="O46" s="10" t="inlineStr"/>
-      <c r="P46" s="10" t="inlineStr"/>
-      <c r="Q46" s="8" t="inlineStr"/>
-      <c r="R46" s="8" t="inlineStr"/>
-      <c r="S46" s="8" t="inlineStr"/>
-      <c r="T46" s="8" t="inlineStr"/>
-      <c r="U46" s="8" t="inlineStr"/>
-      <c r="V46" s="10" t="inlineStr"/>
-      <c r="W46" s="10" t="inlineStr"/>
-      <c r="X46" s="10" t="inlineStr"/>
-      <c r="Y46" s="11" t="inlineStr"/>
-      <c r="Z46" s="10" t="inlineStr"/>
-      <c r="AA46" s="10" t="inlineStr"/>
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="7" t="n"/>
+      <c r="C46" s="8" t="n"/>
+      <c r="D46" s="8" t="n"/>
+      <c r="E46" s="8" t="n"/>
+      <c r="F46" s="8" t="n"/>
+      <c r="G46" s="8" t="n"/>
+      <c r="H46" s="8" t="n"/>
+      <c r="I46" s="8" t="n"/>
+      <c r="J46" s="9" t="n"/>
+      <c r="K46" s="9" t="n"/>
+      <c r="L46" s="9" t="n"/>
+      <c r="M46" s="8" t="n"/>
+      <c r="N46" s="10" t="n"/>
+      <c r="O46" s="10" t="n"/>
+      <c r="P46" s="10" t="n"/>
+      <c r="Q46" s="8" t="n"/>
+      <c r="R46" s="8" t="n"/>
+      <c r="S46" s="8" t="n"/>
+      <c r="T46" s="8" t="n"/>
+      <c r="U46" s="8" t="n"/>
+      <c r="V46" s="10" t="n"/>
+      <c r="W46" s="10" t="n"/>
+      <c r="X46" s="10" t="n"/>
+      <c r="Y46" s="11" t="n"/>
+      <c r="Z46" s="10" t="n"/>
+      <c r="AA46" s="10" t="n"/>
     </row>
     <row r="47" ht="30" customHeight="1">
       <c r="A47" s="6" t="n"/>
